--- a/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
+++ b/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
@@ -395,7 +395,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.99602</v>
       </c>
       <c r="B2" t="n">
         <v>8.44697138853841e-06</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.00097</v>
       </c>
       <c r="B3" t="n">
         <v>1.268377008880499e-05</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
         <v>1.525834171516452e-05</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.00697</v>
       </c>
       <c r="B5" t="n">
         <v>2.167215927757206e-05</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.00909</v>
       </c>
       <c r="B6" t="n">
         <v>2.253768099605752e-05</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.01003</v>
       </c>
       <c r="B7" t="n">
         <v>2.338697636906591e-05</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
         <v>2.647632785651154e-05</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.01911</v>
       </c>
       <c r="B9" t="n">
         <v>2.592617789583817e-05</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.01992</v>
       </c>
       <c r="B10" t="n">
         <v>2.375640064551699e-05</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.02504</v>
       </c>
       <c r="B11" t="n">
         <v>2.319543618544739e-05</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.02998</v>
       </c>
       <c r="B12" t="n">
         <v>2.011005517800621e-05</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.03514</v>
       </c>
       <c r="B13" t="n">
         <v>1.540745484550875e-05</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.26996</v>
       </c>
       <c r="B14" t="n">
         <v>8.913630912294389e-06</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.29005</v>
       </c>
       <c r="B15" t="n">
         <v>1.2661840054944e-05</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="B16" t="n">
         <v>1.791312965340956e-05</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.29319</v>
       </c>
       <c r="B17" t="n">
         <v>2.10802089774395e-05</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.2942</v>
       </c>
       <c r="B18" t="n">
         <v>2.485252946160971e-05</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.29515</v>
       </c>
       <c r="B19" t="n">
         <v>2.994130544770261e-05</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.29615</v>
       </c>
       <c r="B20" t="n">
         <v>3.328173739225281e-05</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
         <v>5.084940399129413e-05</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="B22" t="n">
         <v>0.0001459140676250563</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="B23" t="n">
         <v>0.0002288822945349873</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.30105</v>
       </c>
       <c r="B24" t="n">
         <v>0.000342024504574367</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.3031</v>
       </c>
       <c r="B25" t="n">
         <v>0.0003468337491003333</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.30523</v>
       </c>
       <c r="B26" t="n">
         <v>0.0003227340537924042</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
         <v>0.0003078109977709046</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.3093</v>
       </c>
       <c r="B28" t="n">
         <v>0.0003087076654769622</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.30996</v>
       </c>
       <c r="B29" t="n">
         <v>0.0003130876610081944</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.31117</v>
       </c>
       <c r="B30" t="n">
         <v>0.0003023616757751905</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.31311</v>
       </c>
       <c r="B31" t="n">
         <v>0.0003050218060451323</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.31513</v>
       </c>
       <c r="B32" t="n">
         <v>0.0003034028526316878</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.3172</v>
       </c>
       <c r="B33" t="n">
         <v>0.0002961008307256725</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.31917</v>
       </c>
       <c r="B34" t="n">
         <v>0.0002893238247595255</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
         <v>0.000268283173555291</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
         <v>0.0002440300400757843</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.32521</v>
       </c>
       <c r="B37" t="n">
         <v>0.0001976481057317262</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.32711</v>
       </c>
       <c r="B38" t="n">
         <v>0.000157997709202577</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.32908</v>
       </c>
       <c r="B39" t="n">
         <v>0.0001064181567590091</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.33012</v>
       </c>
       <c r="B40" t="n">
         <v>0.0001509659526484767</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.33119</v>
       </c>
       <c r="B41" t="n">
         <v>7.530698310484192e-05</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.33324</v>
       </c>
       <c r="B42" t="n">
         <v>5.128235587099358e-05</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.33515</v>
       </c>
       <c r="B43" t="n">
         <v>3.897159070016061e-05</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.34004</v>
       </c>
       <c r="B44" t="n">
         <v>2.369936639067758e-05</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.34488</v>
       </c>
       <c r="B45" t="n">
         <v>2.065849799980536e-05</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.34998</v>
       </c>
       <c r="B46" t="n">
         <v>1.940594915317256e-05</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.37005</v>
       </c>
       <c r="B47" t="n">
         <v>2.096989604767522e-05</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.39015</v>
       </c>
       <c r="B48" t="n">
         <v>2.681573470093981e-05</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.41003</v>
       </c>
       <c r="B49" t="n">
         <v>3.659908217351538e-05</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.42024</v>
       </c>
       <c r="B50" t="n">
         <v>5.332859726719691e-05</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.43018</v>
       </c>
       <c r="B51" t="n">
         <v>6.664005208294366e-05</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.44004</v>
       </c>
       <c r="B52" t="n">
         <v>0.0001242516573424251</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.44994</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001915274981085531</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.45499</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004492736015660446</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.46012</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006802502607983102</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007087530349315445</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="B57" t="n">
         <v>0.000526136192138302</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.48613</v>
       </c>
       <c r="B58" t="n">
         <v>0.000249842407821286</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.48819</v>
       </c>
       <c r="B59" t="n">
         <v>0.0001841535569504802</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0.000243486770808006</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.49222</v>
       </c>
       <c r="B61" t="n">
         <v>9.638555343472732e-05</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.49499</v>
       </c>
       <c r="B62" t="n">
         <v>6.544337079404951e-05</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="B63" t="n">
         <v>3.794541510148901e-05</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.51021</v>
       </c>
       <c r="B64" t="n">
         <v>2.877017619649062e-05</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.51218</v>
       </c>
       <c r="B65" t="n">
         <v>6.570560689623105e-05</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.51508</v>
       </c>
       <c r="B66" t="n">
         <v>0.0001929811132259305</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.52007</v>
       </c>
       <c r="B67" t="n">
         <v>0.0003374078079248881</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.52524</v>
       </c>
       <c r="B68" t="n">
         <v>0.000610487835089628</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="B69" t="n">
         <v>0.0006117949732189877</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.53506</v>
       </c>
       <c r="B70" t="n">
         <v>0.001061478851401424</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.54024</v>
       </c>
       <c r="B71" t="n">
         <v>0.001175576622687514</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.5498</v>
       </c>
       <c r="B72" t="n">
         <v>0.001493917872840591</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.56018</v>
       </c>
       <c r="B73" t="n">
         <v>0.002220904223756534</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="B74" t="n">
         <v>0.002036211241737197</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="B75" t="n">
         <v>0.001037298453352718</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.59008</v>
       </c>
       <c r="B76" t="n">
         <v>0.0005550671726978059</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.60027</v>
       </c>
       <c r="B77" t="n">
         <v>0.000466420910999834</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.60999</v>
       </c>
       <c r="B78" t="n">
         <v>0.001059313295594933</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.62023</v>
       </c>
       <c r="B79" t="n">
         <v>0.001192153906186686</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.62994</v>
       </c>
       <c r="B80" t="n">
         <v>0.0008636574766039915</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.63517</v>
       </c>
       <c r="B81" t="n">
         <v>0.0004581625415020429</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
         <v>0.0002696087866634492</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.64996</v>
       </c>
       <c r="B83" t="n">
         <v>0.0002224684373751183</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.67012</v>
       </c>
       <c r="B84" t="n">
         <v>0.0001160922413108288</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.68015</v>
       </c>
       <c r="B85" t="n">
         <v>6.125673385877504e-05</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.68993</v>
       </c>
       <c r="B86" t="n">
         <v>4.703146740103777e-05</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
         <v>3.768504754280159e-05</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.73</v>
       </c>
       <c r="B88" t="n">
         <v>3.505959089693405e-05</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.75</v>
       </c>
       <c r="B89" t="n">
         <v>4.748549268292688e-05</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.75518</v>
       </c>
       <c r="B90" t="n">
         <v>8.534273649059217e-05</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.75888</v>
       </c>
       <c r="B91" t="n">
         <v>9.562230066451844e-05</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.77004</v>
       </c>
       <c r="B92" t="n">
         <v>0.000117945386381454</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.77502</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001783321031467917</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="B94" t="n">
         <v>0.0003763747570134308</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.79012</v>
       </c>
       <c r="B95" t="n">
         <v>0.0004740463293253399</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="B96" t="n">
         <v>0.0003902357327518997</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.81003</v>
       </c>
       <c r="B97" t="n">
         <v>0.0001894519858811567</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
         <v>9.061768942903422e-05</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
         <v>5.656483793139232e-05</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.82006</v>
       </c>
       <c r="B100" t="n">
         <v>3.071471369238838e-05</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.82989</v>
       </c>
       <c r="B101" t="n">
         <v>1.968916336022086e-05</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
         <v>1.387360417999974e-05</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.86629</v>
       </c>
       <c r="B103" t="n">
         <v>1.35204861890914e-05</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.88989</v>
       </c>
       <c r="B104" t="n">
         <v>1.610174127939142e-05</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.89991</v>
       </c>
       <c r="B105" t="n">
         <v>2.89240860370095e-05</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
         <v>4.162248011304976e-05</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.91996</v>
       </c>
       <c r="B107" t="n">
         <v>5.240276242780116e-05</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.92615</v>
       </c>
       <c r="B108" t="n">
         <v>5.413415562244805e-05</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="B109" t="n">
         <v>5.554934590110099e-05</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.93692</v>
       </c>
       <c r="B110" t="n">
         <v>5.35564059036486e-05</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.94675</v>
       </c>
       <c r="B111" t="n">
         <v>5.513419448075011e-05</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.95027</v>
       </c>
       <c r="B112" t="n">
         <v>5.656368801946835e-05</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.95676</v>
       </c>
       <c r="B113" t="n">
         <v>5.938435664878415e-05</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="B114" t="n">
         <v>6.239727830573519e-05</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.96475</v>
       </c>
       <c r="B115" t="n">
         <v>6.653555403363991e-05</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.96787</v>
       </c>
       <c r="B116" t="n">
         <v>6.767340858778562e-05</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.97004</v>
       </c>
       <c r="B117" t="n">
         <v>6.93307279517716e-05</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
         <v>6.779248408792795e-05</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.97463</v>
       </c>
       <c r="B119" t="n">
         <v>6.727015020158205e-05</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.98471</v>
       </c>
       <c r="B120" t="n">
         <v>5.615293838021615e-05</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="B121" t="n">
         <v>5.514523116219465e-05</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="B122" t="n">
         <v>4.3962740516282e-05</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.00464</v>
       </c>
       <c r="B123" t="n">
         <v>3.495754109665342e-05</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
         <v>3.753466967041244e-05</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.01484</v>
       </c>
       <c r="B125" t="n">
         <v>4.773489260959742e-05</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.01774</v>
       </c>
       <c r="B126" t="n">
         <v>6.473230751553452e-05</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.01786</v>
       </c>
       <c r="B127" t="n">
         <v>6.197329030789761e-05</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="B128" t="n">
         <v>0.0001008908919368994</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.0248</v>
       </c>
       <c r="B129" t="n">
         <v>0.0001844763740315614</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="B130" t="n">
         <v>0.0002018104670420222</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.0301</v>
       </c>
       <c r="B131" t="n">
         <v>0.0002143060862025745</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="B132" t="n">
         <v>0.0002437446873707118</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.0359</v>
       </c>
       <c r="B133" t="n">
         <v>0.0002771089331527121</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.03871</v>
       </c>
       <c r="B134" t="n">
         <v>0.0002914839854790689</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="B135" t="n">
         <v>0.0002834642089405916</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.04479</v>
       </c>
       <c r="B136" t="n">
         <v>0.0002576280841501104</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.04997</v>
       </c>
       <c r="B137" t="n">
         <v>0.0002074498181191894</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.05484</v>
       </c>
       <c r="B138" t="n">
         <v>0.0001460839597262141</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.06488</v>
       </c>
       <c r="B139" t="n">
         <v>9.933264236640705e-05</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.06991</v>
       </c>
       <c r="B140" t="n">
         <v>8.178207668646219e-05</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.07448</v>
       </c>
       <c r="B141" t="n">
         <v>6.608268229384982e-05</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.08419</v>
       </c>
       <c r="B142" t="n">
         <v>5.605869326112751e-05</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.08999</v>
       </c>
       <c r="B143" t="n">
         <v>6.256654951630316e-05</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="B144" t="n">
         <v>0.0002312077533974402</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
         <v>0.000438998532050615</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.09889</v>
       </c>
       <c r="B146" t="n">
         <v>0.0004885381747771091</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.09999</v>
       </c>
       <c r="B147" t="n">
         <v>0.0005132455983533408</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.10043</v>
       </c>
       <c r="B148" t="n">
         <v>0.0005027296419614616</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="B149" t="n">
         <v>0.0005013147970078396</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.10288</v>
       </c>
       <c r="B150" t="n">
         <v>0.0006190005713763238</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.10486</v>
       </c>
       <c r="B151" t="n">
         <v>0.0006459659497631028</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.1069</v>
       </c>
       <c r="B152" t="n">
         <v>0.0006466277011445289</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.10878</v>
       </c>
       <c r="B153" t="n">
         <v>0.0006543255033419605</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="B154" t="n">
         <v>0.0006630682900413146</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
         <v>0.0006542756713077181</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.11384</v>
       </c>
       <c r="B156" t="n">
         <v>0.0006412605431900737</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.1188</v>
       </c>
       <c r="B157" t="n">
         <v>0.0005358010441537822</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="B158" t="n">
         <v>0.0003942359908694716</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.12852</v>
       </c>
       <c r="B159" t="n">
         <v>0.0002874746826572037</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.12994</v>
       </c>
       <c r="B160" t="n">
         <v>0.000301337776825444</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.13381</v>
       </c>
       <c r="B161" t="n">
         <v>0.0002311230475389947</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.13888</v>
       </c>
       <c r="B162" t="n">
         <v>0.0002313309449900441</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.14165</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002229584979951528</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="B164" t="n">
         <v>0.0002048172682296783</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.14799</v>
       </c>
       <c r="B165" t="n">
         <v>0.0001903323615890821</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.15001</v>
       </c>
       <c r="B166" t="n">
         <v>0.0001829170756671962</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="B167" t="n">
         <v>0.0001742536814131768</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
         <v>0.0001464305947155629</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.15937</v>
       </c>
       <c r="B169" t="n">
         <v>0.0001324548149227236</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.17005</v>
       </c>
       <c r="B170" t="n">
         <v>8.492109265430535e-05</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.18984</v>
       </c>
       <c r="B171" t="n">
         <v>6.246544511068108e-05</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="B172" t="n">
         <v>6.890517155520558e-05</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.23003</v>
       </c>
       <c r="B173" t="n">
         <v>9.19359470615328e-05</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.2395</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001190820427077886</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.24306</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001314477928173511</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.25013</v>
       </c>
       <c r="B176" t="n">
         <v>0.0001818393399852789</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
         <v>0.0002706866814534105</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003216245264380854</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.26998</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003940573646265231</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
         <v>0.0005300218966671444</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.27502</v>
       </c>
       <c r="B181" t="n">
         <v>0.000519392894227181</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279809999999999</v>
       </c>
       <c r="B182" t="n">
         <v>0.0007869959951738358</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.28495</v>
       </c>
       <c r="B183" t="n">
         <v>0.001008663645466914</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.29016</v>
       </c>
       <c r="B184" t="n">
         <v>0.001316718789141248</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.29294</v>
       </c>
       <c r="B185" t="n">
         <v>0.001538979965861359</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.29767</v>
       </c>
       <c r="B186" t="n">
         <v>0.001498111709431081</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.29972</v>
       </c>
       <c r="B187" t="n">
         <v>0.001472128771076602</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.30238</v>
       </c>
       <c r="B188" t="n">
         <v>0.00138730729371521</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.30823</v>
       </c>
       <c r="B189" t="n">
         <v>0.001204306485111685</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312880000000001</v>
       </c>
       <c r="B190" t="n">
         <v>0.001145036499478906</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.31752</v>
       </c>
       <c r="B191" t="n">
         <v>0.0009820426851422047</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.32281</v>
       </c>
       <c r="B192" t="n">
         <v>0.0007809081697606532</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.32768</v>
       </c>
       <c r="B193" t="n">
         <v>0.0006589802206634521</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
         <v>0.000483461718876406</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.33291</v>
       </c>
       <c r="B195" t="n">
         <v>0.0005012934164250754</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.33747</v>
       </c>
       <c r="B196" t="n">
         <v>0.000337871684992127</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.34274</v>
       </c>
       <c r="B197" t="n">
         <v>0.0002068219061263687</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.34293</v>
       </c>
       <c r="B198" t="n">
         <v>0.0002095041212617325</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.34694</v>
       </c>
       <c r="B199" t="n">
         <v>0.0001564833506769646</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.34826</v>
       </c>
       <c r="B200" t="n">
         <v>0.0001501674863445198</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.34858</v>
       </c>
       <c r="B201" t="n">
         <v>0.0001396937233720736</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.35205</v>
       </c>
       <c r="B202" t="n">
         <v>0.000236240202335205</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.3536</v>
       </c>
       <c r="B203" t="n">
         <v>0.0001828039858728752</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.3579</v>
       </c>
       <c r="B204" t="n">
         <v>0.0002882752654002476</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359830000000001</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002732909188540334</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.36189</v>
       </c>
       <c r="B206" t="n">
         <v>0.000262447870435128</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.36386</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002597882139435068</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.36605</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002534096057761074</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368040000000001</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002393567976584942</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.36965</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002436965734942632</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.3748</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001437082188349858</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.38009</v>
       </c>
       <c r="B212" t="n">
         <v>6.317269800338941e-05</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382919999999999</v>
       </c>
       <c r="B213" t="n">
         <v>3.979772209351164e-05</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.38334</v>
       </c>
       <c r="B214" t="n">
         <v>5.697008404602727e-05</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383859999999999</v>
       </c>
       <c r="B215" t="n">
         <v>3.54088781485988e-05</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.38596</v>
       </c>
       <c r="B216" t="n">
         <v>2.754813059024952e-05</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.38986</v>
       </c>
       <c r="B217" t="n">
         <v>2.345100931737126e-05</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.39308</v>
       </c>
       <c r="B218" t="n">
         <v>2.206094638164909e-05</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.40341</v>
       </c>
       <c r="B219" t="n">
         <v>2.168915653466276e-05</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.41408</v>
       </c>
       <c r="B220" t="n">
         <v>2.598561075107178e-05</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.42436</v>
       </c>
       <c r="B221" t="n">
         <v>2.654287011754063e-05</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.43541</v>
       </c>
       <c r="B222" t="n">
         <v>2.978611954433689e-05</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.43926</v>
       </c>
       <c r="B223" t="n">
         <v>3.414322321583532e-05</v>

--- a/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
+++ b/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
@@ -395,7 +395,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.99602</v>
+        <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
         <v>8.44697138853841e-06</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.00097</v>
+        <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
         <v>1.268377008880499e-05</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
         <v>1.525834171516452e-05</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.00697</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
         <v>2.167215927757206e-05</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.00909</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
         <v>2.253768099605752e-05</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.01003</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
         <v>2.338697636906591e-05</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
         <v>2.647632785651154e-05</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.01911</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
         <v>2.592617789583817e-05</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.01992</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
         <v>2.375640064551699e-05</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.02504</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
         <v>2.319543618544739e-05</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.02998</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
         <v>2.011005517800621e-05</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.03514</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
         <v>1.540745484550875e-05</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.26996</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
         <v>8.913630912294389e-06</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.29005</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
         <v>1.2661840054944e-05</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291119999999999</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
         <v>1.791312965340956e-05</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.29319</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
         <v>2.10802089774395e-05</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.2942</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
         <v>2.485252946160971e-05</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.29515</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
         <v>2.994130544770261e-05</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.29615</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
         <v>3.328173739225281e-05</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
         <v>5.084940399129413e-05</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298080000000001</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
         <v>0.0001459140676250563</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299090000000001</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
         <v>0.0002288822945349873</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.30105</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
         <v>0.000342024504574367</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.3031</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
         <v>0.0003468337491003333</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.30523</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
         <v>0.0003227340537924042</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
         <v>0.0003078109977709046</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.3093</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
         <v>0.0003087076654769622</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.30996</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
         <v>0.0003130876610081944</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.31117</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
         <v>0.0003023616757751905</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.31311</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
         <v>0.0003050218060451323</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.31513</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
         <v>0.0003034028526316878</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.3172</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
         <v>0.0002961008307256725</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.31917</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
         <v>0.0002893238247595255</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
         <v>0.000268283173555291</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
         <v>0.0002440300400757843</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.32521</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
         <v>0.0001976481057317262</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.32711</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
         <v>0.000157997709202577</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.32908</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
         <v>0.0001064181567590091</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.33012</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
         <v>0.0001509659526484767</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.33119</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
         <v>7.530698310484192e-05</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.33324</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
         <v>5.128235587099358e-05</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.33515</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
         <v>3.897159070016061e-05</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.34004</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
         <v>2.369936639067758e-05</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.34488</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
         <v>2.065849799980536e-05</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.34998</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
         <v>1.940594915317256e-05</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.37005</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
         <v>2.096989604767522e-05</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.39015</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
         <v>2.681573470093981e-05</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.41003</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
         <v>3.659908217351538e-05</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.42024</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
         <v>5.332859726719691e-05</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.43018</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
         <v>6.664005208294366e-05</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.44004</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
         <v>0.0001242516573424251</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.44994</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001915274981085531</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.45499</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004492736015660446</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.46012</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006802502607983102</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469959999999999</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007087530349315445</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477980000000001</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
         <v>0.000526136192138302</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.48613</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
         <v>0.000249842407821286</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.48819</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
         <v>0.0001841535569504802</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490069999999999</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
         <v>0.000243486770808006</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.49222</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
         <v>9.638555343472732e-05</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.49499</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
         <v>6.544337079404951e-05</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499969999999999</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
         <v>3.794541510148901e-05</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.51021</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
         <v>2.877017619649062e-05</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.51218</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
         <v>6.570560689623105e-05</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.51508</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
         <v>0.0001929811132259305</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.52007</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
         <v>0.0003374078079248881</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.52524</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
         <v>0.000610487835089628</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529409999999999</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
         <v>0.0006117949732189877</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.53506</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
         <v>0.001061478851401424</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.54024</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
         <v>0.001175576622687514</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5498</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
         <v>0.001493917872840591</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.56018</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
         <v>0.002220904223756534</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570130000000001</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
         <v>0.002036211241737197</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580030000000001</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
         <v>0.001037298453352718</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.59008</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
         <v>0.0005550671726978059</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.60027</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
         <v>0.000466420910999834</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.60999</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
         <v>0.001059313295594933</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.62023</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
         <v>0.001192153906186686</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.62994</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
         <v>0.0008636574766039915</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.63517</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
         <v>0.0004581625415020429</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
         <v>0.0002696087866634492</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.64996</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
         <v>0.0002224684373751183</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.67012</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
         <v>0.0001160922413108288</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.68015</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
         <v>6.125673385877504e-05</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.68993</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
         <v>4.703146740103777e-05</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
         <v>3.768504754280159e-05</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.73</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
         <v>3.505959089693405e-05</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.75</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
         <v>4.748549268292688e-05</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.75518</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
         <v>8.534273649059217e-05</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.75888</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
         <v>9.562230066451844e-05</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.77004</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
         <v>0.000117945386381454</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.77502</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001783321031467917</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780180000000001</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
         <v>0.0003763747570134308</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.79012</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
         <v>0.0004740463293253399</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799919999999999</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
         <v>0.0003902357327518997</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.81003</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
         <v>0.0001894519858811567</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
         <v>9.061768942903422e-05</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
         <v>5.656483793139232e-05</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.82006</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
         <v>3.071471369238838e-05</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.82989</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
         <v>1.968916336022086e-05</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
         <v>1.387360417999974e-05</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.86629</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
         <v>1.35204861890914e-05</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.88989</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
         <v>1.610174127939142e-05</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.89991</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
         <v>2.89240860370095e-05</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
         <v>4.162248011304976e-05</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.91996</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
         <v>5.240276242780116e-05</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.92615</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
         <v>5.413415562244805e-05</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930190000000001</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
         <v>5.554934590110099e-05</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.93692</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
         <v>5.35564059036486e-05</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.94675</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
         <v>5.513419448075011e-05</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.95027</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
         <v>5.656368801946835e-05</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.95676</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
         <v>5.938435664878415e-05</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
         <v>6.239727830573519e-05</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.96475</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
         <v>6.653555403363991e-05</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.96787</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
         <v>6.767340858778562e-05</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.97004</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
         <v>6.93307279517716e-05</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
         <v>6.779248408792795e-05</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.97463</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
         <v>6.727015020158205e-05</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.98471</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
         <v>5.615293838021615e-05</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990069999999999</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
         <v>5.514523116219465e-05</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669999999999</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
         <v>4.3962740516282e-05</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.00464</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
         <v>3.495754109665342e-05</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
         <v>3.753466967041244e-05</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.01484</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
         <v>4.773489260959742e-05</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.01774</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
         <v>6.473230751553452e-05</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.01786</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
         <v>6.197329030789761e-05</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019819999999999</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
         <v>0.0001008908919368994</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0248</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
         <v>0.0001844763740315614</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027830000000001</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
         <v>0.0002018104670420222</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0301</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
         <v>0.0002143060862025745</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032780000000001</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
         <v>0.0002437446873707118</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0359</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
         <v>0.0002771089331527121</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.03871</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
         <v>0.0002914839854790689</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041980000000001</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
         <v>0.0002834642089405916</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.04479</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
         <v>0.0002576280841501104</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.04997</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
         <v>0.0002074498181191894</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.05484</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
         <v>0.0001460839597262141</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.06488</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
         <v>9.933264236640705e-05</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.06991</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
         <v>8.178207668646219e-05</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.07448</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
         <v>6.608268229384982e-05</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.08419</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
         <v>5.605869326112751e-05</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.08999</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
         <v>6.256654951630316e-05</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093719999999999</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
         <v>0.0002312077533974402</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
         <v>0.000438998532050615</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.09889</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
         <v>0.0004885381747771091</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.09999</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
         <v>0.0005132455983533408</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.10043</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
         <v>0.0005027296419614616</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100709999999999</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
         <v>0.0005013147970078396</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.10288</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
         <v>0.0006190005713763238</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.10486</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
         <v>0.0006459659497631028</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1069</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
         <v>0.0006466277011445289</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.10878</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
         <v>0.0006543255033419605</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110040000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
         <v>0.0006630682900413146</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
         <v>0.0006542756713077181</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.11384</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
         <v>0.0006412605431900737</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1188</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
         <v>0.0005358010441537822</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123769999999999</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
         <v>0.0003942359908694716</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.12852</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
         <v>0.0002874746826572037</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.12994</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
         <v>0.000301337776825444</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.13381</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
         <v>0.0002311230475389947</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.13888</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
         <v>0.0002313309449900441</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.14165</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002229584979951528</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144740000000001</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
         <v>0.0002048172682296783</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.14799</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
         <v>0.0001903323615890821</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.15001</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
         <v>0.0001829170756671962</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150980000000001</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
         <v>0.0001742536814131768</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
         <v>0.0001464305947155629</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.15937</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
         <v>0.0001324548149227236</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.17005</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
         <v>8.492109265430535e-05</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.18984</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
         <v>6.246544511068108e-05</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210030000000001</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
         <v>6.890517155520558e-05</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.23003</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
         <v>9.19359470615328e-05</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2395</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001190820427077886</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.24306</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001314477928173511</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.25013</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
         <v>0.0001818393399852789</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
         <v>0.0002706866814534105</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003216245264380854</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.26998</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003940573646265231</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
         <v>0.0005300218966671444</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.27502</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
         <v>0.000519392894227181</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279809999999999</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
         <v>0.0007869959951738358</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.28495</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
         <v>0.001008663645466914</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.29016</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
         <v>0.001316718789141248</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.29294</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
         <v>0.001538979965861359</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.29767</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
         <v>0.001498111709431081</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.29972</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
         <v>0.001472128771076602</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.30238</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
         <v>0.00138730729371521</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.30823</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
         <v>0.001204306485111685</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312880000000001</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
         <v>0.001145036499478906</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.31752</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
         <v>0.0009820426851422047</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.32281</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
         <v>0.0007809081697606532</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.32768</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
         <v>0.0006589802206634521</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
         <v>0.000483461718876406</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.33291</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
         <v>0.0005012934164250754</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.33747</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
         <v>0.000337871684992127</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.34274</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
         <v>0.0002068219061263687</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.34293</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
         <v>0.0002095041212617325</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.34694</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
         <v>0.0001564833506769646</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.34826</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
         <v>0.0001501674863445198</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.34858</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
         <v>0.0001396937233720736</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.35205</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
         <v>0.000236240202335205</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3536</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
         <v>0.0001828039858728752</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3579</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
         <v>0.0002882752654002476</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359830000000001</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002732909188540334</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.36189</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
         <v>0.000262447870435128</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.36386</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002597882139435068</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.36605</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002534096057761074</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368040000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002393567976584942</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.36965</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002436965734942632</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3748</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001437082188349858</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.38009</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
         <v>6.317269800338941e-05</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382919999999999</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
         <v>3.979772209351164e-05</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.38334</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
         <v>5.697008404602727e-05</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383859999999999</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
         <v>3.54088781485988e-05</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.38596</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
         <v>2.754813059024952e-05</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.38986</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
         <v>2.345100931737126e-05</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.39308</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
         <v>2.206094638164909e-05</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.40341</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
         <v>2.168915653466276e-05</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.41408</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
         <v>2.598561075107178e-05</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.42436</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
         <v>2.654287011754063e-05</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>5.43541</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
         <v>2.978611954433689e-05</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>5.43926</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
         <v>3.414322321583532e-05</v>

--- a/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
+++ b/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
@@ -395,4442 +395,4442 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>8.44697138853841e-06</v>
+        <v>7846737379811.049</v>
       </c>
       <c r="C2" t="n">
-        <v>2.291609380920035e-07</v>
+        <v>213170882289.8021</v>
       </c>
       <c r="D2" t="n">
-        <v>27.9115878264455</v>
+        <v>27.81335527074576</v>
       </c>
       <c r="E2" t="n">
-        <v>9.763419707350967e-05</v>
+        <v>0.0001018798792721451</v>
       </c>
       <c r="F2" t="n">
-        <v>4.651931304407584</v>
+        <v>4.63555921179096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>1.268377008880499e-05</v>
+        <v>11788176553814.85</v>
       </c>
       <c r="C3" t="n">
-        <v>3.434217415753366e-07</v>
+        <v>318511786465.827</v>
       </c>
       <c r="D3" t="n">
-        <v>19.63137354996941</v>
+        <v>19.61159597465401</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00322015227098553</v>
+        <v>0.003246259850212721</v>
       </c>
       <c r="F3" t="n">
-        <v>3.271895591661569</v>
+        <v>3.268599329109001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>1.525834171516452e-05</v>
+        <v>14173286497537.15</v>
       </c>
       <c r="C4" t="n">
-        <v>3.899502991381304e-07</v>
+        <v>362440142390.5103</v>
       </c>
       <c r="D4" t="n">
-        <v>27.95600285670686</v>
+        <v>27.98652751223088</v>
       </c>
       <c r="E4" t="n">
-        <v>9.577241113558244e-05</v>
+        <v>9.45132682900962e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>4.659333809451144</v>
+        <v>4.664421252038479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>2.167215927757206e-05</v>
+        <v>20134752565627.86</v>
       </c>
       <c r="C5" t="n">
-        <v>5.175658457373038e-07</v>
+        <v>481137170896.6803</v>
       </c>
       <c r="D5" t="n">
-        <v>5.114088905253418</v>
+        <v>5.120167464542646</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5292659673301805</v>
+        <v>0.5284958392533676</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8523481508755696</v>
+        <v>0.8533612440904411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>2.253768099605752e-05</v>
+        <v>20938419378175.62</v>
       </c>
       <c r="C6" t="n">
-        <v>5.631276277453596e-07</v>
+        <v>523647870453.3934</v>
       </c>
       <c r="D6" t="n">
-        <v>10.36186454097705</v>
+        <v>10.35907030357735</v>
       </c>
       <c r="E6" t="n">
-        <v>0.11021716699435</v>
+        <v>0.1103226433491514</v>
       </c>
       <c r="F6" t="n">
-        <v>1.726977423496176</v>
+        <v>1.726511717262892</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>2.338697636906591e-05</v>
+        <v>21724380599578.25</v>
       </c>
       <c r="C7" t="n">
-        <v>5.801778702612939e-07</v>
+        <v>539282329648.045</v>
       </c>
       <c r="D7" t="n">
-        <v>3.420167627191439</v>
+        <v>3.416484607257432</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7545589666966557</v>
+        <v>0.7550458568009439</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5700279378652398</v>
+        <v>0.569414101209572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>2.647632785651154e-05</v>
+        <v>24593177694811.77</v>
       </c>
       <c r="C8" t="n">
-        <v>6.036876609173485e-07</v>
+        <v>560569835252.6041</v>
       </c>
       <c r="D8" t="n">
-        <v>8.188925682605223</v>
+        <v>8.223014830248299</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2245863649053358</v>
+        <v>0.2222157937664713</v>
       </c>
       <c r="F8" t="n">
-        <v>1.364820947100871</v>
+        <v>1.37050247170805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>2.592617789583817e-05</v>
+        <v>24086455186362.07</v>
       </c>
       <c r="C9" t="n">
-        <v>5.77278416398338e-07</v>
+        <v>536138724033.731</v>
       </c>
       <c r="D9" t="n">
-        <v>2.770494481008691</v>
+        <v>2.789006947840882</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8370515850253326</v>
+        <v>0.8348244861057161</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4617490801681152</v>
+        <v>0.4648344913068136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>2.375640064551699e-05</v>
+        <v>22073274363798.07</v>
       </c>
       <c r="C10" t="n">
-        <v>5.733817382863175e-07</v>
+        <v>532531911179.4477</v>
       </c>
       <c r="D10" t="n">
-        <v>6.830433457741818</v>
+        <v>6.822622634490436</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3368138152944256</v>
+        <v>0.3375630447702392</v>
       </c>
       <c r="F10" t="n">
-        <v>1.138405576290303</v>
+        <v>1.137103772415073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>2.319543618544739e-05</v>
+        <v>21549595257512.21</v>
       </c>
       <c r="C11" t="n">
-        <v>5.619724986875474e-07</v>
+        <v>522281148510.9524</v>
       </c>
       <c r="D11" t="n">
-        <v>8.399473055467658</v>
+        <v>8.393602519188637</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2102728365298917</v>
+        <v>0.210661410136376</v>
       </c>
       <c r="F11" t="n">
-        <v>1.399912175911276</v>
+        <v>1.398933753198106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>2.011005517800621e-05</v>
+        <v>18682552356550.14</v>
       </c>
       <c r="C12" t="n">
-        <v>4.786653776780222e-07</v>
+        <v>444378269528.787</v>
       </c>
       <c r="D12" t="n">
-        <v>5.451470905853696</v>
+        <v>5.488265900133093</v>
       </c>
       <c r="E12" t="n">
-        <v>0.487341403033695</v>
+        <v>0.4828760635169174</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9085784843089493</v>
+        <v>0.9147109833555155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>1.540745484550875e-05</v>
+        <v>14315321856785.59</v>
       </c>
       <c r="C13" t="n">
-        <v>3.864246338493272e-07</v>
+        <v>359246375239.8293</v>
       </c>
       <c r="D13" t="n">
-        <v>20.44896426761169</v>
+        <v>20.35823117521289</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002303031794960027</v>
+        <v>0.002390630490730707</v>
       </c>
       <c r="F13" t="n">
-        <v>3.408160711268616</v>
+        <v>3.393038529202148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>8.913630912294389e-06</v>
+        <v>8282432278799.991</v>
       </c>
       <c r="C14" t="n">
-        <v>2.672972560890845e-07</v>
+        <v>248422715740.6459</v>
       </c>
       <c r="D14" t="n">
-        <v>2.37494837070187</v>
+        <v>2.357133404105432</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8821920363229176</v>
+        <v>0.8841015769498273</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3958247284503116</v>
+        <v>0.3928555673509053</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>1.2661840054944e-05</v>
+        <v>11765596219643.09</v>
       </c>
       <c r="C15" t="n">
-        <v>3.489877374355339e-07</v>
+        <v>325079043901.3102</v>
       </c>
       <c r="D15" t="n">
-        <v>2.518146988696129</v>
+        <v>2.495812318433927</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8664312255828892</v>
+        <v>0.8689360390756415</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4196911647826881</v>
+        <v>0.4159687197389879</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>1.791312965340956e-05</v>
+        <v>16635328391172.47</v>
       </c>
       <c r="C16" t="n">
-        <v>4.866521271830709e-07</v>
+        <v>452106226900.6983</v>
       </c>
       <c r="D16" t="n">
-        <v>18.48305229494612</v>
+        <v>18.48090779703262</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005131879590281563</v>
+        <v>0.005136319679301131</v>
       </c>
       <c r="F16" t="n">
-        <v>3.080508715824353</v>
+        <v>3.080151299505437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>2.10802089774395e-05</v>
+        <v>19585577457733.98</v>
       </c>
       <c r="C17" t="n">
-        <v>5.506740996030709e-07</v>
+        <v>511667133947.0578</v>
       </c>
       <c r="D17" t="n">
-        <v>24.15933703543465</v>
+        <v>24.09229610301379</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000488158986351065</v>
+        <v>0.0005022305860604681</v>
       </c>
       <c r="F17" t="n">
-        <v>4.026556172572442</v>
+        <v>4.015382683835632</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>2.485252946160971e-05</v>
+        <v>23085330267179.01</v>
       </c>
       <c r="C18" t="n">
-        <v>6.358263842375511e-07</v>
+        <v>590867411619.8148</v>
       </c>
       <c r="D18" t="n">
-        <v>35.85830869739242</v>
+        <v>35.8711284382483</v>
       </c>
       <c r="E18" t="n">
-        <v>2.937040911446961e-06</v>
+        <v>2.920246297864781e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>5.976384782898736</v>
+        <v>5.978521406374717</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>2.994130544770261e-05</v>
+        <v>27806085128716.14</v>
       </c>
       <c r="C19" t="n">
-        <v>7.337645816304639e-07</v>
+        <v>681675819088.4463</v>
       </c>
       <c r="D19" t="n">
-        <v>28.08311027214684</v>
+        <v>28.0684361748044</v>
       </c>
       <c r="E19" t="n">
-        <v>9.063603304064362e-05</v>
+        <v>9.121482018737903e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>4.680518378691139</v>
+        <v>4.678072695800733</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>3.328173739225281e-05</v>
+        <v>30914022195751.71</v>
       </c>
       <c r="C20" t="n">
-        <v>8.296502306419992e-07</v>
+        <v>770390271192.0343</v>
       </c>
       <c r="D20" t="n">
-        <v>40.61478319759973</v>
+        <v>40.69059202411068</v>
       </c>
       <c r="E20" t="n">
-        <v>3.44824408455032e-07</v>
+        <v>3.331783122599309e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>6.769130532933288</v>
+        <v>6.781765337351779</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>5.084940399129413e-05</v>
+        <v>47232969318219.81</v>
       </c>
       <c r="C21" t="n">
-        <v>1.199784628023547e-06</v>
+        <v>1114949856965.58</v>
       </c>
       <c r="D21" t="n">
-        <v>30.18355165711583</v>
+        <v>30.16753197079723</v>
       </c>
       <c r="E21" t="n">
-        <v>3.627245283589868e-05</v>
+        <v>3.652790488637874e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>5.030591942852638</v>
+        <v>5.027921995132872</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001459140676250563</v>
+        <v>135549714979533.4</v>
       </c>
       <c r="C22" t="n">
-        <v>3.348057694740436e-06</v>
+        <v>3110587797264.935</v>
       </c>
       <c r="D22" t="n">
-        <v>64.28661934675274</v>
+        <v>64.27462349527119</v>
       </c>
       <c r="E22" t="n">
-        <v>6.03246641091725e-12</v>
+        <v>6.066563100336712e-12</v>
       </c>
       <c r="F22" t="n">
-        <v>10.71443655779212</v>
+        <v>10.71243724921186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002288822945349873</v>
+        <v>212631092506686.1</v>
       </c>
       <c r="C23" t="n">
-        <v>5.201039825775015e-06</v>
+        <v>4831608136113.959</v>
       </c>
       <c r="D23" t="n">
-        <v>72.05121483330267</v>
+        <v>72.05726126669977</v>
       </c>
       <c r="E23" t="n">
-        <v>1.550845594694898e-13</v>
+        <v>1.546416453689745e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>12.00853580555044</v>
+        <v>12.00954354444996</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>0.000342024504574367</v>
+        <v>317733359257997.1</v>
       </c>
       <c r="C24" t="n">
-        <v>7.625896530688355e-06</v>
+        <v>7083511613410.878</v>
       </c>
       <c r="D24" t="n">
-        <v>55.7489734426232</v>
+        <v>55.76171897255749</v>
       </c>
       <c r="E24" t="n">
-        <v>3.271774556037011e-10</v>
+        <v>3.25242406534217e-10</v>
       </c>
       <c r="F24" t="n">
-        <v>9.291495573770534</v>
+        <v>9.293619828759581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0003468337491003333</v>
+        <v>322200769038411.3</v>
       </c>
       <c r="C25" t="n">
-        <v>7.573768978499952e-06</v>
+        <v>7036296346453.173</v>
       </c>
       <c r="D25" t="n">
-        <v>64.05477573948373</v>
+        <v>64.04705622790554</v>
       </c>
       <c r="E25" t="n">
-        <v>6.726646326261145e-12</v>
+        <v>6.751082943157195e-12</v>
       </c>
       <c r="F25" t="n">
-        <v>10.67579595658062</v>
+        <v>10.67450937131759</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0003227340537924042</v>
+        <v>299809456408898.8</v>
       </c>
       <c r="C26" t="n">
-        <v>7.154722278842048e-06</v>
+        <v>6646882806482.547</v>
       </c>
       <c r="D26" t="n">
-        <v>54.15634495566823</v>
+        <v>54.14806137426248</v>
       </c>
       <c r="E26" t="n">
-        <v>6.860524347130256e-10</v>
+        <v>6.886968470798105e-10</v>
       </c>
       <c r="F26" t="n">
-        <v>9.026057492611372</v>
+        <v>9.024676895710414</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0003078109977709046</v>
+        <v>285945325264519.9</v>
       </c>
       <c r="C27" t="n">
-        <v>6.978941375702887e-06</v>
+        <v>6482445622781.551</v>
       </c>
       <c r="D27" t="n">
-        <v>58.74075677284313</v>
+        <v>58.74429839676831</v>
       </c>
       <c r="E27" t="n">
-        <v>8.10863481619911e-11</v>
+        <v>8.095231570565059e-11</v>
       </c>
       <c r="F27" t="n">
-        <v>9.790126128807188</v>
+        <v>9.790716399461386</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0003087076654769622</v>
+        <v>286789765106421.4</v>
       </c>
       <c r="C28" t="n">
-        <v>6.97647089788857e-06</v>
+        <v>6481152179690.077</v>
       </c>
       <c r="D28" t="n">
-        <v>51.42193526140772</v>
+        <v>51.42593641144772</v>
       </c>
       <c r="E28" t="n">
-        <v>2.436835182675168e-09</v>
+        <v>2.432328782482959e-09</v>
       </c>
       <c r="F28" t="n">
-        <v>8.570322543567952</v>
+        <v>8.570989401907953</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0003130876610081944</v>
+        <v>290849091069126.1</v>
       </c>
       <c r="C29" t="n">
-        <v>6.942290330560218e-06</v>
+        <v>6449460158037.154</v>
       </c>
       <c r="D29" t="n">
-        <v>49.0759558106928</v>
+        <v>49.07090901942188</v>
       </c>
       <c r="E29" t="n">
-        <v>7.19946144470397e-09</v>
+        <v>7.216227383464235e-09</v>
       </c>
       <c r="F29" t="n">
-        <v>8.179325968448801</v>
+        <v>8.178484836570314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0003023616757751905</v>
+        <v>280887567154121.5</v>
       </c>
       <c r="C30" t="n">
-        <v>6.73299297043627e-06</v>
+        <v>6255113313109.456</v>
       </c>
       <c r="D30" t="n">
-        <v>51.39701027460517</v>
+        <v>51.39420944985662</v>
       </c>
       <c r="E30" t="n">
-        <v>2.465095593152274e-09</v>
+        <v>2.468291566519923e-09</v>
       </c>
       <c r="F30" t="n">
-        <v>8.56616837910086</v>
+        <v>8.565701574976103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0003050218060451323</v>
+        <v>283341741854245.8</v>
       </c>
       <c r="C31" t="n">
-        <v>6.822712561107345e-06</v>
+        <v>6337538946041.285</v>
       </c>
       <c r="D31" t="n">
-        <v>59.03243238884065</v>
+        <v>59.03447782317858</v>
       </c>
       <c r="E31" t="n">
-        <v>7.075671503116989e-11</v>
+        <v>7.068912073026341e-11</v>
       </c>
       <c r="F31" t="n">
-        <v>9.838738731473443</v>
+        <v>9.839079637196429</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0003034028526316878</v>
+        <v>281854377963520.8</v>
       </c>
       <c r="C32" t="n">
-        <v>6.872311478957241e-06</v>
+        <v>6383661743871.674</v>
       </c>
       <c r="D32" t="n">
-        <v>69.18046115289715</v>
+        <v>69.18253356391122</v>
       </c>
       <c r="E32" t="n">
-        <v>6.020437745307321e-13</v>
+        <v>6.014552500060675e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>11.53007685881619</v>
+        <v>11.53042226065187</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0002961008307256725</v>
+        <v>275063599947046.3</v>
       </c>
       <c r="C33" t="n">
-        <v>6.575074785202103e-06</v>
+        <v>6108059611849.341</v>
       </c>
       <c r="D33" t="n">
-        <v>54.25775694910286</v>
+        <v>54.25541707896586</v>
       </c>
       <c r="E33" t="n">
-        <v>6.544871922706557e-10</v>
+        <v>6.551989112742176e-10</v>
       </c>
       <c r="F33" t="n">
-        <v>9.042959491517143</v>
+        <v>9.042569513160977</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0002893238247595255</v>
+        <v>268767446635984.9</v>
       </c>
       <c r="C34" t="n">
-        <v>6.564447255850993e-06</v>
+        <v>6098391579750.778</v>
       </c>
       <c r="D34" t="n">
-        <v>51.82922796170455</v>
+        <v>51.81482686050456</v>
       </c>
       <c r="E34" t="n">
-        <v>2.018234264475215e-09</v>
+        <v>2.031733060731202e-09</v>
       </c>
       <c r="F34" t="n">
-        <v>8.638204660284091</v>
+        <v>8.63580447675076</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>0.000268283173555291</v>
+        <v>249229745226707.6</v>
       </c>
       <c r="C35" t="n">
-        <v>6.022741302092831e-06</v>
+        <v>5594972247298.009</v>
       </c>
       <c r="D35" t="n">
-        <v>62.05735951561736</v>
+        <v>62.07354563211395</v>
       </c>
       <c r="E35" t="n">
-        <v>1.717460784249999e-11</v>
+        <v>1.704477583199992e-11</v>
       </c>
       <c r="F35" t="n">
-        <v>10.34289325260289</v>
+        <v>10.34559093868566</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0002440300400757843</v>
+        <v>226699690094466.8</v>
       </c>
       <c r="C36" t="n">
-        <v>5.466823667849509e-06</v>
+        <v>5078975413571.274</v>
       </c>
       <c r="D36" t="n">
-        <v>65.7004764243205</v>
+        <v>65.67346407772952</v>
       </c>
       <c r="E36" t="n">
-        <v>3.103095429956989e-12</v>
+        <v>3.142783441575297e-12</v>
       </c>
       <c r="F36" t="n">
-        <v>10.95007940405342</v>
+        <v>10.94557734628825</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0001976481057317262</v>
+        <v>183617925101503.4</v>
       </c>
       <c r="C37" t="n">
-        <v>4.396008855964337e-06</v>
+        <v>4084001980487.756</v>
       </c>
       <c r="D37" t="n">
-        <v>63.01516558551184</v>
+        <v>62.99221328779234</v>
       </c>
       <c r="E37" t="n">
-        <v>1.095924899399634e-11</v>
+        <v>1.107792499527182e-11</v>
       </c>
       <c r="F37" t="n">
-        <v>10.50252759758531</v>
+        <v>10.49870221463206</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.000157997709202577</v>
+        <v>146778140305899.6</v>
       </c>
       <c r="C38" t="n">
-        <v>3.48977332718678e-06</v>
+        <v>3242229190431.073</v>
       </c>
       <c r="D38" t="n">
-        <v>49.32714740044376</v>
+        <v>49.30633825246021</v>
       </c>
       <c r="E38" t="n">
-        <v>6.412231733007992e-09</v>
+        <v>6.474051889067879e-09</v>
       </c>
       <c r="F38" t="n">
-        <v>8.221191233407295</v>
+        <v>8.217723042076701</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0001064181567590091</v>
+        <v>98858792872504.98</v>
       </c>
       <c r="C39" t="n">
-        <v>2.385206531625585e-06</v>
+        <v>2215723570141.892</v>
       </c>
       <c r="D39" t="n">
-        <v>65.89884937660834</v>
+        <v>65.93791803549989</v>
       </c>
       <c r="E39" t="n">
-        <v>2.826559699068958e-12</v>
+        <v>2.775068553863967e-12</v>
       </c>
       <c r="F39" t="n">
-        <v>10.98314156276806</v>
+        <v>10.98965300591665</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001509659526484767</v>
+        <v>140237412201239.8</v>
       </c>
       <c r="C40" t="n">
-        <v>3.404226675315088e-06</v>
+        <v>3161934470382.205</v>
       </c>
       <c r="D40" t="n">
-        <v>51.7748142955609</v>
+        <v>51.7689393238652</v>
       </c>
       <c r="E40" t="n">
-        <v>2.069712875028004e-09</v>
+        <v>2.075348648630664e-09</v>
       </c>
       <c r="F40" t="n">
-        <v>8.629135715926816</v>
+        <v>8.628156553977533</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>7.530698310484192e-05</v>
+        <v>69969138221970.14</v>
       </c>
       <c r="C41" t="n">
-        <v>1.733702273515578e-06</v>
+        <v>1610715995114.118</v>
       </c>
       <c r="D41" t="n">
-        <v>60.67650635936855</v>
+        <v>60.5935573036064</v>
       </c>
       <c r="E41" t="n">
-        <v>3.279635803069258e-11</v>
+        <v>3.409483994224231e-11</v>
       </c>
       <c r="F41" t="n">
-        <v>10.11275105989476</v>
+        <v>10.09892621726773</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>5.128235587099358e-05</v>
+        <v>47638149087793.41</v>
       </c>
       <c r="C42" t="n">
-        <v>1.182024608853285e-06</v>
+        <v>1097820296224.125</v>
       </c>
       <c r="D42" t="n">
-        <v>28.66907388639175</v>
+        <v>28.65160218055475</v>
       </c>
       <c r="E42" t="n">
-        <v>7.026580462849605e-05</v>
+        <v>7.080192909043075e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>4.778178981065291</v>
+        <v>4.775267030092458</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>3.897159070016061e-05</v>
+        <v>36203215855152.71</v>
       </c>
       <c r="C43" t="n">
-        <v>9.111116729587723e-07</v>
+        <v>846344042930.4413</v>
       </c>
       <c r="D43" t="n">
-        <v>32.53231331130706</v>
+        <v>32.52436080993825</v>
       </c>
       <c r="E43" t="n">
-        <v>1.28977400517841e-05</v>
+        <v>1.29431832684821e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>5.422052218551177</v>
+        <v>5.420726801656375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>2.369936639067758e-05</v>
+        <v>22014016163359.2</v>
       </c>
       <c r="C44" t="n">
-        <v>5.972873197254387e-07</v>
+        <v>554526858305.4648</v>
       </c>
       <c r="D44" t="n">
-        <v>19.6469216066148</v>
+        <v>19.66399848406765</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003199771746398227</v>
+        <v>0.003177532155368387</v>
       </c>
       <c r="F44" t="n">
-        <v>3.274486934435799</v>
+        <v>3.277333080677943</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>2.065849799980536e-05</v>
+        <v>19192834344898.8</v>
       </c>
       <c r="C45" t="n">
-        <v>5.422850496645449e-07</v>
+        <v>504443254895.5209</v>
       </c>
       <c r="D45" t="n">
-        <v>14.49945648237571</v>
+        <v>14.45418808744573</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02452828204385222</v>
+        <v>0.02495429625248866</v>
       </c>
       <c r="F45" t="n">
-        <v>2.416576080395952</v>
+        <v>2.409031347907622</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>1.940594915317256e-05</v>
+        <v>18030850433607.21</v>
       </c>
       <c r="C46" t="n">
-        <v>4.987330607155791e-07</v>
+        <v>462972153276.8858</v>
       </c>
       <c r="D46" t="n">
-        <v>3.974893013053334</v>
+        <v>3.969120838229573</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6800742326101996</v>
+        <v>0.6808553729500813</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6624821688422223</v>
+        <v>0.6615201397049288</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>2.096989604767522e-05</v>
+        <v>19479394971539.03</v>
       </c>
       <c r="C47" t="n">
-        <v>5.149135576127663e-07</v>
+        <v>478928148570.8848</v>
       </c>
       <c r="D47" t="n">
-        <v>4.680747623797327</v>
+        <v>4.663032794948362</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5853615384703537</v>
+        <v>0.5876988342480629</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7801246039662212</v>
+        <v>0.7771721324913936</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>2.681573470093981e-05</v>
+        <v>24912777623664.97</v>
       </c>
       <c r="C48" t="n">
-        <v>6.352738867475457e-07</v>
+        <v>590393396131.5962</v>
       </c>
       <c r="D48" t="n">
-        <v>5.151034069705211</v>
+        <v>5.14738729575529</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5245931069761478</v>
+        <v>0.5250535048150093</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8585056782842019</v>
+        <v>0.8578978826258816</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>3.659908217351538e-05</v>
+        <v>34004727960068.85</v>
       </c>
       <c r="C49" t="n">
-        <v>8.391451668548285e-07</v>
+        <v>780107002804.3894</v>
       </c>
       <c r="D49" t="n">
-        <v>7.282806918250929</v>
+        <v>7.264857743657424</v>
       </c>
       <c r="E49" t="n">
-        <v>0.295483396732564</v>
+        <v>0.2970463950994632</v>
       </c>
       <c r="F49" t="n">
-        <v>1.213801153041821</v>
+        <v>1.210809623942904</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>5.332859726719691e-05</v>
+        <v>49544604065368.29</v>
       </c>
       <c r="C50" t="n">
-        <v>1.198357898080895e-06</v>
+        <v>1113364131129.461</v>
       </c>
       <c r="D50" t="n">
-        <v>6.529893517536177</v>
+        <v>6.524597912335223</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3665147289882063</v>
+        <v>0.3670540932144705</v>
       </c>
       <c r="F50" t="n">
-        <v>1.088315586256029</v>
+        <v>1.087432985389204</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>6.664005208294366e-05</v>
+        <v>61904667662652.96</v>
       </c>
       <c r="C51" t="n">
-        <v>1.443841657759404e-06</v>
+        <v>1341633423960.156</v>
       </c>
       <c r="D51" t="n">
-        <v>3.920667796167261</v>
+        <v>3.921748309985968</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6874114407735525</v>
+        <v>0.687265266615205</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6534446326945434</v>
+        <v>0.6536247183309946</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0001242516573424251</v>
+        <v>115429779278479.8</v>
       </c>
       <c r="C52" t="n">
-        <v>2.784074748618788e-06</v>
+        <v>2586480619586.324</v>
       </c>
       <c r="D52" t="n">
-        <v>7.620705369205139</v>
+        <v>7.623441104484668</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2672286408485294</v>
+        <v>0.2670088608569409</v>
       </c>
       <c r="F52" t="n">
-        <v>1.27011756153419</v>
+        <v>1.270573517414111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001915274981085531</v>
+        <v>177923948153805</v>
       </c>
       <c r="C53" t="n">
-        <v>4.174520307417596e-06</v>
+        <v>3878513677818.143</v>
       </c>
       <c r="D53" t="n">
-        <v>11.66603549683012</v>
+        <v>11.66261985787071</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06984753818388217</v>
+        <v>0.06993269018249783</v>
       </c>
       <c r="F53" t="n">
-        <v>1.944339249471687</v>
+        <v>1.943769976311785</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004492736015660446</v>
+        <v>417363334251974.2</v>
       </c>
       <c r="C54" t="n">
-        <v>9.957775365918086e-06</v>
+        <v>9250318985730.82</v>
       </c>
       <c r="D54" t="n">
-        <v>10.74504768481563</v>
+        <v>10.74629692310321</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09658294675084669</v>
+        <v>0.09654110600691614</v>
       </c>
       <c r="F54" t="n">
-        <v>1.790841280802605</v>
+        <v>1.791049487183869</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006802502607983102</v>
+        <v>631935737811528.8</v>
       </c>
       <c r="C55" t="n">
-        <v>1.470889725764306e-05</v>
+        <v>13663537285714.7</v>
       </c>
       <c r="D55" t="n">
-        <v>9.599857674350163</v>
+        <v>9.60123888313268</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1425459657406592</v>
+        <v>0.1424805022962671</v>
       </c>
       <c r="F55" t="n">
-        <v>1.59997627905836</v>
+        <v>1.600206480522113</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007087530349315445</v>
+        <v>658409305472434.9</v>
       </c>
       <c r="C56" t="n">
-        <v>1.505371876146039e-05</v>
+        <v>13984621629206.89</v>
       </c>
       <c r="D56" t="n">
-        <v>16.23307397701372</v>
+        <v>16.23221916181156</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01255616019818666</v>
+        <v>0.01256036413815965</v>
       </c>
       <c r="F56" t="n">
-        <v>2.705512329502287</v>
+        <v>2.705369860301927</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>0.000526136192138302</v>
+        <v>488769837059022.2</v>
       </c>
       <c r="C57" t="n">
-        <v>1.143345273925892e-05</v>
+        <v>10621290116846.1</v>
       </c>
       <c r="D57" t="n">
-        <v>11.60986069440547</v>
+        <v>11.61012766145439</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07126017782514697</v>
+        <v>0.07125340260394447</v>
       </c>
       <c r="F57" t="n">
-        <v>1.934976782400912</v>
+        <v>1.935021276909065</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>0.000249842407821286</v>
+        <v>232094983966442.9</v>
       </c>
       <c r="C58" t="n">
-        <v>5.507406185206586e-06</v>
+        <v>5115865617634.815</v>
       </c>
       <c r="D58" t="n">
-        <v>11.27899513174366</v>
+        <v>11.27760628210138</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08012710362578512</v>
+        <v>0.08016636547131932</v>
       </c>
       <c r="F58" t="n">
-        <v>1.879832521957277</v>
+        <v>1.879601047016896</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0001841535569504802</v>
+        <v>171072992338089.7</v>
       </c>
       <c r="C59" t="n">
-        <v>4.103516761721868e-06</v>
+        <v>3812247823630.844</v>
       </c>
       <c r="D59" t="n">
-        <v>8.906919998851857</v>
+        <v>8.906168862230453</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1788808940390687</v>
+        <v>0.1789242437176975</v>
       </c>
       <c r="F59" t="n">
-        <v>1.484486666475309</v>
+        <v>1.484361477038409</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>0.000243486770808006</v>
+        <v>226189914514439.7</v>
       </c>
       <c r="C60" t="n">
-        <v>5.293235306674167e-06</v>
+        <v>4916331183950.768</v>
       </c>
       <c r="D60" t="n">
-        <v>15.08978834029571</v>
+        <v>15.09773793620762</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01956974257156947</v>
+        <v>0.01951000449226296</v>
       </c>
       <c r="F60" t="n">
-        <v>2.514964723382618</v>
+        <v>2.516289656034604</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>9.638555343472732e-05</v>
+        <v>89545606643317</v>
       </c>
       <c r="C61" t="n">
-        <v>2.186326787642293e-06</v>
+        <v>2031095076196.731</v>
       </c>
       <c r="D61" t="n">
-        <v>6.970705631955584</v>
+        <v>6.96630966811164</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3235648319724193</v>
+        <v>0.3239741128774221</v>
       </c>
       <c r="F61" t="n">
-        <v>1.161784271992597</v>
+        <v>1.16105161135194</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>6.544337079404951e-05</v>
+        <v>60794395748916.18</v>
       </c>
       <c r="C62" t="n">
-        <v>1.461762094785408e-06</v>
+        <v>1358301923198.612</v>
       </c>
       <c r="D62" t="n">
-        <v>4.578072446605495</v>
+        <v>4.57567295558257</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5989483089131025</v>
+        <v>0.5992669351429087</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7630120744342492</v>
+        <v>0.7626121592637617</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>3.794541510148901e-05</v>
+        <v>35252482614739.43</v>
       </c>
       <c r="C63" t="n">
-        <v>9.037974574278196e-07</v>
+        <v>839498607969.7484</v>
       </c>
       <c r="D63" t="n">
-        <v>8.002709954871298</v>
+        <v>8.00150447326725</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2379048345803399</v>
+        <v>0.2379931047240951</v>
       </c>
       <c r="F63" t="n">
-        <v>1.33378499247855</v>
+        <v>1.333584078877875</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>2.877017619649062e-05</v>
+        <v>26722795754001.89</v>
       </c>
       <c r="C64" t="n">
-        <v>6.923764363097695e-07</v>
+        <v>642529208720.8467</v>
       </c>
       <c r="D64" t="n">
-        <v>9.211576391324646</v>
+        <v>9.200925546881114</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1620241430374809</v>
+        <v>0.162589493559101</v>
       </c>
       <c r="F64" t="n">
-        <v>1.535262731887441</v>
+        <v>1.533487591146852</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>6.570560689623105e-05</v>
+        <v>61025101731318.64</v>
       </c>
       <c r="C65" t="n">
-        <v>1.550586113346906e-06</v>
+        <v>1440211673025.063</v>
       </c>
       <c r="D65" t="n">
-        <v>43.40302975211524</v>
+        <v>43.40052146675301</v>
       </c>
       <c r="E65" t="n">
-        <v>9.706740263872212e-08</v>
+        <v>9.717849805816676e-08</v>
       </c>
       <c r="F65" t="n">
-        <v>7.233838292019207</v>
+        <v>7.233420244458834</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0001929811132259305</v>
+        <v>179263850758814.4</v>
       </c>
       <c r="C66" t="n">
-        <v>4.400460411834508e-06</v>
+        <v>4087657921498.996</v>
       </c>
       <c r="D66" t="n">
-        <v>49.58511844904265</v>
+        <v>49.58954602322363</v>
       </c>
       <c r="E66" t="n">
-        <v>5.692978537958838e-09</v>
+        <v>5.681363114552272e-09</v>
       </c>
       <c r="F66" t="n">
-        <v>8.264186408173776</v>
+        <v>8.264924337203938</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0003374078079248881</v>
+        <v>313441708193735.3</v>
       </c>
       <c r="C67" t="n">
-        <v>7.404328028414623e-06</v>
+        <v>6878314912270.911</v>
       </c>
       <c r="D67" t="n">
-        <v>36.41041771641009</v>
+        <v>36.41301363103705</v>
       </c>
       <c r="E67" t="n">
-        <v>2.293835085750747e-06</v>
+        <v>2.291168539409315e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>6.068402952735016</v>
+        <v>6.068835605172842</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>0.000610487835089628</v>
+        <v>567135582588896.9</v>
       </c>
       <c r="C68" t="n">
-        <v>1.336803101319003e-05</v>
+        <v>12418415870025.2</v>
       </c>
       <c r="D68" t="n">
-        <v>29.74407860250887</v>
+        <v>29.74500131401905</v>
       </c>
       <c r="E68" t="n">
-        <v>4.39654351441321e-05</v>
+        <v>4.394770077737427e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>4.957346433751479</v>
+        <v>4.957500219003175</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0006117949732189877</v>
+        <v>568340812886160.5</v>
       </c>
       <c r="C69" t="n">
-        <v>1.293982893831017e-05</v>
+        <v>12020772630088.01</v>
       </c>
       <c r="D69" t="n">
-        <v>32.63327192405352</v>
+        <v>32.63667871533082</v>
       </c>
       <c r="E69" t="n">
-        <v>1.233439871930142e-05</v>
+        <v>1.231582078973692e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>5.438878654008921</v>
+        <v>5.439446452555138</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001061478851401424</v>
+        <v>986081728675303.2</v>
       </c>
       <c r="C70" t="n">
-        <v>2.2610784880905e-05</v>
+        <v>21004612463914.64</v>
       </c>
       <c r="D70" t="n">
-        <v>23.61829906472967</v>
+        <v>23.61906958446054</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0006137634490302675</v>
+        <v>0.0006135637191458324</v>
       </c>
       <c r="F70" t="n">
-        <v>3.936383177454944</v>
+        <v>3.936511597410091</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001175576622687514</v>
+        <v>1092081719325512</v>
       </c>
       <c r="C71" t="n">
-        <v>2.566487139264771e-05</v>
+        <v>23842344301404.05</v>
       </c>
       <c r="D71" t="n">
-        <v>19.73422686327421</v>
+        <v>19.73457421113615</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003087646221308109</v>
+        <v>0.003087207870414436</v>
       </c>
       <c r="F71" t="n">
-        <v>3.289037810545702</v>
+        <v>3.289095701856025</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001493917872840591</v>
+        <v>1387806621956431</v>
       </c>
       <c r="C72" t="n">
-        <v>2.951774059450111e-05</v>
+        <v>27421551733720.72</v>
       </c>
       <c r="D72" t="n">
-        <v>4.320268775945226</v>
+        <v>4.320133825634695</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6334216705621489</v>
+        <v>0.6334398232976377</v>
       </c>
       <c r="F72" t="n">
-        <v>0.720044795990871</v>
+        <v>0.7200223042724492</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002220904223756534</v>
+        <v>2063156928901004</v>
       </c>
       <c r="C73" t="n">
-        <v>4.474606651381428e-05</v>
+        <v>41568469858576.85</v>
       </c>
       <c r="D73" t="n">
-        <v>4.644346236064962</v>
+        <v>4.644267852915348</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5901675311358563</v>
+        <v>0.5901778931961534</v>
       </c>
       <c r="F73" t="n">
-        <v>0.774057706010827</v>
+        <v>0.7740446421525581</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002036211241737197</v>
+        <v>1891582025834602</v>
       </c>
       <c r="C74" t="n">
-        <v>4.131860972310363e-05</v>
+        <v>38383270055642.12</v>
       </c>
       <c r="D74" t="n">
-        <v>5.541409621204576</v>
+        <v>5.541769745773919</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4764659863509085</v>
+        <v>0.4764227090077457</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9235682702007626</v>
+        <v>0.9236282909623199</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001037298453352718</v>
+        <v>963623952647438.1</v>
       </c>
       <c r="C75" t="n">
-        <v>2.2283069216721e-05</v>
+        <v>20700547865805.28</v>
       </c>
       <c r="D75" t="n">
-        <v>6.000345080654097</v>
+        <v>6.000221556010048</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4231514259917263</v>
+        <v>0.4231652626805867</v>
       </c>
       <c r="F75" t="n">
-        <v>1.000057513442349</v>
+        <v>1.000036926001675</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005550671726978059</v>
+        <v>515640515427772.6</v>
       </c>
       <c r="C76" t="n">
-        <v>1.183899900758345e-05</v>
+        <v>10998129546697.88</v>
       </c>
       <c r="D76" t="n">
-        <v>2.967697411660662</v>
+        <v>2.968146496903942</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8128901004096841</v>
+        <v>0.812834042397939</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4946162352767769</v>
+        <v>0.4946910828173237</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>0.000466420910999834</v>
+        <v>433292211926456.8</v>
       </c>
       <c r="C77" t="n">
-        <v>1.018740274834983e-05</v>
+        <v>9464225166440.982</v>
       </c>
       <c r="D77" t="n">
-        <v>13.55221900114838</v>
+        <v>13.54876568626149</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03505833340892035</v>
+        <v>0.03510357880005998</v>
       </c>
       <c r="F77" t="n">
-        <v>2.258703166858064</v>
+        <v>2.258127614376914</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001059313295594933</v>
+        <v>984080104952418.9</v>
       </c>
       <c r="C78" t="n">
-        <v>2.233185600489467e-05</v>
+        <v>20745889864796.9</v>
       </c>
       <c r="D78" t="n">
-        <v>34.73178786521294</v>
+        <v>34.73244614301429</v>
       </c>
       <c r="E78" t="n">
-        <v>4.85699742573771e-06</v>
+        <v>4.855572578319793e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>5.788631310868824</v>
+        <v>5.788741023835716</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001192153906186686</v>
+        <v>1107482248455704</v>
       </c>
       <c r="C79" t="n">
-        <v>2.582290068661762e-05</v>
+        <v>23989133114969.23</v>
       </c>
       <c r="D79" t="n">
-        <v>40.68961287389438</v>
+        <v>40.68854649988796</v>
       </c>
       <c r="E79" t="n">
-        <v>3.333262106446433e-07</v>
+        <v>3.334873582717668e-07</v>
       </c>
       <c r="F79" t="n">
-        <v>6.781602145649063</v>
+        <v>6.781424416647994</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0008636574766039915</v>
+        <v>802319471290851.9</v>
       </c>
       <c r="C80" t="n">
-        <v>1.839682198821613e-05</v>
+        <v>17090200068602.85</v>
       </c>
       <c r="D80" t="n">
-        <v>52.90558090475722</v>
+        <v>52.90517494704749</v>
       </c>
       <c r="E80" t="n">
-        <v>1.225795262887203e-09</v>
+        <v>1.226025992642643e-09</v>
       </c>
       <c r="F80" t="n">
-        <v>8.817596817459536</v>
+        <v>8.817529157841248</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0004581625415020429</v>
+        <v>425622056186243.9</v>
       </c>
       <c r="C81" t="n">
-        <v>1.006879547652538e-05</v>
+        <v>9354177022254.379</v>
       </c>
       <c r="D81" t="n">
-        <v>31.02498251214683</v>
+        <v>31.02496732547205</v>
       </c>
       <c r="E81" t="n">
-        <v>2.507238979268612e-05</v>
+        <v>2.507255720133217e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>5.170830418691138</v>
+        <v>5.170827887578676</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0002696087866634492</v>
+        <v>250461801382543.5</v>
       </c>
       <c r="C82" t="n">
-        <v>6.038454688853223e-06</v>
+        <v>5608893432085.578</v>
       </c>
       <c r="D82" t="n">
-        <v>21.1547369515133</v>
+        <v>21.16106824683808</v>
       </c>
       <c r="E82" t="n">
-        <v>0.001720778903820626</v>
+        <v>0.001716271382823764</v>
       </c>
       <c r="F82" t="n">
-        <v>3.525789491918883</v>
+        <v>3.526844707806347</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0002224684373751183</v>
+        <v>206669283208228.4</v>
       </c>
       <c r="C83" t="n">
-        <v>4.994037136668167e-06</v>
+        <v>4638286413223.807</v>
       </c>
       <c r="D83" t="n">
-        <v>9.498310873211608</v>
+        <v>9.501741741845912</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1474316351059873</v>
+        <v>0.1472642066646462</v>
       </c>
       <c r="F83" t="n">
-        <v>1.583051812201935</v>
+        <v>1.583623623640985</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001160922413108288</v>
+        <v>107850696445177.3</v>
       </c>
       <c r="C84" t="n">
-        <v>2.655020476711186e-06</v>
+        <v>2466974537874.122</v>
       </c>
       <c r="D84" t="n">
-        <v>7.573969932965518</v>
+        <v>7.568960747486181</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2710053114807631</v>
+        <v>0.2714125831573092</v>
       </c>
       <c r="F84" t="n">
-        <v>1.26232832216092</v>
+        <v>1.261493457914364</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>6.125673385877504e-05</v>
+        <v>56907410508177.15</v>
       </c>
       <c r="C85" t="n">
-        <v>1.493791142949426e-06</v>
+        <v>1386981323053.168</v>
       </c>
       <c r="D85" t="n">
-        <v>11.81513561597067</v>
+        <v>11.82043687134087</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06622227417415302</v>
+        <v>0.06609663317691808</v>
       </c>
       <c r="F85" t="n">
-        <v>1.969189269328445</v>
+        <v>1.970072811890144</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>4.703146740103777e-05</v>
+        <v>43688193959757.91</v>
       </c>
       <c r="C86" t="n">
-        <v>1.149386546617362e-06</v>
+        <v>1067679764456.455</v>
       </c>
       <c r="D86" t="n">
-        <v>14.27134761713711</v>
+        <v>14.26851476619886</v>
       </c>
       <c r="E86" t="n">
-        <v>0.02674765046325513</v>
+        <v>0.02677637621010366</v>
       </c>
       <c r="F86" t="n">
-        <v>2.378557936189518</v>
+        <v>2.378085794366477</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>3.768504754280159e-05</v>
+        <v>35012177055985.45</v>
       </c>
       <c r="C87" t="n">
-        <v>8.787653756614446e-07</v>
+        <v>815945384668.4764</v>
       </c>
       <c r="D87" t="n">
-        <v>9.652294202296501</v>
+        <v>9.675979909270051</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1400791321387271</v>
+        <v>0.1389772059952534</v>
       </c>
       <c r="F87" t="n">
-        <v>1.60871570038275</v>
+        <v>1.612663318211675</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>3.505959089693405e-05</v>
+        <v>32574947964190.08</v>
       </c>
       <c r="C88" t="n">
-        <v>8.806431577014836e-07</v>
+        <v>817455576017.4362</v>
       </c>
       <c r="D88" t="n">
-        <v>16.06621359359674</v>
+        <v>16.09484871044905</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01340295070625873</v>
+        <v>0.01325382972164806</v>
       </c>
       <c r="F88" t="n">
-        <v>2.677702265599457</v>
+        <v>2.682474785074841</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>4.748549268292688e-05</v>
+        <v>44112263721178.73</v>
       </c>
       <c r="C89" t="n">
-        <v>1.188402063621335e-06</v>
+        <v>1103704537949.671</v>
       </c>
       <c r="D89" t="n">
-        <v>12.01819976415125</v>
+        <v>12.024632602224</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0615640194554778</v>
+        <v>0.06142153200398762</v>
       </c>
       <c r="F89" t="n">
-        <v>2.003033294025208</v>
+        <v>2.004105433704</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>8.534273649059217e-05</v>
+        <v>79278516420422.98</v>
       </c>
       <c r="C90" t="n">
-        <v>2.115643341381627e-06</v>
+        <v>1965559801108.879</v>
       </c>
       <c r="D90" t="n">
-        <v>11.79140207444237</v>
+        <v>11.78011095178432</v>
       </c>
       <c r="E90" t="n">
-        <v>0.06678747250152697</v>
+        <v>0.06705792299667726</v>
       </c>
       <c r="F90" t="n">
-        <v>1.965233679073729</v>
+        <v>1.963351825297387</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>9.562230066451844e-05</v>
+        <v>88833592293658.55</v>
       </c>
       <c r="C91" t="n">
-        <v>2.316425079671766e-06</v>
+        <v>2151734945115.707</v>
       </c>
       <c r="D91" t="n">
-        <v>7.288352436080508</v>
+        <v>7.285846207931376</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2950017741643244</v>
+        <v>0.2952193629397052</v>
       </c>
       <c r="F91" t="n">
-        <v>1.214725406013418</v>
+        <v>1.214307701321896</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.000117945386381454</v>
+        <v>109568678430786.6</v>
       </c>
       <c r="C92" t="n">
-        <v>2.793176756539308e-06</v>
+        <v>2594981099170.767</v>
       </c>
       <c r="D92" t="n">
-        <v>12.98090118592751</v>
+        <v>12.98162758934327</v>
       </c>
       <c r="E92" t="n">
-        <v>0.04334024206715265</v>
+        <v>0.04332863169499797</v>
       </c>
       <c r="F92" t="n">
-        <v>2.163483530987918</v>
+        <v>2.163604598223878</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001783321031467917</v>
+        <v>165670734356596.1</v>
       </c>
       <c r="C93" t="n">
-        <v>4.070987251013974e-06</v>
+        <v>3782084739571.666</v>
       </c>
       <c r="D93" t="n">
-        <v>14.36328950988946</v>
+        <v>14.36287416355042</v>
       </c>
       <c r="E93" t="n">
-        <v>0.02583107341947867</v>
+        <v>0.02583514611630414</v>
       </c>
       <c r="F93" t="n">
-        <v>2.393881584981577</v>
+        <v>2.393812360591737</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0003763747570134308</v>
+        <v>349639946676079.2</v>
       </c>
       <c r="C94" t="n">
-        <v>8.480595591957782e-06</v>
+        <v>7878394408689.086</v>
       </c>
       <c r="D94" t="n">
-        <v>35.4852147658135</v>
+        <v>35.48617679228743</v>
       </c>
       <c r="E94" t="n">
-        <v>3.470148688027165e-06</v>
+        <v>3.468657430109738e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>5.914202460968917</v>
+        <v>5.914362798714571</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0004740463293253399</v>
+        <v>440375815109569.2</v>
       </c>
       <c r="C95" t="n">
-        <v>1.02433631561897e-05</v>
+        <v>9515277635490.721</v>
       </c>
       <c r="D95" t="n">
-        <v>36.13242973164564</v>
+        <v>36.13224309880185</v>
       </c>
       <c r="E95" t="n">
-        <v>2.597972772842261e-06</v>
+        <v>2.598189854445151e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>6.022071621940941</v>
+        <v>6.022040516466975</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0003902357327518997</v>
+        <v>362515073243348.1</v>
       </c>
       <c r="C96" t="n">
-        <v>8.397604694475817e-06</v>
+        <v>7801236140693.95</v>
       </c>
       <c r="D96" t="n">
-        <v>27.40112825548213</v>
+        <v>27.39743256411841</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0001217765320783243</v>
+        <v>0.0001219712365500048</v>
       </c>
       <c r="F96" t="n">
-        <v>4.566854709247022</v>
+        <v>4.566238760686402</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001894519858811567</v>
+        <v>176000961621720.5</v>
       </c>
       <c r="C97" t="n">
-        <v>4.464234025166184e-06</v>
+        <v>4146890649624.493</v>
       </c>
       <c r="D97" t="n">
-        <v>30.93060547817515</v>
+        <v>30.93330366431733</v>
       </c>
       <c r="E97" t="n">
-        <v>2.613441553481228e-05</v>
+        <v>2.610344290481518e-05</v>
       </c>
       <c r="F97" t="n">
-        <v>5.155100913029192</v>
+        <v>5.155550610719555</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>9.061768942903422e-05</v>
+        <v>84176821213900.31</v>
       </c>
       <c r="C98" t="n">
-        <v>2.279932519467312e-06</v>
+        <v>2117499884399.963</v>
       </c>
       <c r="D98" t="n">
-        <v>27.85630454666372</v>
+        <v>27.86188984557734</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0001000015898053501</v>
+        <v>9.975985759367314e-05</v>
       </c>
       <c r="F98" t="n">
-        <v>4.642717424443954</v>
+        <v>4.643648307596223</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>5.656483793139232e-05</v>
+        <v>52552071438799.2</v>
       </c>
       <c r="C99" t="n">
-        <v>1.453449607166421e-06</v>
+        <v>1350487529891.262</v>
       </c>
       <c r="D99" t="n">
-        <v>29.77884555135427</v>
+        <v>29.77455192006599</v>
       </c>
       <c r="E99" t="n">
-        <v>4.330208963621562e-05</v>
+        <v>4.338347193348932e-05</v>
       </c>
       <c r="F99" t="n">
-        <v>4.963140925225711</v>
+        <v>4.962425320010999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>3.071471369238838e-05</v>
+        <v>28529783178102.6</v>
       </c>
       <c r="C100" t="n">
-        <v>8.25932745238733e-07</v>
+        <v>767051310041.5964</v>
       </c>
       <c r="D100" t="n">
-        <v>23.53547738706102</v>
+        <v>23.55654374003022</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0006356089359796713</v>
+        <v>0.0006299809349506177</v>
       </c>
       <c r="F100" t="n">
-        <v>3.92257956451017</v>
+        <v>3.92609062333837</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>1.968916336022086e-05</v>
+        <v>18287745167012.46</v>
       </c>
       <c r="C101" t="n">
-        <v>5.215194944148759e-07</v>
+        <v>484835243781.3685</v>
       </c>
       <c r="D101" t="n">
-        <v>8.950794967812955</v>
+        <v>8.93135025295973</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1763642972728851</v>
+        <v>0.1774758547962786</v>
       </c>
       <c r="F101" t="n">
-        <v>1.491799161302159</v>
+        <v>1.488558375493288</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>1.387360417999974e-05</v>
+        <v>12885214079302.65</v>
       </c>
       <c r="C102" t="n">
-        <v>4.171864093004661e-07</v>
+        <v>387136715688.431</v>
       </c>
       <c r="D102" t="n">
-        <v>16.03310299844674</v>
+        <v>16.0503478204847</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01357738915255107</v>
+        <v>0.01348626674326791</v>
       </c>
       <c r="F102" t="n">
-        <v>2.672183833074457</v>
+        <v>2.675057970080784</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>1.35204861890914e-05</v>
+        <v>12552514914084.89</v>
       </c>
       <c r="C103" t="n">
-        <v>4.378737084209267e-07</v>
+        <v>406328438201.5082</v>
       </c>
       <c r="D103" t="n">
-        <v>22.66293802820075</v>
+        <v>22.67288543495609</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0009175966065465687</v>
+        <v>0.0009137759436059199</v>
       </c>
       <c r="F103" t="n">
-        <v>3.777156338033459</v>
+        <v>3.778814239159348</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>1.610174127939142e-05</v>
+        <v>14960408538128.39</v>
       </c>
       <c r="C104" t="n">
-        <v>4.361285883302879e-07</v>
+        <v>405645246645.9761</v>
       </c>
       <c r="D104" t="n">
-        <v>23.69361675010581</v>
+        <v>23.69557967556621</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0005945391984284129</v>
+        <v>0.0005940461768729876</v>
       </c>
       <c r="F104" t="n">
-        <v>3.948936125017635</v>
+        <v>3.949263279261035</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>2.89240860370095e-05</v>
+        <v>26869364923129.59</v>
       </c>
       <c r="C105" t="n">
-        <v>7.971060305543495e-07</v>
+        <v>741343359974.6925</v>
       </c>
       <c r="D105" t="n">
-        <v>3.075790809266133</v>
+        <v>3.06808464330029</v>
       </c>
       <c r="E105" t="n">
-        <v>0.7992759549648132</v>
+        <v>0.8002542732834154</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5126318015443555</v>
+        <v>0.5113474405500483</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>4.162248011304976e-05</v>
+        <v>38664387142443.35</v>
       </c>
       <c r="C106" t="n">
-        <v>1.002913714385104e-06</v>
+        <v>931543400689.1847</v>
       </c>
       <c r="D106" t="n">
-        <v>2.938389163400969</v>
+        <v>2.942363216323453</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8165389942353888</v>
+        <v>0.8160453377754823</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4897315272334948</v>
+        <v>0.4903938693872421</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>5.240276242780116e-05</v>
+        <v>48681186118588.4</v>
       </c>
       <c r="C107" t="n">
-        <v>1.280300136633409e-06</v>
+        <v>1188941419295.786</v>
       </c>
       <c r="D107" t="n">
-        <v>3.610929462239318</v>
+        <v>3.618983832614776</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7291572774223798</v>
+        <v>0.728077983424005</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6018215770398864</v>
+        <v>0.6031639721024628</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>5.413415562244805e-05</v>
+        <v>50288472797261.11</v>
       </c>
       <c r="C108" t="n">
-        <v>1.193814668589636e-06</v>
+        <v>1109212313375.294</v>
       </c>
       <c r="D108" t="n">
-        <v>1.466568989949608</v>
+        <v>1.466947316322595</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9616842544404749</v>
+        <v>0.9616598223195312</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2444281649916014</v>
+        <v>0.2444912193870992</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>5.554934590110099e-05</v>
+        <v>51605457462813.84</v>
       </c>
       <c r="C109" t="n">
-        <v>1.317529769227506e-06</v>
+        <v>1223449187178.255</v>
       </c>
       <c r="D109" t="n">
-        <v>5.513193509533316</v>
+        <v>5.516567885610042</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4798635261270668</v>
+        <v>0.4794565165699507</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9188655849222194</v>
+        <v>0.9194279809350071</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>5.35564059036486e-05</v>
+        <v>49750777651442.26</v>
       </c>
       <c r="C110" t="n">
-        <v>1.191164738044958e-06</v>
+        <v>1106710810260.833</v>
       </c>
       <c r="D110" t="n">
-        <v>6.74603954372111</v>
+        <v>6.727282349620582</v>
       </c>
       <c r="E110" t="n">
-        <v>0.344973212784155</v>
+        <v>0.3468059065994561</v>
       </c>
       <c r="F110" t="n">
-        <v>1.124339923953518</v>
+        <v>1.121213724936764</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>5.513419448075011e-05</v>
+        <v>51214914866326.27</v>
       </c>
       <c r="C111" t="n">
-        <v>1.230098788288592e-06</v>
+        <v>1142460323933.266</v>
       </c>
       <c r="D111" t="n">
-        <v>8.477189888831084</v>
+        <v>8.473333962504361</v>
       </c>
       <c r="E111" t="n">
-        <v>0.205184774842417</v>
+        <v>0.2054347721147694</v>
       </c>
       <c r="F111" t="n">
-        <v>1.412864981471847</v>
+        <v>1.41222232708406</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>5.656368801946835e-05</v>
+        <v>52540278692101.34</v>
       </c>
       <c r="C112" t="n">
-        <v>1.347004989269173e-06</v>
+        <v>1251032622192.946</v>
       </c>
       <c r="D112" t="n">
-        <v>14.07744419270243</v>
+        <v>14.07005374378598</v>
       </c>
       <c r="E112" t="n">
-        <v>0.02878293208521544</v>
+        <v>0.02886333925867795</v>
       </c>
       <c r="F112" t="n">
-        <v>2.346240698783738</v>
+        <v>2.345008957297664</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>5.938435664878415e-05</v>
+        <v>55164699991110.51</v>
       </c>
       <c r="C113" t="n">
-        <v>1.323557829033004e-06</v>
+        <v>1229583261931.385</v>
       </c>
       <c r="D113" t="n">
-        <v>4.945455801717253</v>
+        <v>4.942748911171047</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5508276686917988</v>
+        <v>0.5511767506663541</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8242426336195421</v>
+        <v>0.8237914851951745</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>6.239727830573519e-05</v>
+        <v>57966128413436.93</v>
       </c>
       <c r="C114" t="n">
-        <v>1.379436002132187e-06</v>
+        <v>1281634188906.244</v>
       </c>
       <c r="D114" t="n">
-        <v>10.23750023752064</v>
+        <v>10.23333778383911</v>
       </c>
       <c r="E114" t="n">
-        <v>0.11500012655442</v>
+        <v>0.1151633744940031</v>
       </c>
       <c r="F114" t="n">
-        <v>1.706250039586774</v>
+        <v>1.705556297306518</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>6.653555403363991e-05</v>
+        <v>61807948876165.81</v>
       </c>
       <c r="C115" t="n">
-        <v>1.473631006192872e-06</v>
+        <v>1368770186508.214</v>
       </c>
       <c r="D115" t="n">
-        <v>6.744871322731383</v>
+        <v>6.749777488092048</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3450871512954184</v>
+        <v>0.3446088269322193</v>
       </c>
       <c r="F115" t="n">
-        <v>1.12414522045523</v>
+        <v>1.124962914682008</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>6.767340858778562e-05</v>
+        <v>62862546853073.57</v>
       </c>
       <c r="C116" t="n">
-        <v>1.511856135599378e-06</v>
+        <v>1404181682438.482</v>
       </c>
       <c r="D116" t="n">
-        <v>12.33549860801377</v>
+        <v>12.31741225121184</v>
       </c>
       <c r="E116" t="n">
-        <v>0.05488934752395162</v>
+        <v>0.05525096744002148</v>
       </c>
       <c r="F116" t="n">
-        <v>2.055916434668961</v>
+        <v>2.052902041868641</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>6.93307279517716e-05</v>
+        <v>64406783181992.27</v>
       </c>
       <c r="C117" t="n">
-        <v>1.625466828610354e-06</v>
+        <v>1510508887079.666</v>
       </c>
       <c r="D117" t="n">
-        <v>16.73238683473302</v>
+        <v>16.72236699129706</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01031875287010787</v>
+        <v>0.01035961237911014</v>
       </c>
       <c r="F117" t="n">
-        <v>2.78873113912217</v>
+        <v>2.787061165216176</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>6.779248408792795e-05</v>
+        <v>62976474469206.78</v>
       </c>
       <c r="C118" t="n">
-        <v>1.458181914500117e-06</v>
+        <v>1354148339926.804</v>
       </c>
       <c r="D118" t="n">
-        <v>15.17091207613468</v>
+        <v>15.19209539630915</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01896825426521488</v>
+        <v>0.0188141257444737</v>
       </c>
       <c r="F118" t="n">
-        <v>2.528485346022447</v>
+        <v>2.532015899384858</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>6.727015020158205e-05</v>
+        <v>62491481011474.24</v>
       </c>
       <c r="C119" t="n">
-        <v>1.510420658402657e-06</v>
+        <v>1403637546391.79</v>
       </c>
       <c r="D119" t="n">
-        <v>14.34002578659421</v>
+        <v>14.32520730095439</v>
       </c>
       <c r="E119" t="n">
-        <v>0.02606012942882281</v>
+        <v>0.02620703800316917</v>
       </c>
       <c r="F119" t="n">
-        <v>2.390004297765703</v>
+        <v>2.387534550159065</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>5.615293838021615e-05</v>
+        <v>52161925830692.47</v>
       </c>
       <c r="C120" t="n">
-        <v>1.261702962835385e-06</v>
+        <v>1172138580736.246</v>
       </c>
       <c r="D120" t="n">
-        <v>10.46763797561782</v>
+        <v>10.45882907731627</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1062903976235794</v>
+        <v>0.1066125573640392</v>
       </c>
       <c r="F120" t="n">
-        <v>1.744606329269637</v>
+        <v>1.743138179552711</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>5.514523116219465e-05</v>
+        <v>51225454367331.66</v>
       </c>
       <c r="C121" t="n">
-        <v>1.337301971162701e-06</v>
+        <v>1242228364648.411</v>
       </c>
       <c r="D121" t="n">
-        <v>19.78149916954463</v>
+        <v>19.78434085154517</v>
       </c>
       <c r="E121" t="n">
-        <v>0.003028543492853957</v>
+        <v>0.003025026027665634</v>
       </c>
       <c r="F121" t="n">
-        <v>3.296916528257439</v>
+        <v>3.297390141924195</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>4.3962740516282e-05</v>
+        <v>40843423997606.46</v>
       </c>
       <c r="C122" t="n">
-        <v>1.013218920495976e-06</v>
+        <v>941513028631.4349</v>
       </c>
       <c r="D122" t="n">
-        <v>14.81064984440449</v>
+        <v>14.84306871165722</v>
       </c>
       <c r="E122" t="n">
-        <v>0.02178167829699193</v>
+        <v>0.02151304059557193</v>
       </c>
       <c r="F122" t="n">
-        <v>2.468441640734081</v>
+        <v>2.473844785276204</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>3.495754109665342e-05</v>
+        <v>32475532425393.75</v>
       </c>
       <c r="C123" t="n">
-        <v>8.07247209950652e-07</v>
+        <v>749400793579.4423</v>
       </c>
       <c r="D123" t="n">
-        <v>6.354452439876116</v>
+        <v>6.355190697946648</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3846769578788715</v>
+        <v>0.3845992682633986</v>
       </c>
       <c r="F123" t="n">
-        <v>1.059075406646019</v>
+        <v>1.059198449657775</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>3.753466967041244e-05</v>
+        <v>34869781041421.28</v>
       </c>
       <c r="C124" t="n">
-        <v>9.878286710115605e-07</v>
+        <v>917509680899.1104</v>
       </c>
       <c r="D124" t="n">
-        <v>10.62562907325008</v>
+        <v>10.63821924863066</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1006591664132258</v>
+        <v>0.1002222053213303</v>
       </c>
       <c r="F124" t="n">
-        <v>1.770938178875013</v>
+        <v>1.773036541438444</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>4.773489260959742e-05</v>
+        <v>44343169414497.61</v>
       </c>
       <c r="C125" t="n">
-        <v>1.116101051887356e-06</v>
+        <v>1036517893381.798</v>
       </c>
       <c r="D125" t="n">
-        <v>21.81140208599087</v>
+        <v>21.77840293297894</v>
       </c>
       <c r="E125" t="n">
-        <v>0.001309927644246723</v>
+        <v>0.001328057440609465</v>
       </c>
       <c r="F125" t="n">
-        <v>3.635233680998478</v>
+        <v>3.629733822163157</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>6.473230751553452e-05</v>
+        <v>60133528742913.86</v>
       </c>
       <c r="C126" t="n">
-        <v>1.457090230218479e-06</v>
+        <v>1353155191587.268</v>
       </c>
       <c r="D126" t="n">
-        <v>16.29031322037502</v>
+        <v>16.28727650895183</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01227772025935973</v>
+        <v>0.01229234184955653</v>
       </c>
       <c r="F126" t="n">
-        <v>2.715052203395836</v>
+        <v>2.714546084825305</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>6.197329030789761e-05</v>
+        <v>57571654910499.81</v>
       </c>
       <c r="C127" t="n">
-        <v>1.392899593707002e-06</v>
+        <v>1293814437577.12</v>
       </c>
       <c r="D127" t="n">
-        <v>9.627280026100479</v>
+        <v>9.640321623360911</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1412511889362999</v>
+        <v>0.1406390456987361</v>
       </c>
       <c r="F127" t="n">
-        <v>1.604546671016746</v>
+        <v>1.606720270560152</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001008908919368994</v>
+        <v>93720376400360.56</v>
       </c>
       <c r="C128" t="n">
-        <v>2.244275203736292e-06</v>
+        <v>2084872449776.766</v>
       </c>
       <c r="D128" t="n">
-        <v>20.94159504780215</v>
+        <v>20.93506690893236</v>
       </c>
       <c r="E128" t="n">
-        <v>0.001879471735880358</v>
+        <v>0.001884551608746799</v>
       </c>
       <c r="F128" t="n">
-        <v>3.490265841300358</v>
+        <v>3.489177818155393</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001844763740315614</v>
+        <v>171369561156601.7</v>
       </c>
       <c r="C129" t="n">
-        <v>4.110054798047604e-06</v>
+        <v>3818431537280.58</v>
       </c>
       <c r="D129" t="n">
-        <v>15.79846872599364</v>
+        <v>15.79792462966022</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01487752991744379</v>
+        <v>0.01488067937695247</v>
       </c>
       <c r="F129" t="n">
-        <v>2.63307812099894</v>
+        <v>2.632987438276702</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002018104670420222</v>
+        <v>187474878820471.2</v>
       </c>
       <c r="C130" t="n">
-        <v>4.571612173179441e-06</v>
+        <v>4247030147150.412</v>
       </c>
       <c r="D130" t="n">
-        <v>16.47177032772247</v>
+        <v>16.46895842325674</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01143376454379047</v>
+        <v>0.01144640587560749</v>
       </c>
       <c r="F130" t="n">
-        <v>2.745295054620412</v>
+        <v>2.744826403876124</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002143060862025745</v>
+        <v>199087007431515.2</v>
       </c>
       <c r="C131" t="n">
-        <v>4.974729112965834e-06</v>
+        <v>4621216010999.331</v>
       </c>
       <c r="D131" t="n">
-        <v>20.45280794776693</v>
+        <v>20.44829679699218</v>
       </c>
       <c r="E131" t="n">
-        <v>0.002299390984521013</v>
+        <v>0.002303664610196684</v>
       </c>
       <c r="F131" t="n">
-        <v>3.408801324627822</v>
+        <v>3.408049466165364</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002437446873707118</v>
+        <v>226430617751528.9</v>
       </c>
       <c r="C132" t="n">
-        <v>5.356134916294604e-06</v>
+        <v>4975065512589.002</v>
       </c>
       <c r="D132" t="n">
-        <v>22.85090643745447</v>
+        <v>22.8598718220668</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0008479828338503348</v>
+        <v>0.000844795395937743</v>
       </c>
       <c r="F132" t="n">
-        <v>3.808484406242412</v>
+        <v>3.809978637011133</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002771089331527121</v>
+        <v>257428819164602.4</v>
       </c>
       <c r="C133" t="n">
-        <v>5.978014229134274e-06</v>
+        <v>5553209328092.375</v>
       </c>
       <c r="D133" t="n">
-        <v>18.43546239905666</v>
+        <v>18.43671294031877</v>
       </c>
       <c r="E133" t="n">
-        <v>0.005231294715537452</v>
+        <v>0.005228658566223465</v>
       </c>
       <c r="F133" t="n">
-        <v>3.072577066509443</v>
+        <v>3.072785490053129</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0002914839854790689</v>
+        <v>270778997419497.9</v>
       </c>
       <c r="C134" t="n">
-        <v>6.272928752451822e-06</v>
+        <v>5827500926492.566</v>
       </c>
       <c r="D134" t="n">
-        <v>21.8539812511671</v>
+        <v>21.85201841389907</v>
       </c>
       <c r="E134" t="n">
-        <v>0.001286892639912651</v>
+        <v>0.001287945735586381</v>
       </c>
       <c r="F134" t="n">
-        <v>3.64233020852785</v>
+        <v>3.642003068983179</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002834642089405916</v>
+        <v>263332150855079.8</v>
       </c>
       <c r="C135" t="n">
-        <v>6.266830466318008e-06</v>
+        <v>5820775619333.016</v>
       </c>
       <c r="D135" t="n">
-        <v>27.12249082440808</v>
+        <v>27.13402534518659</v>
       </c>
       <c r="E135" t="n">
-        <v>0.000137352463212484</v>
+        <v>0.0001366702856577797</v>
       </c>
       <c r="F135" t="n">
-        <v>4.520415137401347</v>
+        <v>4.522337557531098</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002576280841501104</v>
+        <v>239328320428812.8</v>
       </c>
       <c r="C136" t="n">
-        <v>5.656309745866968e-06</v>
+        <v>5254749654931.478</v>
       </c>
       <c r="D136" t="n">
-        <v>23.12669070306668</v>
+        <v>23.12148525913864</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0007551380760667764</v>
+        <v>0.0007567943615430318</v>
       </c>
       <c r="F136" t="n">
-        <v>3.854448450511113</v>
+        <v>3.853580876523107</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0002074498181191894</v>
+        <v>192715081729203.6</v>
       </c>
       <c r="C137" t="n">
-        <v>4.720034759263733e-06</v>
+        <v>4384633121197.738</v>
       </c>
       <c r="D137" t="n">
-        <v>34.10168447292546</v>
+        <v>34.10715981242056</v>
       </c>
       <c r="E137" t="n">
-        <v>6.429972032565277e-06</v>
+        <v>6.414332225445362e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>5.68361407882091</v>
+        <v>5.684526635403427</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001460839597262141</v>
+        <v>135704040196706.2</v>
       </c>
       <c r="C138" t="n">
-        <v>3.314665693347565e-06</v>
+        <v>3079597402618.614</v>
       </c>
       <c r="D138" t="n">
-        <v>40.21006242000673</v>
+        <v>40.20853875176601</v>
       </c>
       <c r="E138" t="n">
-        <v>4.142016391417328e-07</v>
+        <v>4.144874539959903e-07</v>
       </c>
       <c r="F138" t="n">
-        <v>6.701677070001121</v>
+        <v>6.701423125294334</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>9.933264236640705e-05</v>
+        <v>92267126238709.28</v>
       </c>
       <c r="C139" t="n">
-        <v>2.34381996734616e-06</v>
+        <v>2176706272147.619</v>
       </c>
       <c r="D139" t="n">
-        <v>23.33320984109405</v>
+        <v>23.34680203492221</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0006922241740313303</v>
+        <v>0.0006882691040790974</v>
       </c>
       <c r="F139" t="n">
-        <v>3.888868306849008</v>
+        <v>3.891133672487034</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>8.178207668646219e-05</v>
+        <v>75972440851552.67</v>
       </c>
       <c r="C140" t="n">
-        <v>2.086347193399501e-06</v>
+        <v>1937755854070.806</v>
       </c>
       <c r="D140" t="n">
-        <v>26.22535016226405</v>
+        <v>26.2573353097751</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0002021163055241836</v>
+        <v>0.0001993584686162681</v>
       </c>
       <c r="F140" t="n">
-        <v>4.370891693710675</v>
+        <v>4.376222551629183</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>6.608268229384982e-05</v>
+        <v>61390222175208.01</v>
       </c>
       <c r="C141" t="n">
-        <v>1.594593394852964e-06</v>
+        <v>1480889272335.296</v>
       </c>
       <c r="D141" t="n">
-        <v>25.83224164031242</v>
+        <v>25.83189908796682</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0002392451792541644</v>
+        <v>0.0002392802999074506</v>
       </c>
       <c r="F141" t="n">
-        <v>4.305373606718736</v>
+        <v>4.305316514661137</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>5.605869326112751e-05</v>
+        <v>52068748163299.99</v>
       </c>
       <c r="C142" t="n">
-        <v>1.453926236905416e-06</v>
+        <v>1350366170887.71</v>
       </c>
       <c r="D142" t="n">
-        <v>29.14191652108036</v>
+        <v>29.1294761073957</v>
       </c>
       <c r="E142" t="n">
-        <v>5.718754752937524e-05</v>
+        <v>5.749859744639884e-05</v>
       </c>
       <c r="F142" t="n">
-        <v>4.856986086846727</v>
+        <v>4.85491268456595</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>6.256654951630316e-05</v>
+        <v>58119861740816.3</v>
       </c>
       <c r="C143" t="n">
-        <v>1.632483765484452e-06</v>
+        <v>1517203832760.165</v>
       </c>
       <c r="D143" t="n">
-        <v>23.18117742132826</v>
+        <v>23.14276510006122</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0007380136373945287</v>
+        <v>0.0007500459171652856</v>
       </c>
       <c r="F143" t="n">
-        <v>3.863529570221376</v>
+        <v>3.857127516676869</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002312077533974402</v>
+        <v>214780835100848.4</v>
       </c>
       <c r="C144" t="n">
-        <v>5.345323069191011e-06</v>
+        <v>4966030307402.121</v>
       </c>
       <c r="D144" t="n">
-        <v>33.8047416539433</v>
+        <v>33.80685638858223</v>
       </c>
       <c r="E144" t="n">
-        <v>7.337323808885893e-06</v>
+        <v>7.330432807508389e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>5.63412360899055</v>
+        <v>5.634476064763704</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.000438998532050615</v>
+        <v>407821483072478.4</v>
       </c>
       <c r="C145" t="n">
-        <v>9.115927528184742e-06</v>
+        <v>8468570190929.983</v>
       </c>
       <c r="D145" t="n">
-        <v>43.33753011664678</v>
+        <v>43.33371806394889</v>
       </c>
       <c r="E145" t="n">
-        <v>1.000103509523185e-07</v>
+        <v>1.001843383816811e-07</v>
       </c>
       <c r="F145" t="n">
-        <v>7.222921686107797</v>
+        <v>7.222286343991482</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0004885381747771091</v>
+        <v>453835836612672.5</v>
       </c>
       <c r="C146" t="n">
-        <v>1.035542070015363e-05</v>
+        <v>9620155787996.408</v>
       </c>
       <c r="D146" t="n">
-        <v>42.66641309549075</v>
+        <v>42.66320073366195</v>
       </c>
       <c r="E146" t="n">
-        <v>1.357838567096079e-07</v>
+        <v>1.359826029737832e-07</v>
       </c>
       <c r="F146" t="n">
-        <v>7.111068849248458</v>
+        <v>7.110533455610326</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0005132455983533408</v>
+        <v>476786560680841.2</v>
       </c>
       <c r="C147" t="n">
-        <v>1.1000977889457e-05</v>
+        <v>10219879474099.75</v>
       </c>
       <c r="D147" t="n">
-        <v>38.66634639487346</v>
+        <v>38.66921754612638</v>
       </c>
       <c r="E147" t="n">
-        <v>8.320301524776818e-07</v>
+        <v>8.309536067726637e-07</v>
       </c>
       <c r="F147" t="n">
-        <v>6.444391065812243</v>
+        <v>6.444869591021064</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0005027296419614616</v>
+        <v>467019531196831</v>
       </c>
       <c r="C148" t="n">
-        <v>1.077162353502887e-05</v>
+        <v>10006954863640.82</v>
       </c>
       <c r="D148" t="n">
-        <v>40.44495927176153</v>
+        <v>40.44254377031485</v>
       </c>
       <c r="E148" t="n">
-        <v>3.724038186414159e-07</v>
+        <v>3.728115190540931e-07</v>
       </c>
       <c r="F148" t="n">
-        <v>6.740826545293589</v>
+        <v>6.740423961719141</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0005013147970078396</v>
+        <v>465710494065961.1</v>
       </c>
       <c r="C149" t="n">
-        <v>1.07147803851092e-05</v>
+        <v>9953947711955.453</v>
       </c>
       <c r="D149" t="n">
-        <v>34.14403536040882</v>
+        <v>34.1409962863163</v>
       </c>
       <c r="E149" t="n">
-        <v>6.309979349972673e-06</v>
+        <v>6.318515445496242e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>5.690672560068137</v>
+        <v>5.690166047719384</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0006190005713763238</v>
+        <v>575040911049689.1</v>
       </c>
       <c r="C150" t="n">
-        <v>1.310316915080375e-05</v>
+        <v>12172875152674.68</v>
       </c>
       <c r="D150" t="n">
-        <v>40.25518530177104</v>
+        <v>40.25429967168466</v>
       </c>
       <c r="E150" t="n">
-        <v>4.058256189304705e-07</v>
+        <v>4.059883836302119e-07</v>
       </c>
       <c r="F150" t="n">
-        <v>6.709197550295173</v>
+        <v>6.709049945280776</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0006459659497631028</v>
+        <v>600093004339850.9</v>
       </c>
       <c r="C151" t="n">
-        <v>1.353701816304687e-05</v>
+        <v>12576465855998.3</v>
       </c>
       <c r="D151" t="n">
-        <v>36.21920798113269</v>
+        <v>36.21432331821185</v>
       </c>
       <c r="E151" t="n">
-        <v>2.498963668746693e-06</v>
+        <v>2.50443588548683e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>6.036534663522115</v>
+        <v>6.035720553035309</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006466277011445289</v>
+        <v>600695725814940.5</v>
       </c>
       <c r="C152" t="n">
-        <v>1.363116852176589e-05</v>
+        <v>12663226168039.05</v>
       </c>
       <c r="D152" t="n">
-        <v>33.22679447232274</v>
+        <v>33.22413830287952</v>
       </c>
       <c r="E152" t="n">
-        <v>9.483031010013963e-06</v>
+        <v>9.494206321434583e-06</v>
       </c>
       <c r="F152" t="n">
-        <v>5.537799078720457</v>
+        <v>5.537356383813253</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006543255033419605</v>
+        <v>607847473227611.1</v>
       </c>
       <c r="C153" t="n">
-        <v>1.370737629561367e-05</v>
+        <v>12733812716756.33</v>
       </c>
       <c r="D153" t="n">
-        <v>50.05488704706081</v>
+        <v>50.05089222041069</v>
       </c>
       <c r="E153" t="n">
-        <v>4.583455636418238e-09</v>
+        <v>4.591916008066189e-09</v>
       </c>
       <c r="F153" t="n">
-        <v>8.342481174510135</v>
+        <v>8.341815370068447</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006630682900413146</v>
+        <v>615976419168370.6</v>
       </c>
       <c r="C154" t="n">
-        <v>1.396693628878399e-05</v>
+        <v>12974803540419.81</v>
       </c>
       <c r="D154" t="n">
-        <v>42.86400555171112</v>
+        <v>42.86866870845073</v>
       </c>
       <c r="E154" t="n">
-        <v>1.240988567441414e-07</v>
+        <v>1.238355354237787e-07</v>
       </c>
       <c r="F154" t="n">
-        <v>7.144000925285186</v>
+        <v>7.144778118075121</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006542756713077181</v>
+        <v>607812180544329.6</v>
       </c>
       <c r="C155" t="n">
-        <v>1.37404422917448e-05</v>
+        <v>12764158917767.84</v>
       </c>
       <c r="D155" t="n">
-        <v>34.93215458653078</v>
+        <v>34.93599997377877</v>
       </c>
       <c r="E155" t="n">
-        <v>4.441913074248626e-06</v>
+        <v>4.434301399754245e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>5.822025764421796</v>
+        <v>5.822666662296462</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0006412605431900737</v>
+        <v>595716463776183.6</v>
       </c>
       <c r="C156" t="n">
-        <v>1.333830330362325e-05</v>
+        <v>12390785339257.66</v>
       </c>
       <c r="D156" t="n">
-        <v>33.50827444993919</v>
+        <v>33.50690365772986</v>
       </c>
       <c r="E156" t="n">
-        <v>8.369806523364196e-06</v>
+        <v>8.37490050644795e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>5.584712408323198</v>
+        <v>5.584483942954976</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005358010441537822</v>
+        <v>497744879250208.3</v>
       </c>
       <c r="C157" t="n">
-        <v>1.107139894660441e-05</v>
+        <v>10285302011735.45</v>
       </c>
       <c r="D157" t="n">
-        <v>38.99954914047451</v>
+        <v>38.99953253156685</v>
       </c>
       <c r="E157" t="n">
-        <v>7.159058234086053e-07</v>
+        <v>7.159111899858482e-07</v>
       </c>
       <c r="F157" t="n">
-        <v>6.499924856745751</v>
+        <v>6.499922088594475</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0003942359908694716</v>
+        <v>366235855900843</v>
       </c>
       <c r="C158" t="n">
-        <v>8.511269964957785e-06</v>
+        <v>7906661208012.848</v>
       </c>
       <c r="D158" t="n">
-        <v>33.98179382077581</v>
+        <v>33.98623615015669</v>
       </c>
       <c r="E158" t="n">
-        <v>6.78207466968916e-06</v>
+        <v>6.768693159614141e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>5.663632303462635</v>
+        <v>5.664372691692782</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002874746826572037</v>
+        <v>267053612505632.5</v>
       </c>
       <c r="C159" t="n">
-        <v>6.100215961592304e-06</v>
+        <v>5666705427035.526</v>
       </c>
       <c r="D159" t="n">
-        <v>28.2141799011929</v>
+        <v>28.2167049827083</v>
       </c>
       <c r="E159" t="n">
-        <v>8.562470452498916e-05</v>
+        <v>8.553090002085827e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>4.702363316865484</v>
+        <v>4.702784163784718</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>0.000301337776825444</v>
+        <v>279940713272318.4</v>
       </c>
       <c r="C160" t="n">
-        <v>6.633569920144119e-06</v>
+        <v>6163052092103.005</v>
       </c>
       <c r="D160" t="n">
-        <v>43.723447838985</v>
+        <v>43.70927285885519</v>
       </c>
       <c r="E160" t="n">
-        <v>8.386717853657289e-08</v>
+        <v>8.441143573606744e-08</v>
       </c>
       <c r="F160" t="n">
-        <v>7.2872413064975</v>
+        <v>7.284878809809197</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0002311230475389947</v>
+        <v>214706679095678.8</v>
       </c>
       <c r="C161" t="n">
-        <v>4.980525707658507e-06</v>
+        <v>4626441025659.688</v>
       </c>
       <c r="D161" t="n">
-        <v>39.33663939900235</v>
+        <v>39.33839086409415</v>
       </c>
       <c r="E161" t="n">
-        <v>6.148272383403658e-07</v>
+        <v>6.143409851278381e-07</v>
       </c>
       <c r="F161" t="n">
-        <v>6.556106566500392</v>
+        <v>6.556398477349025</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0002313309449900441</v>
+        <v>214895541127585</v>
       </c>
       <c r="C162" t="n">
-        <v>5.018048532664626e-06</v>
+        <v>4661951413742.707</v>
       </c>
       <c r="D162" t="n">
-        <v>31.06396308807445</v>
+        <v>31.05416834706536</v>
       </c>
       <c r="E162" t="n">
-        <v>2.464632034706094e-05</v>
+        <v>2.475270026434562e-05</v>
       </c>
       <c r="F162" t="n">
-        <v>5.177327181345742</v>
+        <v>5.175694724510893</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002229584979951528</v>
+        <v>207124370176857.4</v>
       </c>
       <c r="C163" t="n">
-        <v>4.80224919020527e-06</v>
+        <v>4460801431342.068</v>
       </c>
       <c r="D163" t="n">
-        <v>38.96046324297524</v>
+        <v>38.97285061135357</v>
       </c>
       <c r="E163" t="n">
-        <v>7.28646387179998e-07</v>
+        <v>7.24584350127806e-07</v>
       </c>
       <c r="F163" t="n">
-        <v>6.493410540495873</v>
+        <v>6.495475101892262</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0002048172682296783</v>
+        <v>190268492344700.9</v>
       </c>
       <c r="C164" t="n">
-        <v>4.442431635065816e-06</v>
+        <v>4127056804328.695</v>
       </c>
       <c r="D164" t="n">
-        <v>27.61276994901227</v>
+        <v>27.60560341820374</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0001111239761727173</v>
+        <v>0.0001114691498508497</v>
       </c>
       <c r="F164" t="n">
-        <v>4.602128324835379</v>
+        <v>4.600933903033956</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001903323615890821</v>
+        <v>176809117779217.5</v>
       </c>
       <c r="C165" t="n">
-        <v>4.214187104116014e-06</v>
+        <v>3914685141479.485</v>
       </c>
       <c r="D165" t="n">
-        <v>25.86660186730625</v>
+        <v>25.88002742641869</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0002357480567614777</v>
+        <v>0.0002343953669413475</v>
       </c>
       <c r="F165" t="n">
-        <v>4.311100311217708</v>
+        <v>4.313337904403114</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001829170756671962</v>
+        <v>169926239932312.3</v>
       </c>
       <c r="C166" t="n">
-        <v>4.230409629358011e-06</v>
+        <v>3930440132661.297</v>
       </c>
       <c r="D166" t="n">
-        <v>33.96895126430711</v>
+        <v>33.96939961868725</v>
       </c>
       <c r="E166" t="n">
-        <v>6.820907775313595e-06</v>
+        <v>6.819548339457625e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>5.661491877384518</v>
+        <v>5.661566603114541</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001742536814131768</v>
+        <v>161872974606922.9</v>
       </c>
       <c r="C167" t="n">
-        <v>3.795507052506462e-06</v>
+        <v>3525662355807.329</v>
       </c>
       <c r="D167" t="n">
-        <v>34.4186487115052</v>
+        <v>34.42644617701942</v>
       </c>
       <c r="E167" t="n">
-        <v>5.584070168356015e-06</v>
+        <v>5.564716713518938e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>5.736441451917533</v>
+        <v>5.737741029503237</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001464305947155629</v>
+        <v>136029377467589.7</v>
       </c>
       <c r="C168" t="n">
-        <v>3.227004246595638e-06</v>
+        <v>2997269271213.288</v>
       </c>
       <c r="D168" t="n">
-        <v>28.07696694595179</v>
+        <v>28.08656866321561</v>
       </c>
       <c r="E168" t="n">
-        <v>9.087789981263958e-05</v>
+        <v>9.050015394547977e-05</v>
       </c>
       <c r="F168" t="n">
-        <v>4.679494490991964</v>
+        <v>4.681094777202602</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001324548149227236</v>
+        <v>123046666248858.4</v>
       </c>
       <c r="C169" t="n">
-        <v>2.885331245592623e-06</v>
+        <v>2680631652180.026</v>
       </c>
       <c r="D169" t="n">
-        <v>30.48713742165878</v>
+        <v>30.48635188027558</v>
       </c>
       <c r="E169" t="n">
-        <v>3.175250442868347e-05</v>
+        <v>3.176344799082789e-05</v>
       </c>
       <c r="F169" t="n">
-        <v>5.081189570276464</v>
+        <v>5.081058646712596</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>8.492109265430535e-05</v>
+        <v>78890189499810.84</v>
       </c>
       <c r="C170" t="n">
-        <v>2.117743001437071e-06</v>
+        <v>1966846538312.488</v>
       </c>
       <c r="D170" t="n">
-        <v>30.04877062484508</v>
+        <v>30.06732958836279</v>
       </c>
       <c r="E170" t="n">
-        <v>3.847805812089422e-05</v>
+        <v>3.816664719068615e-05</v>
       </c>
       <c r="F170" t="n">
-        <v>5.008128437474181</v>
+        <v>5.011221598060465</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>6.246544511068108e-05</v>
+        <v>58018437645808.61</v>
       </c>
       <c r="C171" t="n">
-        <v>1.491929207577046e-06</v>
+        <v>1385643639241.075</v>
       </c>
       <c r="D171" t="n">
-        <v>32.05775333622466</v>
+        <v>32.03619460501305</v>
       </c>
       <c r="E171" t="n">
-        <v>1.590685773472711e-05</v>
+        <v>1.605897092889095e-05</v>
       </c>
       <c r="F171" t="n">
-        <v>5.342958889370777</v>
+        <v>5.339365767502176</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>6.890517155520558e-05</v>
+        <v>64010186307940.52</v>
       </c>
       <c r="C172" t="n">
-        <v>1.701178609613939e-06</v>
+        <v>1580665725222.455</v>
       </c>
       <c r="D172" t="n">
-        <v>34.15437388664384</v>
+        <v>34.14748469841093</v>
       </c>
       <c r="E172" t="n">
-        <v>6.281026278251105e-06</v>
+        <v>6.300304777122958e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>5.692395647773973</v>
+        <v>5.691247449735155</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>9.19359470615328e-05</v>
+        <v>85400318064350.77</v>
       </c>
       <c r="C173" t="n">
-        <v>2.439896206451115e-06</v>
+        <v>2266158754965.787</v>
       </c>
       <c r="D173" t="n">
-        <v>18.05698600079874</v>
+        <v>18.07602835562823</v>
       </c>
       <c r="E173" t="n">
-        <v>0.006091351197919734</v>
+        <v>0.006044978983694803</v>
       </c>
       <c r="F173" t="n">
-        <v>3.00949766679979</v>
+        <v>3.012671392604705</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001190820427077886</v>
+        <v>110627085621089.4</v>
       </c>
       <c r="C174" t="n">
-        <v>2.78583039861745e-06</v>
+        <v>2587135384112.251</v>
       </c>
       <c r="D174" t="n">
-        <v>29.34618460069418</v>
+        <v>29.36782529092209</v>
       </c>
       <c r="E174" t="n">
-        <v>5.231193075919515e-05</v>
+        <v>5.182013638978827e-05</v>
       </c>
       <c r="F174" t="n">
-        <v>4.891030766782364</v>
+        <v>4.894637548487014</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001314477928173511</v>
+        <v>122113370995325.4</v>
       </c>
       <c r="C175" t="n">
-        <v>3.438207246779605e-06</v>
+        <v>3193854190517.38</v>
       </c>
       <c r="D175" t="n">
-        <v>22.36403743225096</v>
+        <v>22.37343996469971</v>
       </c>
       <c r="E175" t="n">
-        <v>0.001040006778141294</v>
+        <v>0.001035922660698038</v>
       </c>
       <c r="F175" t="n">
-        <v>3.727339572041827</v>
+        <v>3.728906660783286</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001818393399852789</v>
+        <v>168922408180245.2</v>
       </c>
       <c r="C176" t="n">
-        <v>4.951319504602119e-06</v>
+        <v>4599404115168.846</v>
       </c>
       <c r="D176" t="n">
-        <v>22.3358900264308</v>
+        <v>22.33824869442956</v>
       </c>
       <c r="E176" t="n">
-        <v>0.001052327649887605</v>
+        <v>0.001051289724220944</v>
       </c>
       <c r="F176" t="n">
-        <v>3.722648337738467</v>
+        <v>3.723041449071593</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002706866814534105</v>
+        <v>251454968276679.8</v>
       </c>
       <c r="C177" t="n">
-        <v>6.738066796052484e-06</v>
+        <v>6259684375847.705</v>
       </c>
       <c r="D177" t="n">
-        <v>25.12871413825748</v>
+        <v>25.12096308005788</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0003232149929093523</v>
+        <v>0.0003242856696840648</v>
       </c>
       <c r="F177" t="n">
-        <v>4.188119023042914</v>
+        <v>4.186827180009647</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003216245264380854</v>
+        <v>298782637424465.8</v>
       </c>
       <c r="C178" t="n">
-        <v>8.242618801967888e-06</v>
+        <v>7657287727945.952</v>
       </c>
       <c r="D178" t="n">
-        <v>22.93889338802588</v>
+        <v>22.94190939492131</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0008172052336747488</v>
+        <v>0.0008161699257662853</v>
       </c>
       <c r="F178" t="n">
-        <v>3.823148898004314</v>
+        <v>3.823651565820219</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003940573646265231</v>
+        <v>366072445592870.7</v>
       </c>
       <c r="C179" t="n">
-        <v>9.674834604927032e-06</v>
+        <v>8987573809694.1</v>
       </c>
       <c r="D179" t="n">
-        <v>28.69709810739138</v>
+        <v>28.69915324290144</v>
       </c>
       <c r="E179" t="n">
-        <v>6.941424526865158e-05</v>
+        <v>6.935219998846879e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>4.782849684565229</v>
+        <v>4.783192207150241</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005300218966671444</v>
+        <v>492366135227153.1</v>
       </c>
       <c r="C180" t="n">
-        <v>1.243799548766529e-05</v>
+        <v>11554548152705.02</v>
       </c>
       <c r="D180" t="n">
-        <v>48.76790880829535</v>
+        <v>48.76191103839719</v>
       </c>
       <c r="E180" t="n">
-        <v>8.297460702545894e-09</v>
+        <v>8.320417915442576e-09</v>
       </c>
       <c r="F180" t="n">
-        <v>8.127984801382558</v>
+        <v>8.126985173066199</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.000519392894227181</v>
+        <v>482504098145981.1</v>
       </c>
       <c r="C181" t="n">
-        <v>1.126740404169889e-05</v>
+        <v>10467094813225.95</v>
       </c>
       <c r="D181" t="n">
-        <v>48.61034040848192</v>
+        <v>48.61243164175493</v>
       </c>
       <c r="E181" t="n">
-        <v>8.922055323987607e-09</v>
+        <v>8.913466569904832e-09</v>
       </c>
       <c r="F181" t="n">
-        <v>8.101723401413652</v>
+        <v>8.102071940292488</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007869959951738358</v>
+        <v>731100388062237.1</v>
       </c>
       <c r="C182" t="n">
-        <v>1.79803260294264e-05</v>
+        <v>16703402488203.2</v>
       </c>
       <c r="D182" t="n">
-        <v>33.74689839300358</v>
+        <v>33.74380909453541</v>
       </c>
       <c r="E182" t="n">
-        <v>7.528322379772703e-06</v>
+        <v>7.538660877329548e-06</v>
       </c>
       <c r="F182" t="n">
-        <v>5.624483065500596</v>
+        <v>5.623968182422569</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001008663645466914</v>
+        <v>937020587757376</v>
       </c>
       <c r="C183" t="n">
-        <v>2.283132168854066e-05</v>
+        <v>21209660345818.83</v>
       </c>
       <c r="D183" t="n">
-        <v>35.13960253586441</v>
+        <v>35.13961372541249</v>
       </c>
       <c r="E183" t="n">
-        <v>4.049247965499873e-06</v>
+        <v>4.049227743810347e-06</v>
       </c>
       <c r="F183" t="n">
-        <v>5.856600422644068</v>
+        <v>5.856602287568748</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001316718789141248</v>
+        <v>1223193654543188</v>
       </c>
       <c r="C184" t="n">
-        <v>2.7484990539778e-05</v>
+        <v>25533016914706.79</v>
       </c>
       <c r="D184" t="n">
-        <v>38.10040358182495</v>
+        <v>38.10091443839182</v>
       </c>
       <c r="E184" t="n">
-        <v>1.073714820552027e-06</v>
+        <v>1.073467880809311e-06</v>
       </c>
       <c r="F184" t="n">
-        <v>6.350067263637492</v>
+        <v>6.350152406398636</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001538979965861359</v>
+        <v>1429682267627181</v>
       </c>
       <c r="C185" t="n">
-        <v>3.197806580385744e-05</v>
+        <v>29707253899080.14</v>
       </c>
       <c r="D185" t="n">
-        <v>54.33912847471056</v>
+        <v>54.33989984199548</v>
       </c>
       <c r="E185" t="n">
-        <v>6.302101472791119e-10</v>
+        <v>6.299843611991726e-10</v>
       </c>
       <c r="F185" t="n">
-        <v>9.05652141245176</v>
+        <v>9.056649973665913</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001498111709431081</v>
+        <v>1391704206678990</v>
       </c>
       <c r="C186" t="n">
-        <v>3.014644328832178e-05</v>
+        <v>28005003135701.64</v>
       </c>
       <c r="D186" t="n">
-        <v>47.37029928592399</v>
+        <v>47.37150256708021</v>
       </c>
       <c r="E186" t="n">
-        <v>1.578424690089195e-08</v>
+        <v>1.577552100575202e-08</v>
       </c>
       <c r="F186" t="n">
-        <v>7.895049880987332</v>
+        <v>7.895250427846702</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001472128771076602</v>
+        <v>1367568240139923</v>
       </c>
       <c r="C187" t="n">
-        <v>3.001895717740242e-05</v>
+        <v>27886094716873.18</v>
       </c>
       <c r="D187" t="n">
-        <v>47.79923311808588</v>
+        <v>47.80278008583337</v>
       </c>
       <c r="E187" t="n">
-        <v>1.295936293018861e-08</v>
+        <v>1.29382399743834e-08</v>
       </c>
       <c r="F187" t="n">
-        <v>7.966538853014313</v>
+        <v>7.967130014305561</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.00138730729371521</v>
+        <v>1288770458110585</v>
       </c>
       <c r="C188" t="n">
-        <v>2.850699578944621e-05</v>
+        <v>26482428404720.07</v>
       </c>
       <c r="D188" t="n">
-        <v>46.05794205863815</v>
+        <v>46.05681517770304</v>
       </c>
       <c r="E188" t="n">
-        <v>2.882948111642643e-08</v>
+        <v>2.884437897316165e-08</v>
       </c>
       <c r="F188" t="n">
-        <v>7.676323676439693</v>
+        <v>7.676135862950507</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001204306485111685</v>
+        <v>1118762192799268</v>
       </c>
       <c r="C189" t="n">
-        <v>2.405001067113071e-05</v>
+        <v>22342096379202.04</v>
       </c>
       <c r="D189" t="n">
-        <v>49.37769253826621</v>
+        <v>49.37509738628944</v>
       </c>
       <c r="E189" t="n">
-        <v>6.264510066053269e-09</v>
+        <v>6.272011316427149e-09</v>
       </c>
       <c r="F189" t="n">
-        <v>8.229615423044368</v>
+        <v>8.229182897714907</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001145036499478906</v>
+        <v>1063716721075870</v>
       </c>
       <c r="C190" t="n">
-        <v>2.306465301832813e-05</v>
+        <v>21426462326813.93</v>
       </c>
       <c r="D190" t="n">
-        <v>52.65104770697709</v>
+        <v>52.65191932427838</v>
       </c>
       <c r="E190" t="n">
-        <v>1.379299237464172e-09</v>
+        <v>1.378742176521228e-09</v>
       </c>
       <c r="F190" t="n">
-        <v>8.775174617829515</v>
+        <v>8.77531988737973</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0009820426851422047</v>
+        <v>912288862277303.8</v>
       </c>
       <c r="C191" t="n">
-        <v>1.985390314137215e-05</v>
+        <v>18444152629645.89</v>
       </c>
       <c r="D191" t="n">
-        <v>56.77694125784803</v>
+        <v>56.77635592996616</v>
       </c>
       <c r="E191" t="n">
-        <v>2.027077636394815e-10</v>
+        <v>2.027630637685592e-10</v>
       </c>
       <c r="F191" t="n">
-        <v>9.462823542974672</v>
+        <v>9.462725988327692</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0007809081697606532</v>
+        <v>725437336181641.6</v>
       </c>
       <c r="C192" t="n">
-        <v>1.587581569994307e-05</v>
+        <v>14748463943786.15</v>
       </c>
       <c r="D192" t="n">
-        <v>58.32097138183844</v>
+        <v>58.31420570138299</v>
       </c>
       <c r="E192" t="n">
-        <v>9.864743708770956e-11</v>
+        <v>9.895953246978985e-11</v>
       </c>
       <c r="F192" t="n">
-        <v>9.720161896973073</v>
+        <v>9.719034283563831</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0006589802206634521</v>
+        <v>612170378285581.8</v>
       </c>
       <c r="C193" t="n">
-        <v>1.353048629734218e-05</v>
+        <v>12569225011317.89</v>
       </c>
       <c r="D193" t="n">
-        <v>47.43333551499008</v>
+        <v>47.43864393286648</v>
       </c>
       <c r="E193" t="n">
-        <v>1.533353256716267e-08</v>
+        <v>1.529616740520283e-08</v>
       </c>
       <c r="F193" t="n">
-        <v>7.905555919165013</v>
+        <v>7.906440655477748</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.000483461718876406</v>
+        <v>449116650090480.6</v>
       </c>
       <c r="C194" t="n">
-        <v>1.031335840263232e-05</v>
+        <v>9580613231193.178</v>
       </c>
       <c r="D194" t="n">
-        <v>54.36747078831618</v>
+        <v>54.36664014784355</v>
       </c>
       <c r="E194" t="n">
-        <v>6.21966845450558e-10</v>
+        <v>6.222068992802563e-10</v>
       </c>
       <c r="F194" t="n">
-        <v>9.061245131386029</v>
+        <v>9.061106691307257</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0005012934164250754</v>
+        <v>465696788774441.2</v>
       </c>
       <c r="C195" t="n">
-        <v>1.036980659765545e-05</v>
+        <v>9633387417393.785</v>
       </c>
       <c r="D195" t="n">
-        <v>50.99362960362024</v>
+        <v>50.99682611103594</v>
       </c>
       <c r="E195" t="n">
-        <v>2.97063649244289e-09</v>
+        <v>2.966249753246981e-09</v>
       </c>
       <c r="F195" t="n">
-        <v>8.49893826727004</v>
+        <v>8.499471018505991</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.000337871684992127</v>
+        <v>313870996870616.6</v>
       </c>
       <c r="C196" t="n">
-        <v>7.106529198243103e-06</v>
+        <v>6602384038354.428</v>
       </c>
       <c r="D196" t="n">
-        <v>43.21792218453243</v>
+        <v>43.21047749768889</v>
       </c>
       <c r="E196" t="n">
-        <v>1.056154471529318e-07</v>
+        <v>1.059744809592972e-07</v>
       </c>
       <c r="F196" t="n">
-        <v>7.202987030755406</v>
+        <v>7.201746249614815</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0002068219061263687</v>
+        <v>192135457594978.6</v>
       </c>
       <c r="C197" t="n">
-        <v>4.63701664166151e-06</v>
+        <v>4307770543701.035</v>
       </c>
       <c r="D197" t="n">
-        <v>31.47572233705648</v>
+        <v>31.47034200665513</v>
       </c>
       <c r="E197" t="n">
-        <v>2.056132474940941e-05</v>
+        <v>2.061010950494784e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>5.245953722842747</v>
+        <v>5.245057001109188</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002095041212617325</v>
+        <v>194618368690332.6</v>
       </c>
       <c r="C198" t="n">
-        <v>4.559268279166748e-06</v>
+        <v>4235681711194.202</v>
       </c>
       <c r="D198" t="n">
-        <v>29.14052700411075</v>
+        <v>29.13869849492642</v>
       </c>
       <c r="E198" t="n">
-        <v>5.722220712462658e-05</v>
+        <v>5.726784844664358e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>4.856754500685125</v>
+        <v>4.856449749154404</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0001564833506769646</v>
+        <v>145368644872155.6</v>
       </c>
       <c r="C199" t="n">
-        <v>3.535767127302417e-06</v>
+        <v>3285163359913.517</v>
       </c>
       <c r="D199" t="n">
-        <v>19.56605502071792</v>
+        <v>19.56821429366437</v>
       </c>
       <c r="E199" t="n">
-        <v>0.003307163773767947</v>
+        <v>0.0033042510940134</v>
       </c>
       <c r="F199" t="n">
-        <v>3.261009170119653</v>
+        <v>3.261369048944061</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0001501674863445198</v>
+        <v>139502820657477.3</v>
       </c>
       <c r="C200" t="n">
-        <v>3.31254381777804e-06</v>
+        <v>3077650211688.185</v>
       </c>
       <c r="D200" t="n">
-        <v>27.53562083360274</v>
+        <v>27.52414419808073</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0001148960102897207</v>
+        <v>0.0001154678386882742</v>
       </c>
       <c r="F200" t="n">
-        <v>4.58927013893379</v>
+        <v>4.587357366346788</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0001396937233720736</v>
+        <v>129773705794650.4</v>
       </c>
       <c r="C201" t="n">
-        <v>3.089963600975697e-06</v>
+        <v>2870543438743.004</v>
       </c>
       <c r="D201" t="n">
-        <v>24.27557451048294</v>
+        <v>24.27426619920748</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0004646750293805622</v>
+        <v>0.000464933062085405</v>
       </c>
       <c r="F201" t="n">
-        <v>4.04592908508049</v>
+        <v>4.045711033201246</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.000236240202335205</v>
+        <v>219460638721851.7</v>
       </c>
       <c r="C202" t="n">
-        <v>5.299466985565974e-06</v>
+        <v>4923274425680.399</v>
       </c>
       <c r="D202" t="n">
-        <v>30.17390138910755</v>
+        <v>30.17329757464065</v>
       </c>
       <c r="E202" t="n">
-        <v>3.642612468766145e-05</v>
+        <v>3.643576128912112e-05</v>
       </c>
       <c r="F202" t="n">
-        <v>5.028983564851258</v>
+        <v>5.028882929106775</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0001828039858728752</v>
+        <v>169821599730719.3</v>
       </c>
       <c r="C203" t="n">
-        <v>3.825137875792947e-06</v>
+        <v>3553226097537.515</v>
       </c>
       <c r="D203" t="n">
-        <v>40.27783239005539</v>
+        <v>40.27333350638597</v>
       </c>
       <c r="E203" t="n">
-        <v>4.016854227791769e-07</v>
+        <v>4.025045225604087e-07</v>
       </c>
       <c r="F203" t="n">
-        <v>6.712972065009232</v>
+        <v>6.712222251064328</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002882752654002476</v>
+        <v>267802524451278.2</v>
       </c>
       <c r="C204" t="n">
-        <v>6.393635457229364e-06</v>
+        <v>5939060657854.124</v>
       </c>
       <c r="D204" t="n">
-        <v>29.10239447562088</v>
+        <v>29.10979803490188</v>
       </c>
       <c r="E204" t="n">
-        <v>5.818152362118138e-05</v>
+        <v>5.799403272564324e-05</v>
       </c>
       <c r="F204" t="n">
-        <v>4.850399079270146</v>
+        <v>4.85163300581698</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002732909188540334</v>
+        <v>253877577359303.1</v>
       </c>
       <c r="C205" t="n">
-        <v>6.065202581184148e-06</v>
+        <v>5634363263454.722</v>
       </c>
       <c r="D205" t="n">
-        <v>29.20689327527144</v>
+        <v>29.20961209123072</v>
       </c>
       <c r="E205" t="n">
-        <v>5.558977645604442e-05</v>
+        <v>5.552389252204584e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>4.867815545878574</v>
+        <v>4.868268681871786</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.000262447870435128</v>
+        <v>243803352071508.4</v>
       </c>
       <c r="C206" t="n">
-        <v>5.879522553425128e-06</v>
+        <v>5461310872340.812</v>
       </c>
       <c r="D206" t="n">
-        <v>33.81986507639562</v>
+        <v>33.83420350524573</v>
       </c>
       <c r="E206" t="n">
-        <v>7.288184162614582e-06</v>
+        <v>7.241896741908323e-06</v>
       </c>
       <c r="F206" t="n">
-        <v>5.636644179399269</v>
+        <v>5.639033917540956</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002597882139435068</v>
+        <v>241329946793408.1</v>
       </c>
       <c r="C207" t="n">
-        <v>5.809361767435874e-06</v>
+        <v>5396635811134.508</v>
       </c>
       <c r="D207" t="n">
-        <v>38.38178102612688</v>
+        <v>38.37881187545247</v>
       </c>
       <c r="E207" t="n">
-        <v>9.459040792275124e-07</v>
+        <v>9.471704283533595e-07</v>
       </c>
       <c r="F207" t="n">
-        <v>6.39696350435448</v>
+        <v>6.396468645908745</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002534096057761074</v>
+        <v>235413746567458.2</v>
       </c>
       <c r="C208" t="n">
-        <v>5.718837551070788e-06</v>
+        <v>5313410897033.525</v>
       </c>
       <c r="D208" t="n">
-        <v>27.55402108251544</v>
+        <v>27.54183217534987</v>
       </c>
       <c r="E208" t="n">
-        <v>0.0001139850428543644</v>
+        <v>0.0001145876951906531</v>
       </c>
       <c r="F208" t="n">
-        <v>4.592336847085906</v>
+        <v>4.590305362558312</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002393567976584942</v>
+        <v>222351771302043.1</v>
       </c>
       <c r="C209" t="n">
-        <v>5.07462410602572e-06</v>
+        <v>4713935303357.872</v>
       </c>
       <c r="D209" t="n">
-        <v>32.56888659546649</v>
+        <v>32.5710596278948</v>
       </c>
       <c r="E209" t="n">
-        <v>1.269077662271201e-05</v>
+        <v>1.26785838847038e-05</v>
       </c>
       <c r="F209" t="n">
-        <v>5.428147765911082</v>
+        <v>5.428509937982468</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002436965734942632</v>
+        <v>226380093924506.2</v>
       </c>
       <c r="C210" t="n">
-        <v>5.412061274109511e-06</v>
+        <v>5026848974233.008</v>
       </c>
       <c r="D210" t="n">
-        <v>25.44906283243198</v>
+        <v>25.45592330204555</v>
       </c>
       <c r="E210" t="n">
-        <v>0.0002818842471019478</v>
+        <v>0.0002810586730740671</v>
       </c>
       <c r="F210" t="n">
-        <v>4.241510472071996</v>
+        <v>4.242653883674258</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0001437082188349858</v>
+        <v>133494834020554.8</v>
       </c>
       <c r="C211" t="n">
-        <v>3.10158073853664e-06</v>
+        <v>2881243694344.371</v>
       </c>
       <c r="D211" t="n">
-        <v>39.97186844935408</v>
+        <v>39.97370505029659</v>
       </c>
       <c r="E211" t="n">
-        <v>4.613501509024859e-07</v>
+        <v>4.609669351702651e-07</v>
       </c>
       <c r="F211" t="n">
-        <v>6.661978074892347</v>
+        <v>6.662284175049431</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>6.317269800338941e-05</v>
+        <v>58687799751953.18</v>
       </c>
       <c r="C212" t="n">
-        <v>1.599662497522536e-06</v>
+        <v>1485912186515.332</v>
       </c>
       <c r="D212" t="n">
-        <v>21.9101004109698</v>
+        <v>21.92689206256843</v>
       </c>
       <c r="E212" t="n">
-        <v>0.001257138232210964</v>
+        <v>0.001248367117517112</v>
       </c>
       <c r="F212" t="n">
-        <v>3.651683401828301</v>
+        <v>3.654482010428072</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>3.979772209351164e-05</v>
+        <v>36974993133689.71</v>
       </c>
       <c r="C213" t="n">
-        <v>1.114694427402703e-06</v>
+        <v>1035846169320.309</v>
       </c>
       <c r="D213" t="n">
-        <v>5.449624863423955</v>
+        <v>5.440398427483434</v>
       </c>
       <c r="E213" t="n">
-        <v>0.4875660138038397</v>
+        <v>0.4886894341405643</v>
       </c>
       <c r="F213" t="n">
-        <v>0.9082708105706591</v>
+        <v>0.9067330712472391</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>5.697008404602727e-05</v>
+        <v>52922444071552.36</v>
       </c>
       <c r="C214" t="n">
-        <v>1.369597031605122e-06</v>
+        <v>1272723382421.608</v>
       </c>
       <c r="D214" t="n">
-        <v>25.25324004715911</v>
+        <v>25.2135837518114</v>
       </c>
       <c r="E214" t="n">
-        <v>0.0003064837830390155</v>
+        <v>0.0003117171752798466</v>
       </c>
       <c r="F214" t="n">
-        <v>4.208873341193185</v>
+        <v>4.202263958635233</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>3.54088781485988e-05</v>
+        <v>32893173344483.02</v>
       </c>
       <c r="C215" t="n">
-        <v>9.603039918924925e-07</v>
+        <v>892660248218.1697</v>
       </c>
       <c r="D215" t="n">
-        <v>12.98836606902947</v>
+        <v>13.01973012250398</v>
       </c>
       <c r="E215" t="n">
-        <v>0.04322106706441269</v>
+        <v>0.04272369877235394</v>
       </c>
       <c r="F215" t="n">
-        <v>2.164727678171578</v>
+        <v>2.169955020417331</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>2.754813059024952e-05</v>
+        <v>25590547912929.75</v>
       </c>
       <c r="C216" t="n">
-        <v>8.142175234430055e-07</v>
+        <v>756289452433.348</v>
       </c>
       <c r="D216" t="n">
-        <v>7.405295517993011</v>
+        <v>7.394641789032042</v>
       </c>
       <c r="E216" t="n">
-        <v>0.2849852986465499</v>
+        <v>0.2858867840068789</v>
       </c>
       <c r="F216" t="n">
-        <v>1.234215919665502</v>
+        <v>1.232440298172007</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>2.345100931737126e-05</v>
+        <v>21787494767075.91</v>
       </c>
       <c r="C217" t="n">
-        <v>6.852691812496231e-07</v>
+        <v>636923630315.3898</v>
       </c>
       <c r="D217" t="n">
-        <v>2.864052316107891</v>
+        <v>2.861443328432802</v>
       </c>
       <c r="E217" t="n">
-        <v>0.8257061254772405</v>
+        <v>0.8260254853998922</v>
       </c>
       <c r="F217" t="n">
-        <v>0.4773420526846486</v>
+        <v>0.476907221405467</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>2.206094638164909e-05</v>
+        <v>20496738113607.82</v>
       </c>
       <c r="C218" t="n">
-        <v>6.93746064132982e-07</v>
+        <v>644573554125.5137</v>
       </c>
       <c r="D218" t="n">
-        <v>10.38927985438935</v>
+        <v>10.40560341641716</v>
       </c>
       <c r="E218" t="n">
-        <v>0.1091870856990827</v>
+        <v>0.108577867965485</v>
       </c>
       <c r="F218" t="n">
-        <v>1.731546642398224</v>
+        <v>1.734267236069526</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>2.168915653466276e-05</v>
+        <v>20149470949268.48</v>
       </c>
       <c r="C219" t="n">
-        <v>6.890593119223884e-07</v>
+        <v>640294663636.8838</v>
       </c>
       <c r="D219" t="n">
-        <v>9.65246594099783</v>
+        <v>9.674209839169389</v>
       </c>
       <c r="E219" t="n">
-        <v>0.1400711148168596</v>
+        <v>0.1390592904266524</v>
       </c>
       <c r="F219" t="n">
-        <v>1.608744323499638</v>
+        <v>1.612368306528231</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>2.598561075107178e-05</v>
+        <v>24138878301318.76</v>
       </c>
       <c r="C220" t="n">
-        <v>7.894079635559549e-07</v>
+        <v>733036556267.134</v>
       </c>
       <c r="D220" t="n">
-        <v>2.705960309270545</v>
+        <v>2.702214610971003</v>
       </c>
       <c r="E220" t="n">
-        <v>0.8447427859064459</v>
+        <v>0.8451856485961682</v>
       </c>
       <c r="F220" t="n">
-        <v>0.4509933848784242</v>
+        <v>0.4503691018285005</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>2.654287011754063e-05</v>
+        <v>24659206068084.98</v>
       </c>
       <c r="C221" t="n">
-        <v>8.171419743143012e-07</v>
+        <v>758692969176.7291</v>
       </c>
       <c r="D221" t="n">
-        <v>6.537785607981796</v>
+        <v>6.556771533919958</v>
       </c>
       <c r="E221" t="n">
-        <v>0.365711935651201</v>
+        <v>0.3637856978390319</v>
       </c>
       <c r="F221" t="n">
-        <v>1.089630934663633</v>
+        <v>1.092795255653326</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>2.978611954433689e-05</v>
+        <v>27668842399524.08</v>
       </c>
       <c r="C222" t="n">
-        <v>7.908826830365772e-07</v>
+        <v>733722088934.9081</v>
       </c>
       <c r="D222" t="n">
-        <v>15.90355039977055</v>
+        <v>15.93587633543082</v>
       </c>
       <c r="E222" t="n">
-        <v>0.014281120909459</v>
+        <v>0.01410231483195569</v>
       </c>
       <c r="F222" t="n">
-        <v>2.650591733295091</v>
+        <v>2.65597938923847</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>3.414322321583532e-05</v>
+        <v>31716447432525.79</v>
       </c>
       <c r="C223" t="n">
-        <v>9.15421848230571e-07</v>
+        <v>850828364633.6796</v>
       </c>
       <c r="D223" t="n">
-        <v>10.25423033896673</v>
+        <v>10.22776443318004</v>
       </c>
       <c r="E223" t="n">
-        <v>0.1143460706503866</v>
+        <v>0.1153822809344706</v>
       </c>
       <c r="F223" t="n">
-        <v>1.709038389827789</v>
+        <v>1.704627405530006</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
+++ b/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,4442 +395,4402 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>7846737379811.049</v>
+        <v>8.962643908031724e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>213170882289.8021</v>
+        <v>2.434865111928921e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>27.81335527074576</v>
+        <v>27.81335526177468</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001018798792721451</v>
+        <v>0.0001018798796680929</v>
       </c>
       <c r="F2" t="n">
-        <v>4.63555921179096</v>
+        <v>4.635559210295781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>11788176553814.85</v>
+        <v>1.346460618347158e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>318511786465.827</v>
+        <v>3.638082408179144e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>19.61159597465401</v>
+        <v>19.61159569739881</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003246259850212721</v>
+        <v>0.003246260217648678</v>
       </c>
       <c r="F3" t="n">
-        <v>3.268599329109001</v>
+        <v>3.268599282899802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>14173286497537.15</v>
+        <v>1.618890931058474e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>362440142390.5103</v>
+        <v>4.139837707241365e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>27.98652751223088</v>
+        <v>27.98652742136553</v>
       </c>
       <c r="E4" t="n">
-        <v>9.45132682900962e-05</v>
+        <v>9.451327201383413e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>4.664421252038479</v>
+        <v>4.664421236894255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>20134752565627.86</v>
+        <v>2.299817218467858e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>481137170896.6803</v>
+        <v>5.49561037133671e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>5.120167464542646</v>
+        <v>5.120167627481504</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5284958392533676</v>
+        <v>0.5284958186165478</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8533612440904411</v>
+        <v>0.8533612712469173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>20938419378175.62</v>
+        <v>2.391613071250225e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>523647870453.3934</v>
+        <v>5.981173022328182e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>10.35907030357735</v>
+        <v>10.35907013864453</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1103226433491514</v>
+        <v>0.1103226495776752</v>
       </c>
       <c r="F6" t="n">
-        <v>1.726511717262892</v>
+        <v>1.726511689774089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>21724380599578.25</v>
+        <v>2.481386568632204e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>539282329648.045</v>
+        <v>6.159751820236204e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>3.416484607257432</v>
+        <v>3.416484524011887</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7550458568009439</v>
+        <v>0.7550458678041627</v>
       </c>
       <c r="F7" t="n">
-        <v>0.569414101209572</v>
+        <v>0.5694140873353145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>24593177694811.77</v>
+        <v>2.809064245354782e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>560569835252.6041</v>
+        <v>6.402900428499734e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>8.223014830248299</v>
+        <v>8.223014765569904</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2222157937664713</v>
+        <v>0.2222157982445984</v>
       </c>
       <c r="F8" t="n">
-        <v>1.37050247170805</v>
+        <v>1.370502460928317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>24086455186362.07</v>
+        <v>2.751185752206125e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>536138724033.731</v>
+        <v>6.123845151356332e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>2.789006947840882</v>
+        <v>2.789006876618315</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8348244861057161</v>
+        <v>0.8348244946913361</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4648344913068136</v>
+        <v>0.4648344794363859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>22073274363798.07</v>
+        <v>2.521237662074921e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>532531911179.4477</v>
+        <v>6.082647674261526e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>6.822622634490436</v>
+        <v>6.822622638986106</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3375630447702392</v>
+        <v>0.3375630443386573</v>
       </c>
       <c r="F10" t="n">
-        <v>1.137103772415073</v>
+        <v>1.137103773164351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>21549595257512.21</v>
+        <v>2.46142236166062e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>522281148510.9524</v>
+        <v>5.96556215053473e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>8.393602519188637</v>
+        <v>8.393602478573179</v>
       </c>
       <c r="E11" t="n">
-        <v>0.210661410136376</v>
+        <v>0.2106614128267988</v>
       </c>
       <c r="F11" t="n">
-        <v>1.398933753198106</v>
+        <v>1.398933746428863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>18682552356550.14</v>
+        <v>2.133945052325268e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>444378269528.787</v>
+        <v>5.075745493375681e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>5.488265900133093</v>
+        <v>5.488265850230172</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4828760635169174</v>
+        <v>0.4828760695579956</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9147109833555155</v>
+        <v>0.914710975038362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>14315321856785.59</v>
+        <v>1.63511439152633e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>359246375239.8293</v>
+        <v>4.103358095720977e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>20.35823117521289</v>
+        <v>20.35823141788989</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002390630490730707</v>
+        <v>0.002390630252139201</v>
       </c>
       <c r="F13" t="n">
-        <v>3.393038529202148</v>
+        <v>3.393038569648315</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>8282432278799.991</v>
+        <v>9.460300199574518e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>248422715740.6459</v>
+        <v>2.837516066791737e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>2.357133404105432</v>
+        <v>2.357133426166898</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8841015769498273</v>
+        <v>0.8841015745924033</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3928555673509053</v>
+        <v>0.3928555710278163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>11765596219643.09</v>
+        <v>1.343881465546847e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>325079043901.3102</v>
+        <v>3.713094460092815e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>2.495812318433927</v>
+        <v>2.495812175699276</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8689360390756415</v>
+        <v>0.8689360550298226</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4159687197389879</v>
+        <v>0.4159686959498793</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>16635328391172.47</v>
+        <v>1.900108509485226e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>452106226900.6983</v>
+        <v>5.164015217126491e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>18.48090779703262</v>
+        <v>18.48090761190369</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005136319679301131</v>
+        <v>0.005136320062763536</v>
       </c>
       <c r="F16" t="n">
-        <v>3.080151299505437</v>
+        <v>3.080151268650615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>19585577457733.98</v>
+        <v>2.237089735819716e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>511667133947.0578</v>
+        <v>5.844327524244262e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>24.09229610301379</v>
+        <v>24.09229584600602</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0005022305860604681</v>
+        <v>0.0005022306407629543</v>
       </c>
       <c r="F17" t="n">
-        <v>4.015382683835632</v>
+        <v>4.015382641001003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>23085330267179.01</v>
+        <v>2.636835979953348e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>590867411619.8148</v>
+        <v>6.748963233403262e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>35.8711284382483</v>
+        <v>35.8711284451864</v>
       </c>
       <c r="E18" t="n">
-        <v>2.920246297864781e-06</v>
+        <v>2.920246288801317e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>5.978521406374717</v>
+        <v>5.978521407531066</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>27806085128716.14</v>
+        <v>3.176046646287415e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>681675819088.4463</v>
+        <v>7.786188486916828e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>28.0684361748044</v>
+        <v>28.06843629305344</v>
       </c>
       <c r="E19" t="n">
-        <v>9.121482018737903e-05</v>
+        <v>9.121481550862071e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>4.678072695800733</v>
+        <v>4.678072715508907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>30914022195751.71</v>
+        <v>3.531039197223514e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>770390271192.0343</v>
+        <v>8.799496316682531e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>40.69059202411068</v>
+        <v>40.6905922188833</v>
       </c>
       <c r="E20" t="n">
-        <v>3.331783122599309e-07</v>
+        <v>3.331782828464687e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>6.781765337351779</v>
+        <v>6.781765369813884</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>47232969318219.81</v>
+        <v>5.395010232163389e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1114949856965.58</v>
+        <v>1.273510002073249e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>30.16753197079723</v>
+        <v>30.16753194089993</v>
       </c>
       <c r="E21" t="n">
-        <v>3.652790488637874e-05</v>
+        <v>3.65279053647832e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>5.027921995132872</v>
+        <v>5.027921990149989</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>135549714979533.4</v>
+        <v>0.0001548266202984943</v>
       </c>
       <c r="C22" t="n">
-        <v>3110587797264.935</v>
+        <v>3.552953210004691e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>64.27462349527119</v>
+        <v>64.27462314449853</v>
       </c>
       <c r="E22" t="n">
-        <v>6.066563100336712e-12</v>
+        <v>6.066564100170282e-12</v>
       </c>
       <c r="F22" t="n">
-        <v>10.71243724921186</v>
+        <v>10.71243719074976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>212631092506686.1</v>
+        <v>0.0002428699563986366</v>
       </c>
       <c r="C23" t="n">
-        <v>4831608136113.959</v>
+        <v>5.518724682135788e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>72.05726126669977</v>
+        <v>72.05726131899803</v>
       </c>
       <c r="E23" t="n">
-        <v>1.546416453689745e-13</v>
+        <v>1.546416415434825e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>12.00954354444996</v>
+        <v>12.00954355316634</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>317733359257997.1</v>
+        <v>0.0003629191110652707</v>
       </c>
       <c r="C24" t="n">
-        <v>7083511613410.878</v>
+        <v>8.090877661470652e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>55.76171897255749</v>
+        <v>55.76171920622813</v>
       </c>
       <c r="E24" t="n">
-        <v>3.25242406534217e-10</v>
+        <v>3.25242371162755e-10</v>
       </c>
       <c r="F24" t="n">
-        <v>9.293619828759581</v>
+        <v>9.293619867704688</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>322200769038411.3</v>
+        <v>0.0003680218438744539</v>
       </c>
       <c r="C25" t="n">
-        <v>7036296346453.173</v>
+        <v>8.036947779623022e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>64.04705622790554</v>
+        <v>64.047056627443</v>
       </c>
       <c r="E25" t="n">
-        <v>6.751082943157195e-12</v>
+        <v>6.751081676105686e-12</v>
       </c>
       <c r="F25" t="n">
-        <v>10.67450937131759</v>
+        <v>10.67450943790717</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>299809456408898.8</v>
+        <v>0.000342446199913823</v>
       </c>
       <c r="C26" t="n">
-        <v>6646882806482.547</v>
+        <v>7.592154647814358e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>54.14806137426248</v>
+        <v>54.1480615921864</v>
       </c>
       <c r="E26" t="n">
-        <v>6.886968470798105e-10</v>
+        <v>6.886967773772735e-10</v>
       </c>
       <c r="F26" t="n">
-        <v>9.024676895710414</v>
+        <v>9.024676932031067</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>285945325264519.9</v>
+        <v>0.0003266104116738825</v>
       </c>
       <c r="C27" t="n">
-        <v>6482445622781.551</v>
+        <v>7.404332388174815e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>58.74429839676831</v>
+        <v>58.74429819833534</v>
       </c>
       <c r="E27" t="n">
-        <v>8.095231570565059e-11</v>
+        <v>8.095232320913543e-11</v>
       </c>
       <c r="F27" t="n">
-        <v>9.790716399461386</v>
+        <v>9.790716366389224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>286789765106421.4</v>
+        <v>0.0003275749417099781</v>
       </c>
       <c r="C28" t="n">
-        <v>6481152179690.077</v>
+        <v>7.402855007363386e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>51.42593641144772</v>
+        <v>51.42593635206912</v>
       </c>
       <c r="E28" t="n">
-        <v>2.432328782482959e-09</v>
+        <v>2.432328849297986e-09</v>
       </c>
       <c r="F28" t="n">
-        <v>8.570989401907953</v>
+        <v>8.570989392011521</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>290849091069126.1</v>
+        <v>0.0003322115558378625</v>
       </c>
       <c r="C29" t="n">
-        <v>6449460158037.154</v>
+        <v>7.366655971467457e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>49.07090901942188</v>
+        <v>49.070908951174</v>
       </c>
       <c r="E29" t="n">
-        <v>7.216227383464235e-09</v>
+        <v>7.216227610453275e-09</v>
       </c>
       <c r="F29" t="n">
-        <v>8.178484836570314</v>
+        <v>8.178484825195667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>280887567154121.5</v>
+        <v>0.0003208333756203</v>
       </c>
       <c r="C30" t="n">
-        <v>6255113313109.456</v>
+        <v>7.144670512309237e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>51.39420944985662</v>
+        <v>51.39420960504138</v>
       </c>
       <c r="E30" t="n">
-        <v>2.468291566519923e-09</v>
+        <v>2.468291389326873e-09</v>
       </c>
       <c r="F30" t="n">
-        <v>8.565701574976103</v>
+        <v>8.56570160084023</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>283341741854245.8</v>
+        <v>0.0003236365653861887</v>
       </c>
       <c r="C31" t="n">
-        <v>6337538946041.285</v>
+        <v>7.238818130021155e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>59.03447782317858</v>
+        <v>59.03447817606099</v>
       </c>
       <c r="E31" t="n">
-        <v>7.068912073026341e-11</v>
+        <v>7.068910907431896e-11</v>
       </c>
       <c r="F31" t="n">
-        <v>9.839079637196429</v>
+        <v>9.839079696010165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>281854377963520.8</v>
+        <v>0.0003219376795613787</v>
       </c>
       <c r="C32" t="n">
-        <v>6383661743871.674</v>
+        <v>7.291500182797094e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>69.18253356391122</v>
+        <v>69.18253321490198</v>
       </c>
       <c r="E32" t="n">
-        <v>6.014552500060675e-13</v>
+        <v>6.014553490695557e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>11.53042226065187</v>
+        <v>11.53042220248366</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>275063599947046.3</v>
+        <v>0.0003141811660267037</v>
       </c>
       <c r="C33" t="n">
-        <v>6108059611849.341</v>
+        <v>6.976703902853959e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>54.25541707896586</v>
+        <v>54.25541687505903</v>
       </c>
       <c r="E33" t="n">
-        <v>6.551989112742176e-10</v>
+        <v>6.551989733302366e-10</v>
       </c>
       <c r="F33" t="n">
-        <v>9.042569513160977</v>
+        <v>9.042569479176505</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>268767446635984.9</v>
+        <v>0.0003069896188060436</v>
       </c>
       <c r="C34" t="n">
-        <v>6098391579750.778</v>
+        <v>6.965660951693744e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>51.81482686050456</v>
+        <v>51.8148271081773</v>
       </c>
       <c r="E34" t="n">
-        <v>2.031733060731202e-09</v>
+        <v>2.031732827804322e-09</v>
       </c>
       <c r="F34" t="n">
-        <v>8.63580447675076</v>
+        <v>8.63580451802955</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>249229745226707.6</v>
+        <v>0.000284673406243651</v>
       </c>
       <c r="C35" t="n">
-        <v>5594972247298.009</v>
+        <v>6.390648935211571e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>62.07354563211395</v>
+        <v>62.07354538837343</v>
       </c>
       <c r="E35" t="n">
-        <v>1.704477583199992e-11</v>
+        <v>1.704477777969832e-11</v>
       </c>
       <c r="F35" t="n">
-        <v>10.34559093868566</v>
+        <v>10.34559089806224</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>226699690094466.8</v>
+        <v>0.0002589392886275295</v>
       </c>
       <c r="C36" t="n">
-        <v>5078975413571.274</v>
+        <v>5.801270745434665e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>65.67346407772952</v>
+        <v>65.67346469053473</v>
       </c>
       <c r="E36" t="n">
-        <v>3.142783441575297e-12</v>
+        <v>3.142782535486581e-12</v>
       </c>
       <c r="F36" t="n">
-        <v>10.94557734628825</v>
+        <v>10.94557744842245</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>183617925101503.4</v>
+        <v>0.0002097307448905846</v>
       </c>
       <c r="C37" t="n">
-        <v>4084001980487.756</v>
+        <v>4.664799346506398e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>62.99221328779234</v>
+        <v>62.99221340000911</v>
       </c>
       <c r="E37" t="n">
-        <v>1.107792499527182e-11</v>
+        <v>1.107792441192592e-11</v>
       </c>
       <c r="F37" t="n">
-        <v>10.49870221463206</v>
+        <v>10.49870223333485</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>146778140305899.6</v>
+        <v>0.0001676518714442626</v>
       </c>
       <c r="C38" t="n">
-        <v>3242229190431.073</v>
+        <v>3.703315697170325e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>49.30633825246021</v>
+        <v>49.30633805865392</v>
       </c>
       <c r="E38" t="n">
-        <v>6.474051889067879e-09</v>
+        <v>6.47405246758749e-09</v>
       </c>
       <c r="F38" t="n">
-        <v>8.217723042076701</v>
+        <v>8.217723009775654</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>98858792872504.98</v>
+        <v>0.0001129177791001135</v>
       </c>
       <c r="C39" t="n">
-        <v>2215723570141.892</v>
+        <v>2.530827832392005e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>65.93791803549989</v>
+        <v>65.93791793430181</v>
       </c>
       <c r="E39" t="n">
-        <v>2.775068553863967e-12</v>
+        <v>2.775068686019629e-12</v>
       </c>
       <c r="F39" t="n">
-        <v>10.98965300591665</v>
+        <v>10.9896529890503</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>140237412201239.8</v>
+        <v>0.0001601809679843853</v>
       </c>
       <c r="C40" t="n">
-        <v>3161934470382.205</v>
+        <v>3.611602036504522e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>51.7689393238652</v>
+        <v>51.76893848072648</v>
       </c>
       <c r="E40" t="n">
-        <v>2.075348648630664e-09</v>
+        <v>2.075349458537988e-09</v>
       </c>
       <c r="F40" t="n">
-        <v>8.628156553977533</v>
+        <v>8.628156413454413</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>69969138221970.14</v>
+        <v>7.991964557380041e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1610715995114.118</v>
+        <v>1.839780433565699e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>60.5935573036064</v>
+        <v>60.5935570412521</v>
       </c>
       <c r="E41" t="n">
-        <v>3.409483994224231e-11</v>
+        <v>3.409484412918794e-11</v>
       </c>
       <c r="F41" t="n">
-        <v>10.09892621726773</v>
+        <v>10.09892617354202</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>47638149087793.41</v>
+        <v>5.441290384230492e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1097820296224.125</v>
+        <v>1.253944398795092e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>28.65160218055475</v>
+        <v>28.65160210972221</v>
       </c>
       <c r="E42" t="n">
-        <v>7.080192909043075e-05</v>
+        <v>7.080193127212721e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>4.775267030092458</v>
+        <v>4.775267018287034</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>36203215855152.71</v>
+        <v>4.13517767034414e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>846344042930.4413</v>
+        <v>9.667050024329574e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>32.52436080993825</v>
+        <v>32.52436068999757</v>
       </c>
       <c r="E43" t="n">
-        <v>1.29431832684821e-05</v>
+        <v>1.294318395505847e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>5.420726801656375</v>
+        <v>5.420726781666262</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>22014016163359.2</v>
+        <v>2.514469114747288e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>554526858305.4648</v>
+        <v>6.333876780349262e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>19.66399848406765</v>
+        <v>19.66399848423616</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003177532155368387</v>
+        <v>0.003177532155149691</v>
       </c>
       <c r="F44" t="n">
-        <v>3.277333080677943</v>
+        <v>3.277333080706026</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>19192834344898.8</v>
+        <v>2.19223011224161e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>504443254895.5209</v>
+        <v>5.761815449662417e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>14.45418808744573</v>
+        <v>14.45418810748465</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02495429625248866</v>
+        <v>0.02495429606235691</v>
       </c>
       <c r="F45" t="n">
-        <v>2.409031347907622</v>
+        <v>2.409031351247441</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>18030850433607.21</v>
+        <v>2.059506822644232e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>462972153276.8858</v>
+        <v>5.288127220244893e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>3.969120838229573</v>
+        <v>3.969120822380337</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6808553729500813</v>
+        <v>0.6808553750949136</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6615201397049288</v>
+        <v>0.6615201370633895</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>19479394971539.03</v>
+        <v>2.224961433496913e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>478928148570.8848</v>
+        <v>5.470378636650795e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>4.663032794948362</v>
+        <v>4.663032828452139</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5876988342480629</v>
+        <v>0.5876988298247665</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7771721324913936</v>
+        <v>0.7771721380753566</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>24912777623664.97</v>
+        <v>2.845569358034496e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>590393396131.5962</v>
+        <v>6.743548973812191e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>5.14738729575529</v>
+        <v>5.14738722236236</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5250535048150093</v>
+        <v>0.5250535140826034</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8578978826258816</v>
+        <v>0.8578978703937267</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>34004727960068.85</v>
+        <v>3.884063567599601e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>780107002804.3894</v>
+        <v>8.910482071495541e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>7.264857743657424</v>
+        <v>7.264857836722546</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2970463950994632</v>
+        <v>0.297046386979064</v>
       </c>
       <c r="F49" t="n">
-        <v>1.210809623942904</v>
+        <v>1.210809639453758</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>49544604065368.29</v>
+        <v>5.659048115378241e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>1113364131129.461</v>
+        <v>1.271698766077938e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>6.524597912335223</v>
+        <v>6.524597860766637</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3670540932144705</v>
+        <v>0.3670540984694898</v>
       </c>
       <c r="F50" t="n">
-        <v>1.087432985389204</v>
+        <v>1.08743297679444</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>61904667662652.96</v>
+        <v>7.070830404715135e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1341633423960.156</v>
+        <v>1.532430874798985e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>3.921748309985968</v>
+        <v>3.921748359915403</v>
       </c>
       <c r="E51" t="n">
-        <v>0.687265266615205</v>
+        <v>0.6872652598606106</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6536247183309946</v>
+        <v>0.6536247266525671</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>115429779278479.8</v>
+        <v>0.0001318453717714046</v>
       </c>
       <c r="C52" t="n">
-        <v>2586480619586.324</v>
+        <v>2.954311281209364e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>7.623441104484668</v>
+        <v>7.623441415337206</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2670088608569409</v>
+        <v>0.2670088358921854</v>
       </c>
       <c r="F52" t="n">
-        <v>1.270573517414111</v>
+        <v>1.270573569222868</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>177923948153805</v>
+        <v>0.0002032270117957605</v>
       </c>
       <c r="C53" t="n">
-        <v>3878513677818.143</v>
+        <v>4.430087983148993e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>11.66261985787071</v>
+        <v>11.66262011568305</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06993269018249783</v>
+        <v>0.06993268375162082</v>
       </c>
       <c r="F53" t="n">
-        <v>1.943769976311785</v>
+        <v>1.943770019280508</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>417363334251974.2</v>
+        <v>0.0004767177443647476</v>
       </c>
       <c r="C54" t="n">
-        <v>9250318985730.82</v>
+        <v>1.05658327863101e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>10.74629692310321</v>
+        <v>10.74629695302316</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09654110600691614</v>
+        <v>0.09654110500500362</v>
       </c>
       <c r="F54" t="n">
-        <v>1.791049487183869</v>
+        <v>1.791049492170527</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>631935737811528.8</v>
+        <v>0.0007218050911923629</v>
       </c>
       <c r="C55" t="n">
-        <v>13663537285714.7</v>
+        <v>1.560666723217727e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>9.60123888313268</v>
+        <v>9.601238930886435</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1424805022962671</v>
+        <v>0.1424805000333973</v>
       </c>
       <c r="F55" t="n">
-        <v>1.600206480522113</v>
+        <v>1.600206488481072</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>658409305472434.9</v>
+        <v>0.0007520435391957487</v>
       </c>
       <c r="C56" t="n">
-        <v>13984621629206.89</v>
+        <v>1.597341388431988e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>16.23221916181156</v>
+        <v>16.2322190986801</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01256036413815965</v>
+        <v>0.01256036444868714</v>
       </c>
       <c r="F56" t="n">
-        <v>2.705369860301927</v>
+        <v>2.705369849780018</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>488769837059022.2</v>
+        <v>0.0005582791662261689</v>
       </c>
       <c r="C57" t="n">
-        <v>10621290116846.1</v>
+        <v>1.213177357416378e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>11.61012766145439</v>
+        <v>11.61012761941954</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07125340260394447</v>
+        <v>0.07125340367067906</v>
       </c>
       <c r="F57" t="n">
-        <v>1.935021276909065</v>
+        <v>1.935021269903256</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>232094983966442.9</v>
+        <v>0.0002651018625022317</v>
       </c>
       <c r="C58" t="n">
-        <v>5115865617634.815</v>
+        <v>5.8434072175703e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>11.27760628210138</v>
+        <v>11.27760627000436</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08016636547131932</v>
+        <v>0.08016636581337044</v>
       </c>
       <c r="F58" t="n">
-        <v>1.879601047016896</v>
+        <v>1.879601045000727</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>171072992338089.7</v>
+        <v>0.0001954017622406429</v>
       </c>
       <c r="C59" t="n">
-        <v>3812247823630.844</v>
+        <v>4.354398277987446e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>8.906168862230453</v>
+        <v>8.906168581270029</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1789242437176975</v>
+        <v>0.1789242599341942</v>
       </c>
       <c r="F59" t="n">
-        <v>1.484361477038409</v>
+        <v>1.484361430211671</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>226189914514439.7</v>
+        <v>0.0002583570163898916</v>
       </c>
       <c r="C60" t="n">
-        <v>4916331183950.768</v>
+        <v>5.615496427174366e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>15.09773793620762</v>
+        <v>15.09773811386988</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01951000449226296</v>
+        <v>0.01951000315915046</v>
       </c>
       <c r="F60" t="n">
-        <v>2.516289656034604</v>
+        <v>2.51628968564498</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>89545606643317</v>
+        <v>0.0001022801383845911</v>
       </c>
       <c r="C61" t="n">
-        <v>2031095076196.731</v>
+        <v>2.319942803120426e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>6.96630966811164</v>
+        <v>6.966309366724474</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3239741128774221</v>
+        <v>0.3239741409508479</v>
       </c>
       <c r="F61" t="n">
-        <v>1.16105161135194</v>
+        <v>1.161051561120746</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>60794395748916.18</v>
+        <v>6.94401372442961e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1358301923198.612</v>
+        <v>1.551469848860401e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>4.57567295558257</v>
+        <v>4.575672906005554</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5992669351429087</v>
+        <v>0.5992669417266929</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7626121592637617</v>
+        <v>0.7626121510009257</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>35252482614739.43</v>
+        <v>4.026583702198042e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>839498607969.7484</v>
+        <v>9.588860591827234e-07</v>
       </c>
       <c r="D63" t="n">
-        <v>8.00150447326725</v>
+        <v>8.001504502800886</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2379931047240951</v>
+        <v>0.2379931025611993</v>
       </c>
       <c r="F63" t="n">
-        <v>1.333584078877875</v>
+        <v>1.333584083800148</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>26722795754001.89</v>
+        <v>3.05231194756616e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>642529208720.8467</v>
+        <v>7.33905088671853e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>9.200925546881114</v>
+        <v>9.200925516765048</v>
       </c>
       <c r="E64" t="n">
-        <v>0.162589493559101</v>
+        <v>0.1625894951600804</v>
       </c>
       <c r="F64" t="n">
-        <v>1.533487591146852</v>
+        <v>1.533487586127508</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>61025101731318.64</v>
+        <v>6.970365259016444e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1440211673025.063</v>
+        <v>1.645028213623179e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>43.40052146675301</v>
+        <v>43.40052139883802</v>
       </c>
       <c r="E65" t="n">
-        <v>9.717849805816676e-08</v>
+        <v>9.717850106792819e-08</v>
       </c>
       <c r="F65" t="n">
-        <v>7.233420244458834</v>
+        <v>7.233420233139669</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>179263850758814.4</v>
+        <v>0.0002047574658083654</v>
       </c>
       <c r="C66" t="n">
-        <v>4087657921498.996</v>
+        <v>4.668975223816597e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>49.58954602322363</v>
+        <v>49.58954614994362</v>
       </c>
       <c r="E66" t="n">
-        <v>5.681363114552272e-09</v>
+        <v>5.681362782449673e-09</v>
       </c>
       <c r="F66" t="n">
-        <v>8.264924337203938</v>
+        <v>8.264924358323936</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>313441708193735.3</v>
+        <v>0.0003580171324674524</v>
       </c>
       <c r="C67" t="n">
-        <v>6878314912270.911</v>
+        <v>7.856499355605957e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>36.41301363103705</v>
+        <v>36.41301378848443</v>
       </c>
       <c r="E67" t="n">
-        <v>2.291168539409315e-06</v>
+        <v>2.291168377771405e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>6.068835605172842</v>
+        <v>6.068835631414071</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>567135582588896.9</v>
+        <v>0.0006477895238037432</v>
       </c>
       <c r="C68" t="n">
-        <v>12418415870025.2</v>
+        <v>1.418447361626482e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>29.74500131401905</v>
+        <v>29.74500123467027</v>
       </c>
       <c r="E68" t="n">
-        <v>4.394770077737427e-05</v>
+        <v>4.394770230214064e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>4.957500219003175</v>
+        <v>4.957500205778378</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>568340812886160.5</v>
+        <v>0.0006491661537390513</v>
       </c>
       <c r="C69" t="n">
-        <v>12020772630088.01</v>
+        <v>1.373028041632671e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>32.63667871533082</v>
+        <v>32.63667865074197</v>
       </c>
       <c r="E69" t="n">
-        <v>1.231582078973692e-05</v>
+        <v>1.231582114169002e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>5.439446452555138</v>
+        <v>5.439446441790328</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>986081728675303.2</v>
+        <v>0.001126315178136133</v>
       </c>
       <c r="C70" t="n">
-        <v>21004612463914.64</v>
+        <v>2.399173730282905e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>23.61906958446054</v>
+        <v>23.61906998848302</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0006135637191458324</v>
+        <v>0.0006135636144341148</v>
       </c>
       <c r="F70" t="n">
-        <v>3.936511597410091</v>
+        <v>3.93651166474717</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>1092081719325512</v>
+        <v>0.001247389723336437</v>
       </c>
       <c r="C71" t="n">
-        <v>23842344301404.05</v>
+        <v>2.723303093800091e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>19.73457421113615</v>
+        <v>19.73457496537015</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003087207870414436</v>
+        <v>0.003087206918641751</v>
       </c>
       <c r="F71" t="n">
-        <v>3.289095701856025</v>
+        <v>3.289095827561691</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>1387806621956431</v>
+        <v>0.001585170492646771</v>
       </c>
       <c r="C72" t="n">
-        <v>27421551733720.72</v>
+        <v>3.132124749627308e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>4.320133825634695</v>
+        <v>4.320133974429783</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6334398232976377</v>
+        <v>0.6334398032825326</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7200223042724492</v>
+        <v>0.7200223290716306</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>2063156928901004</v>
+        <v>0.002356564260592741</v>
       </c>
       <c r="C73" t="n">
-        <v>41568469858576.85</v>
+        <v>4.748003847779053e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>4.644267852915348</v>
+        <v>4.644267788842598</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5901778931961534</v>
+        <v>0.5901779016664368</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7740446421525581</v>
+        <v>0.7740446314737665</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>1891582025834602</v>
+        <v>0.002160589208802893</v>
       </c>
       <c r="C74" t="n">
-        <v>38383270055642.12</v>
+        <v>4.384186253218312e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>5.541769745773919</v>
+        <v>5.541769686198562</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4764227090077457</v>
+        <v>0.4764227161669313</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9236282909623199</v>
+        <v>0.9236282810330937</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>963623952647438.1</v>
+        <v>0.001100663617122629</v>
       </c>
       <c r="C75" t="n">
-        <v>20700547865805.28</v>
+        <v>2.364443081960588e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>6.000221556010048</v>
+        <v>6.000221364243535</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4231652626805867</v>
+        <v>0.4231652841616518</v>
       </c>
       <c r="F75" t="n">
-        <v>1.000036926001675</v>
+        <v>1.000036894040589</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>515640515427772.6</v>
+        <v>0.0005889711989298056</v>
       </c>
       <c r="C76" t="n">
-        <v>10998129546697.88</v>
+        <v>1.25622043989596e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>2.968146496903942</v>
+        <v>2.96814650725522</v>
       </c>
       <c r="E76" t="n">
-        <v>0.812834042397939</v>
+        <v>0.8128340411057685</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4946910828173237</v>
+        <v>0.4946910845425366</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>433292211926456.8</v>
+        <v>0.0004949119124127311</v>
       </c>
       <c r="C77" t="n">
-        <v>9464225166440.982</v>
+        <v>1.081015916613247e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>13.54876568626149</v>
+        <v>13.54876556678411</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03510357880005998</v>
+        <v>0.03510358036640738</v>
       </c>
       <c r="F77" t="n">
-        <v>2.258127614376914</v>
+        <v>2.258127594464018</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>984080104952418.9</v>
+        <v>0.001124028895820851</v>
       </c>
       <c r="C78" t="n">
-        <v>20745889864796.9</v>
+        <v>2.369622103398668e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>34.73244614301429</v>
+        <v>34.73244606319822</v>
       </c>
       <c r="E78" t="n">
-        <v>4.855572578319793e-06</v>
+        <v>4.855572751057152e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>5.788741023835716</v>
+        <v>5.788741010533037</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>1107482248455704</v>
+        <v>0.001264980404467394</v>
       </c>
       <c r="C79" t="n">
-        <v>23989133114969.23</v>
+        <v>2.740069500004502e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>40.68854649988796</v>
+        <v>40.68854642185733</v>
       </c>
       <c r="E79" t="n">
-        <v>3.334873582717668e-07</v>
+        <v>3.334873700663849e-07</v>
       </c>
       <c r="F79" t="n">
-        <v>6.781424416647994</v>
+        <v>6.781424403642888</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>802319471290851.9</v>
+        <v>0.0009164195736418294</v>
       </c>
       <c r="C80" t="n">
-        <v>17090200068602.85</v>
+        <v>1.95206453419646e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>52.90517494704749</v>
+        <v>52.90517532137535</v>
       </c>
       <c r="E80" t="n">
-        <v>1.226025992642643e-09</v>
+        <v>1.226025779870059e-09</v>
       </c>
       <c r="F80" t="n">
-        <v>8.817529157841248</v>
+        <v>8.817529220229224</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>425622056186243.9</v>
+        <v>0.0004861509621294413</v>
       </c>
       <c r="C81" t="n">
-        <v>9354177022254.379</v>
+        <v>1.068446076666854e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>31.02496732547205</v>
+        <v>31.02496737145836</v>
       </c>
       <c r="E81" t="n">
-        <v>2.507255720133217e-05</v>
+        <v>2.50725566944054e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>5.170827887578676</v>
+        <v>5.17082789524306</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>250461801382543.5</v>
+        <v>0.0002860806766254553</v>
       </c>
       <c r="C82" t="n">
-        <v>5608893432085.578</v>
+        <v>6.406549899496868e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>21.16106824683808</v>
+        <v>21.16106839223744</v>
       </c>
       <c r="E82" t="n">
-        <v>0.001716271382823764</v>
+        <v>0.001716271279440541</v>
       </c>
       <c r="F82" t="n">
-        <v>3.526844707806347</v>
+        <v>3.526844732039573</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>206669283208228.4</v>
+        <v>0.0002360603014213603</v>
       </c>
       <c r="C83" t="n">
-        <v>4638286413223.807</v>
+        <v>5.297910132680781e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>9.501741741845912</v>
+        <v>9.501741809537419</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1472642066646462</v>
+        <v>0.1472642033629004</v>
       </c>
       <c r="F83" t="n">
-        <v>1.583623623640985</v>
+        <v>1.583623634922903</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>107850696445177.3</v>
+        <v>0.0001231884460956845</v>
       </c>
       <c r="C84" t="n">
-        <v>2466974537874.122</v>
+        <v>2.817809904602738e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>7.568960747486181</v>
+        <v>7.568960836330987</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2714125831573092</v>
+        <v>0.2714125759295177</v>
       </c>
       <c r="F84" t="n">
-        <v>1.261493457914364</v>
+        <v>1.261493472721831</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>56907410508177.15</v>
+        <v>6.500037292156053e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1386981323053.168</v>
+        <v>1.584227826179423e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>11.82043687134087</v>
+        <v>11.82043681644328</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06609663317691808</v>
+        <v>0.0660966344768634</v>
       </c>
       <c r="F85" t="n">
-        <v>1.970072811890144</v>
+        <v>1.970072802740547</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>43688193959757.91</v>
+        <v>4.990121451788111e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1067679764456.455</v>
+        <v>1.219517497343572e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>14.26851476619886</v>
+        <v>14.26851477642357</v>
       </c>
       <c r="E86" t="n">
-        <v>0.02677637621010366</v>
+        <v>0.02677637610636991</v>
       </c>
       <c r="F86" t="n">
-        <v>2.378085794366477</v>
+        <v>2.378085796070595</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>35012177055985.45</v>
+        <v>3.999135692308328e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>815945384668.4764</v>
+        <v>9.319832654064399e-07</v>
       </c>
       <c r="D87" t="n">
-        <v>9.675979909270051</v>
+        <v>9.675980059579011</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1389772059952534</v>
+        <v>0.1389771990267029</v>
       </c>
       <c r="F87" t="n">
-        <v>1.612663318211675</v>
+        <v>1.612663343263169</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>32574947964190.08</v>
+        <v>3.720752264964439e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>817455576017.4362</v>
+        <v>9.337082253207708e-07</v>
       </c>
       <c r="D88" t="n">
-        <v>16.09484871044905</v>
+        <v>16.09484875540991</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01325382972164806</v>
+        <v>0.01325382948876578</v>
       </c>
       <c r="F88" t="n">
-        <v>2.682474785074841</v>
+        <v>2.682474792568318</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>44112263721178.73</v>
+        <v>5.038559244915958e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1103704537949.671</v>
+        <v>1.260665455028101e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>12.024632602224</v>
+        <v>12.0246325072514</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06142153200398762</v>
+        <v>0.06142153410537535</v>
       </c>
       <c r="F89" t="n">
-        <v>2.004105433704</v>
+        <v>2.004105417875234</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>79278516420422.98</v>
+        <v>9.055293660477621e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>1965559801108.879</v>
+        <v>2.245087571871538e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>11.78011095178432</v>
+        <v>11.78011131785457</v>
       </c>
       <c r="E90" t="n">
-        <v>0.06705792299667726</v>
+        <v>0.0670579142120246</v>
       </c>
       <c r="F90" t="n">
-        <v>1.963351825297387</v>
+        <v>1.963351886309095</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>88833592293658.55</v>
+        <v>0.000101466866570776</v>
       </c>
       <c r="C91" t="n">
-        <v>2151734945115.707</v>
+        <v>2.457739205150903e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>7.285846207931376</v>
+        <v>7.28584631117436</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2952193629397052</v>
+        <v>0.2952193539736965</v>
       </c>
       <c r="F91" t="n">
-        <v>1.214307701321896</v>
+        <v>1.21430771852906</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>109568678430786.6</v>
+        <v>0.0001251507473821181</v>
       </c>
       <c r="C92" t="n">
-        <v>2594981099170.767</v>
+        <v>2.964020638548351e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>12.98162758934327</v>
+        <v>12.98162780748931</v>
       </c>
       <c r="E92" t="n">
-        <v>0.04332863169499797</v>
+        <v>0.04332862820872804</v>
       </c>
       <c r="F92" t="n">
-        <v>2.163604598223878</v>
+        <v>2.163604634581551</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>165670734356596.1</v>
+        <v>0.000189231234130014</v>
       </c>
       <c r="C93" t="n">
-        <v>3782084739571.666</v>
+        <v>4.319945615425814e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>14.36287416355042</v>
+        <v>14.36287451728365</v>
       </c>
       <c r="E93" t="n">
-        <v>0.02583514611630414</v>
+        <v>0.02583514264749775</v>
       </c>
       <c r="F93" t="n">
-        <v>2.393812360591737</v>
+        <v>2.393812419547275</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>349639946676079.2</v>
+        <v>0.0003993632239775573</v>
       </c>
       <c r="C94" t="n">
-        <v>7878394408689.086</v>
+        <v>8.998802967360657e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>35.48617679228743</v>
+        <v>35.48617679626464</v>
       </c>
       <c r="E94" t="n">
-        <v>3.468657430109738e-06</v>
+        <v>3.468657423945905e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>5.914362798714571</v>
+        <v>5.914362799377439</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>440375815109569.2</v>
+        <v>0.0005030028945808675</v>
       </c>
       <c r="C95" t="n">
-        <v>9515277635490.721</v>
+        <v>1.086847194501191e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>36.13224309880185</v>
+        <v>36.13224313725325</v>
       </c>
       <c r="E95" t="n">
-        <v>2.598189854445151e-06</v>
+        <v>2.598189809718619e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>6.022040516466975</v>
+        <v>6.022040522875542</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>362515073243348.1</v>
+        <v>0.0004140693582334061</v>
       </c>
       <c r="C96" t="n">
-        <v>7801236140693.95</v>
+        <v>8.910671806430318e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>27.39743256411841</v>
+        <v>27.39743246207451</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0001219712365500048</v>
+        <v>0.0001219712419303473</v>
       </c>
       <c r="F96" t="n">
-        <v>4.566238760686402</v>
+        <v>4.566238743679086</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>176000961621720.5</v>
+        <v>0.000201030551995368</v>
       </c>
       <c r="C97" t="n">
-        <v>4146890649624.493</v>
+        <v>4.736631599043604e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>30.93330366431733</v>
+        <v>30.93330369049631</v>
       </c>
       <c r="E97" t="n">
-        <v>2.610344290481518e-05</v>
+        <v>2.610344260448164e-05</v>
       </c>
       <c r="F97" t="n">
-        <v>5.155550610719555</v>
+        <v>5.155550615082718</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>84176821213900.31</v>
+        <v>9.614784300627565e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>2117499884399.963</v>
+        <v>2.418635480692745e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>27.86188984557734</v>
+        <v>27.86188984115345</v>
       </c>
       <c r="E98" t="n">
-        <v>9.975985759367314e-05</v>
+        <v>9.975985778491048e-05</v>
       </c>
       <c r="F98" t="n">
-        <v>4.643648307596223</v>
+        <v>4.643648306858908</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>52552071438799.2</v>
+        <v>6.002564890072407e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1350487529891.262</v>
+        <v>1.542544148596002e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>29.77455192006599</v>
+        <v>29.7745518977524</v>
       </c>
       <c r="E99" t="n">
-        <v>4.338347193348932e-05</v>
+        <v>4.338347235681846e-05</v>
       </c>
       <c r="F99" t="n">
-        <v>4.962425320010999</v>
+        <v>4.962425316292067</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>28529783178102.6</v>
+        <v>3.258708365483478e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>767051310041.5964</v>
+        <v>8.761358285208106e-07</v>
       </c>
       <c r="D100" t="n">
-        <v>23.55654374003022</v>
+        <v>23.55654367323704</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0006299809349506177</v>
+        <v>0.0006299809527169095</v>
       </c>
       <c r="F100" t="n">
-        <v>3.92609062333837</v>
+        <v>3.926090612206173</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>18287745167012.46</v>
+        <v>2.088849669583941e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>484835243781.3685</v>
+        <v>5.537850227656172e-07</v>
       </c>
       <c r="D101" t="n">
-        <v>8.93135025295973</v>
+        <v>8.931350404733477</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1774758547962786</v>
+        <v>0.1774758460968075</v>
       </c>
       <c r="F101" t="n">
-        <v>1.488558375493288</v>
+        <v>1.488558400788913</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>12885214079302.65</v>
+        <v>1.471765650113569e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>387136715688.431</v>
+        <v>4.421925138018052e-07</v>
       </c>
       <c r="D102" t="n">
-        <v>16.0503478204847</v>
+        <v>16.0503476302153</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01348626674326791</v>
+        <v>0.01348626774540965</v>
       </c>
       <c r="F102" t="n">
-        <v>2.675057970080784</v>
+        <v>2.675057938369216</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>12552514914084.89</v>
+        <v>1.433764325283194e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>406328438201.5082</v>
+        <v>4.641135447619939e-07</v>
       </c>
       <c r="D103" t="n">
-        <v>22.67288543495609</v>
+        <v>22.67288557482603</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0009137759436059199</v>
+        <v>0.0009137758899937399</v>
       </c>
       <c r="F103" t="n">
-        <v>3.778814239159348</v>
+        <v>3.778814262471005</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>14960408538128.39</v>
+        <v>1.708797019214154e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>405645246645.9761</v>
+        <v>4.633331943875589e-07</v>
       </c>
       <c r="D104" t="n">
-        <v>23.69557967556621</v>
+        <v>23.69557964529858</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0005940461768729876</v>
+        <v>0.0005940461844721093</v>
       </c>
       <c r="F104" t="n">
-        <v>3.949263279261035</v>
+        <v>3.94926327421643</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>26869364923129.59</v>
+        <v>3.069053264599164e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>741343359974.6925</v>
+        <v>8.467718778675024e-07</v>
       </c>
       <c r="D105" t="n">
-        <v>3.06808464330029</v>
+        <v>3.068084605205813</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8002542732834154</v>
+        <v>0.8002542781167915</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5113474405500483</v>
+        <v>0.5113474342009688</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>38664387142443.35</v>
+        <v>4.416295805945717e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>931543400689.1847</v>
+        <v>1.064020799898615e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>2.942363216323453</v>
+        <v>2.942363222293919</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8160453377754823</v>
+        <v>0.8160453370335662</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4903938693872421</v>
+        <v>0.4903938703823199</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>48681186118588.4</v>
+        <v>5.5604274101418e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1188941419295.786</v>
+        <v>1.358024112792164e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>3.618983832614776</v>
+        <v>3.618983888245843</v>
       </c>
       <c r="E107" t="n">
-        <v>0.728077983424005</v>
+        <v>0.7280779759677913</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6031639721024628</v>
+        <v>0.6031639813743072</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>50288472797261.11</v>
+        <v>5.744013753976281e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1109212313375.294</v>
+        <v>1.26695650744478e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>1.466947316322595</v>
+        <v>1.466947315975009</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9616598223195312</v>
+        <v>0.9616598223419818</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2444912193870992</v>
+        <v>0.2444912193291682</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>51605457462813.84</v>
+        <v>5.894441428341215e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1223449187178.255</v>
+        <v>1.397439326075319e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>5.516567885610042</v>
+        <v>5.51656789210204</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4794565165699507</v>
+        <v>0.4794565157870825</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9194279809350071</v>
+        <v>0.9194279820170067</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>49750777651442.26</v>
+        <v>5.682597524488645e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1106710810260.833</v>
+        <v>1.264099257325467e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>6.727282349620582</v>
+        <v>6.727282306571241</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3468059065994561</v>
+        <v>0.3468059108136551</v>
       </c>
       <c r="F110" t="n">
-        <v>1.121213724936764</v>
+        <v>1.121213717761874</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>51214914866326.27</v>
+        <v>5.849833151799799e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1142460323933.266</v>
+        <v>1.304932810279924e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>8.473333962504361</v>
+        <v>8.473334028271218</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2054347721147694</v>
+        <v>0.2054347678486338</v>
       </c>
       <c r="F111" t="n">
-        <v>1.41222232708406</v>
+        <v>1.412222338045203</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>52540278692101.34</v>
+        <v>6.001217906051153e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>1251032622192.946</v>
+        <v>1.428945480072506e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>14.07005374378598</v>
+        <v>14.07005365854722</v>
       </c>
       <c r="E112" t="n">
-        <v>0.02886333925867795</v>
+        <v>0.02886334018729219</v>
       </c>
       <c r="F112" t="n">
-        <v>2.345008957297664</v>
+        <v>2.345008943091203</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>55164699991110.51</v>
+        <v>6.300982665914819e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1229583261931.385</v>
+        <v>1.404445744780653e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>4.942748911171047</v>
+        <v>4.942748887515485</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5511767506663541</v>
+        <v>0.5511767537173815</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8237914851951745</v>
+        <v>0.8237914812525808</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>57966128413436.93</v>
+        <v>6.620965407872914e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>1281634188906.244</v>
+        <v>1.463898980144404e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>10.23333778383911</v>
+        <v>10.23333779894193</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1151633744940031</v>
+        <v>0.1151633739013078</v>
       </c>
       <c r="F114" t="n">
-        <v>1.705556297306518</v>
+        <v>1.705556299823654</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>61807948876165.81</v>
+        <v>7.059783060625267e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>1368770186508.214</v>
+        <v>1.563426832901694e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>6.749777488092048</v>
+        <v>6.749777512608427</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3446088269322193</v>
+        <v>0.3446088245431997</v>
       </c>
       <c r="F115" t="n">
-        <v>1.124962914682008</v>
+        <v>1.124962918768071</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>62862546853073.57</v>
+        <v>7.180240590720038e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>1404181682438.482</v>
+        <v>1.603874296348404e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>12.31741225121184</v>
+        <v>12.31741225354199</v>
       </c>
       <c r="E116" t="n">
-        <v>0.05525096744002148</v>
+        <v>0.05525096739328994</v>
       </c>
       <c r="F116" t="n">
-        <v>2.052902041868641</v>
+        <v>2.052902042256999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>64406783181992.27</v>
+        <v>7.356625243232891e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>1510508887079.666</v>
+        <v>1.725322591111625e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>16.72236699129706</v>
+        <v>16.72236697835691</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01035961237911014</v>
+        <v>0.01035961243197886</v>
       </c>
       <c r="F117" t="n">
-        <v>2.787061165216176</v>
+        <v>2.787061163059485</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>62976474469206.78</v>
+        <v>7.193253549762174e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1354148339926.804</v>
+        <v>1.546725572393221e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>15.19209539630915</v>
+        <v>15.19209533144409</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0188141257444737</v>
+        <v>0.01881412621458924</v>
       </c>
       <c r="F118" t="n">
-        <v>2.532015899384858</v>
+        <v>2.532015888574015</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>62491481011474.24</v>
+        <v>7.137856974452359e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1403637546391.79</v>
+        <v>1.603252777027049e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>14.32520730095439</v>
+        <v>14.32520730186514</v>
       </c>
       <c r="E119" t="n">
-        <v>0.02620703800316917</v>
+        <v>0.02620703799411593</v>
       </c>
       <c r="F119" t="n">
-        <v>2.387534550159065</v>
+        <v>2.387534550310857</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>52161925830692.47</v>
+        <v>5.95800195844239e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1172138580736.246</v>
+        <v>1.338831694910966e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>10.45882907731627</v>
+        <v>10.45882905024181</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1066125573640392</v>
+        <v>0.1066125583555562</v>
       </c>
       <c r="F120" t="n">
-        <v>1.743138179552711</v>
+        <v>1.743138175040301</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>51225454367331.66</v>
+        <v>5.851036988404265e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>1242228364648.411</v>
+        <v>1.418889144038358e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>19.78434085154517</v>
+        <v>19.78434082650125</v>
       </c>
       <c r="E121" t="n">
-        <v>0.003025026027665634</v>
+        <v>0.003025026058647705</v>
       </c>
       <c r="F121" t="n">
-        <v>3.297390141924195</v>
+        <v>3.297390137750208</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>40843423997606.46</v>
+        <v>4.665188185948616e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>941513028631.4349</v>
+        <v>1.075408236919364e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>14.84306871165722</v>
+        <v>14.84306857735572</v>
       </c>
       <c r="E122" t="n">
-        <v>0.02151304059557193</v>
+        <v>0.02151304170188208</v>
       </c>
       <c r="F122" t="n">
-        <v>2.473844785276204</v>
+        <v>2.473844762892619</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>32475532425393.75</v>
+        <v>3.70939689652145e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>749400793579.4423</v>
+        <v>8.559751823934976e-07</v>
       </c>
       <c r="D123" t="n">
-        <v>6.355190697946648</v>
+        <v>6.355190836685299</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3845992682633986</v>
+        <v>0.3845992536644182</v>
       </c>
       <c r="F123" t="n">
-        <v>1.059198449657775</v>
+        <v>1.059198472780883</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>34869781041421.28</v>
+        <v>3.982871036991521e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>917509680899.1104</v>
+        <v>1.047991305283955e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>10.63821924863066</v>
+        <v>10.63821917294028</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1002222053213303</v>
+        <v>0.1002222079431249</v>
       </c>
       <c r="F124" t="n">
-        <v>1.773036541438444</v>
+        <v>1.77303652882338</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>44343169414497.61</v>
+        <v>5.064933587323685e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>1036517893381.798</v>
+        <v>1.183924009422922e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>21.77840293297894</v>
+        <v>21.77840313421547</v>
       </c>
       <c r="E125" t="n">
-        <v>0.001328057440609465</v>
+        <v>0.001328057329303417</v>
       </c>
       <c r="F125" t="n">
-        <v>3.629733822163157</v>
+        <v>3.629733855702578</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>60133528742913.86</v>
+        <v>6.868528648583558e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1353155191587.268</v>
+        <v>1.545591185845637e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>16.28727650895183</v>
+        <v>16.28727654711975</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01229234184955653</v>
+        <v>0.0122923416656749</v>
       </c>
       <c r="F126" t="n">
-        <v>2.714546084825305</v>
+        <v>2.714546091186625</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>57571654910499.81</v>
+        <v>6.575908140725713e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>1293814437577.12</v>
+        <v>1.477811416320493e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>9.640321623360911</v>
+        <v>9.640321662849903</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1406390456987361</v>
+        <v>0.1406390438487442</v>
       </c>
       <c r="F127" t="n">
-        <v>1.606720270560152</v>
+        <v>1.60672027714165</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>93720376400360.56</v>
+        <v>0.0001070486138941183</v>
       </c>
       <c r="C128" t="n">
-        <v>2084872449776.766</v>
+        <v>2.381368007394073e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>20.93506690893236</v>
+        <v>20.93506640435089</v>
       </c>
       <c r="E128" t="n">
-        <v>0.001884551608746799</v>
+        <v>0.001884552001905633</v>
       </c>
       <c r="F128" t="n">
-        <v>3.489177818155393</v>
+        <v>3.489177734058483</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>171369561156601.7</v>
+        <v>0.0001957405071399483</v>
       </c>
       <c r="C129" t="n">
-        <v>3818431537280.58</v>
+        <v>4.361461390805315e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>15.79792462966022</v>
+        <v>15.79792445954447</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01488067937695247</v>
+        <v>0.01488068036175434</v>
       </c>
       <c r="F129" t="n">
-        <v>2.632987438276702</v>
+        <v>2.632987409924079</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>187474878820471.2</v>
+        <v>0.0002141362072472039</v>
       </c>
       <c r="C130" t="n">
-        <v>4247030147150.412</v>
+        <v>4.851012212581849e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>16.46895842325674</v>
+        <v>16.46895846854885</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01144640587560749</v>
+        <v>0.01144640567188176</v>
       </c>
       <c r="F130" t="n">
-        <v>2.744826403876124</v>
+        <v>2.744826411424808</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>199087007431515.2</v>
+        <v>0.0002273997290285526</v>
       </c>
       <c r="C131" t="n">
-        <v>4621216010999.331</v>
+        <v>5.278412098695783e-06</v>
       </c>
       <c r="D131" t="n">
-        <v>20.44829679699218</v>
+        <v>20.448296893512</v>
       </c>
       <c r="E131" t="n">
-        <v>0.002303664610196684</v>
+        <v>0.002303664518675936</v>
       </c>
       <c r="F131" t="n">
-        <v>3.408049466165364</v>
+        <v>3.408049482252</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>226430617751528.9</v>
+        <v>0.0002586319508864519</v>
       </c>
       <c r="C132" t="n">
-        <v>4975065512589.002</v>
+        <v>5.682583527878597e-06</v>
       </c>
       <c r="D132" t="n">
-        <v>22.8598718220668</v>
+        <v>22.85987184420126</v>
       </c>
       <c r="E132" t="n">
-        <v>0.000844795395937743</v>
+        <v>0.0008447953880828833</v>
       </c>
       <c r="F132" t="n">
-        <v>3.809978637011133</v>
+        <v>3.80997864070021</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>257428819164602.4</v>
+        <v>0.0002940384934358356</v>
       </c>
       <c r="C133" t="n">
-        <v>5553209328092.375</v>
+        <v>6.342946794925095e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>18.43671294031877</v>
+        <v>18.43671305478026</v>
       </c>
       <c r="E133" t="n">
-        <v>0.005228658566223465</v>
+        <v>0.005228658324996964</v>
       </c>
       <c r="F133" t="n">
-        <v>3.072785490053129</v>
+        <v>3.072785509130043</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>270778997419497.9</v>
+        <v>0.0003092872380505503</v>
       </c>
       <c r="C134" t="n">
-        <v>5827500926492.566</v>
+        <v>6.656246175828631e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>21.85201841389907</v>
+        <v>21.85201822357139</v>
       </c>
       <c r="E134" t="n">
-        <v>0.001287945735586381</v>
+        <v>0.001287945837741371</v>
       </c>
       <c r="F134" t="n">
-        <v>3.642003068983179</v>
+        <v>3.642003037261899</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>263332150855079.8</v>
+        <v>0.0003007813546785937</v>
       </c>
       <c r="C135" t="n">
-        <v>5820775619333.016</v>
+        <v>6.648564445445713e-06</v>
       </c>
       <c r="D135" t="n">
-        <v>27.13402534518659</v>
+        <v>27.1340253860948</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0001366702856577797</v>
+        <v>0.000136670283244319</v>
       </c>
       <c r="F135" t="n">
-        <v>4.522337557531098</v>
+        <v>4.522337564349133</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>239328320428812.8</v>
+        <v>0.0002733638720351453</v>
       </c>
       <c r="C136" t="n">
-        <v>5254749654931.478</v>
+        <v>6.002042348664372e-06</v>
       </c>
       <c r="D136" t="n">
-        <v>23.12148525913864</v>
+        <v>23.12148512924933</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0007567943615430318</v>
+        <v>0.0007567944029161417</v>
       </c>
       <c r="F136" t="n">
-        <v>3.853580876523107</v>
+        <v>3.853580854874889</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>192715081729203.6</v>
+        <v>0.0002201216338402711</v>
       </c>
       <c r="C137" t="n">
-        <v>4384633121197.738</v>
+        <v>5.008184091302893e-06</v>
       </c>
       <c r="D137" t="n">
-        <v>34.10715981242056</v>
+        <v>34.10715994528865</v>
       </c>
       <c r="E137" t="n">
-        <v>6.414332225445362e-06</v>
+        <v>6.41433184637822e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>5.684526635403427</v>
+        <v>5.684526657548108</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>135704040196706.2</v>
+        <v>0.0001550028923714765</v>
       </c>
       <c r="C138" t="n">
-        <v>3079597402618.614</v>
+        <v>3.517555583491223e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>40.20853875176601</v>
+        <v>40.20853857075855</v>
       </c>
       <c r="E138" t="n">
-        <v>4.144874539959903e-07</v>
+        <v>4.144874879616324e-07</v>
       </c>
       <c r="F138" t="n">
-        <v>6.701423125294334</v>
+        <v>6.701423095126425</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>92267126238709.28</v>
+        <v>0.0001053886931345658</v>
       </c>
       <c r="C139" t="n">
-        <v>2176706272147.619</v>
+        <v>2.486261774952258e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>23.34680203492221</v>
+        <v>23.34680271019023</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0006882691040790974</v>
+        <v>0.000688268908141719</v>
       </c>
       <c r="F139" t="n">
-        <v>3.891133672487034</v>
+        <v>3.891133785031704</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>75972440851552.67</v>
+        <v>8.677669469968032e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>1937755854070.806</v>
+        <v>2.213329547886712e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>26.2573353097751</v>
+        <v>26.2573353974676</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0001993584686162681</v>
+        <v>0.0001993584611063389</v>
       </c>
       <c r="F140" t="n">
-        <v>4.376222551629183</v>
+        <v>4.3762225662446</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>61390222175208.01</v>
+        <v>7.012069781918701e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>1480889272335.296</v>
+        <v>1.691490688399419e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>25.83189908796682</v>
+        <v>25.83189906696283</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0002392802999074506</v>
+        <v>0.0002392803020610703</v>
       </c>
       <c r="F141" t="n">
-        <v>4.305316514661137</v>
+        <v>4.305316511160471</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>52068748163299.99</v>
+        <v>5.947359085101448e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>1350366170887.71</v>
+        <v>1.542405530179501e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>29.1294761073957</v>
+        <v>29.12947612370494</v>
       </c>
       <c r="E142" t="n">
-        <v>5.749859744639884e-05</v>
+        <v>5.74985970375207e-05</v>
       </c>
       <c r="F142" t="n">
-        <v>4.85491268456595</v>
+        <v>4.854912687284157</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>58119861740816.3</v>
+        <v>6.638525024251087e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>1517203832760.165</v>
+        <v>1.732969644317908e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>23.14276510006122</v>
+        <v>23.14276516003864</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0007500459171652856</v>
+        <v>0.0007500458982283045</v>
       </c>
       <c r="F143" t="n">
-        <v>3.857127516676869</v>
+        <v>3.857127526673107</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>214780835100848.4</v>
+        <v>0.0002453254198474848</v>
       </c>
       <c r="C144" t="n">
-        <v>4966030307402.121</v>
+        <v>5.672263399080761e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>33.80685638858223</v>
+        <v>33.80685654509996</v>
       </c>
       <c r="E144" t="n">
-        <v>7.330432807508389e-06</v>
+        <v>7.330432297722802e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>5.634476064763704</v>
+        <v>5.634476090849994</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>407821483072478.4</v>
+        <v>0.000465818919601236</v>
       </c>
       <c r="C145" t="n">
-        <v>8468570190929.983</v>
+        <v>9.672909302760485e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>43.33371806394889</v>
+        <v>43.33371830243335</v>
       </c>
       <c r="E145" t="n">
-        <v>1.001843383816811e-07</v>
+        <v>1.001843274874979e-07</v>
       </c>
       <c r="F145" t="n">
-        <v>7.222286343991482</v>
+        <v>7.222286383738893</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>453835836612672.5</v>
+        <v>0.0005183771035610026</v>
       </c>
       <c r="C146" t="n">
-        <v>9620155787996.408</v>
+        <v>1.098826511706895e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>42.66320073366195</v>
+        <v>42.66320060229288</v>
       </c>
       <c r="E146" t="n">
-        <v>1.359826029737832e-07</v>
+        <v>1.359826111073995e-07</v>
       </c>
       <c r="F146" t="n">
-        <v>7.110533455610326</v>
+        <v>7.110533433715481</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>476786560680841.2</v>
+        <v>0.0005445917143907304</v>
       </c>
       <c r="C147" t="n">
-        <v>10219879474099.75</v>
+        <v>1.167327718890806e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>38.66921754612638</v>
+        <v>38.66921773180876</v>
       </c>
       <c r="E147" t="n">
-        <v>8.309536067726637e-07</v>
+        <v>8.309535371953639e-07</v>
       </c>
       <c r="F147" t="n">
-        <v>6.444869591021064</v>
+        <v>6.444869621968127</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>467019531196831</v>
+        <v>0.0005334356882059737</v>
       </c>
       <c r="C148" t="n">
-        <v>10006954863640.82</v>
+        <v>1.143007197452433e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>40.44254377031485</v>
+        <v>40.44254375525257</v>
       </c>
       <c r="E148" t="n">
-        <v>3.728115190540931e-07</v>
+        <v>3.728115215977634e-07</v>
       </c>
       <c r="F148" t="n">
-        <v>6.740423961719141</v>
+        <v>6.740423959208762</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>465710494065961.1</v>
+        <v>0.0005319404895287058</v>
       </c>
       <c r="C149" t="n">
-        <v>9953947711955.453</v>
+        <v>1.136952653093278e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>34.1409962863163</v>
+        <v>34.14099618793809</v>
       </c>
       <c r="E149" t="n">
-        <v>6.318515445496242e-06</v>
+        <v>6.318515722004564e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>5.690166047719384</v>
+        <v>5.690166031323014</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>575040911049689.1</v>
+        <v>0.0006568190911971688</v>
       </c>
       <c r="C150" t="n">
-        <v>12172875152674.68</v>
+        <v>1.390401386248194e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>40.25429967168466</v>
+        <v>40.25429962914981</v>
       </c>
       <c r="E150" t="n">
-        <v>4.059883836302119e-07</v>
+        <v>4.059883914489989e-07</v>
       </c>
       <c r="F150" t="n">
-        <v>6.709049945280776</v>
+        <v>6.709049938191634</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>600093004339850.9</v>
+        <v>0.0006854339132301826</v>
       </c>
       <c r="C151" t="n">
-        <v>12576465855998.3</v>
+        <v>1.436500033192262e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>36.21432331821185</v>
+        <v>36.21432348644752</v>
       </c>
       <c r="E151" t="n">
-        <v>2.50443588548683e-06</v>
+        <v>2.50443569681006e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>6.035720553035309</v>
+        <v>6.035720581074586</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>600695725814940.5</v>
+        <v>0.000686122349240837</v>
       </c>
       <c r="C152" t="n">
-        <v>12663226168039.05</v>
+        <v>1.44640990710905e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>33.22413830287952</v>
+        <v>33.22413833589453</v>
       </c>
       <c r="E152" t="n">
-        <v>9.494206321434583e-06</v>
+        <v>9.494206182449256e-06</v>
       </c>
       <c r="F152" t="n">
-        <v>5.537356383813253</v>
+        <v>5.537356389315755</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>607847473227611.1</v>
+        <v>0.0006942911668936306</v>
       </c>
       <c r="C153" t="n">
-        <v>12733812716756.33</v>
+        <v>1.454472393205108e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>50.05089222041069</v>
+        <v>50.05089215321311</v>
       </c>
       <c r="E153" t="n">
-        <v>4.591916008066189e-09</v>
+        <v>4.591916150510181e-09</v>
       </c>
       <c r="F153" t="n">
-        <v>8.341815370068447</v>
+        <v>8.341815358868852</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>615976419168370.6</v>
+        <v>0.0007035761529510761</v>
       </c>
       <c r="C154" t="n">
-        <v>12974803540419.81</v>
+        <v>1.481998673110436e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>42.86866870845073</v>
+        <v>42.86866887125579</v>
       </c>
       <c r="E154" t="n">
-        <v>1.238355354237787e-07</v>
+        <v>1.238355262401403e-07</v>
       </c>
       <c r="F154" t="n">
-        <v>7.144778118075121</v>
+        <v>7.144778145209298</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>607812180544329.6</v>
+        <v>0.0006942508549231804</v>
       </c>
       <c r="C155" t="n">
-        <v>12764158917767.84</v>
+        <v>1.457938574659743e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>34.93599997377877</v>
+        <v>34.93599994224257</v>
       </c>
       <c r="E155" t="n">
-        <v>4.434301399754245e-06</v>
+        <v>4.434301462124818e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>5.822666662296462</v>
+        <v>5.822666657040428</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>595716463776183.6</v>
+        <v>0.0006804349725821513</v>
       </c>
       <c r="C156" t="n">
-        <v>12390785339257.66</v>
+        <v>1.4152913661433e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>33.50690365772986</v>
+        <v>33.50690388292561</v>
       </c>
       <c r="E156" t="n">
-        <v>8.37490050644795e-06</v>
+        <v>8.374899669348417e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>5.584483942954976</v>
+        <v>5.584483980487602</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>497744879250208.3</v>
+        <v>0.0005685305743042315</v>
       </c>
       <c r="C157" t="n">
-        <v>10285302011735.45</v>
+        <v>1.174800364942944e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>38.99953253156685</v>
+        <v>38.99953255279002</v>
       </c>
       <c r="E157" t="n">
-        <v>7.159111899858482e-07</v>
+        <v>7.159111831283103e-07</v>
       </c>
       <c r="F157" t="n">
-        <v>6.499922088594475</v>
+        <v>6.49992209213167</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>366235855900843</v>
+        <v>0.000418319283906827</v>
       </c>
       <c r="C158" t="n">
-        <v>7906661208012.848</v>
+        <v>9.031089665022835e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>33.98623615015669</v>
+        <v>33.98623640546867</v>
       </c>
       <c r="E158" t="n">
-        <v>6.768693159614141e-06</v>
+        <v>6.768692391298086e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>5.664372691692782</v>
+        <v>5.664372734244778</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>267053612505632.5</v>
+        <v>0.0003050320556283494</v>
       </c>
       <c r="C159" t="n">
-        <v>5666705427035.526</v>
+        <v>6.472583496333757e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>28.2167049827083</v>
+        <v>28.21670524599702</v>
       </c>
       <c r="E159" t="n">
-        <v>8.553090002085827e-05</v>
+        <v>8.553089024521822e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>4.702784163784718</v>
+        <v>4.702784207666171</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>279940713272318.4</v>
+        <v>0.0003197518673630845</v>
       </c>
       <c r="C160" t="n">
-        <v>6163052092103.005</v>
+        <v>7.039517016766824e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>43.70927285885519</v>
+        <v>43.70927272998212</v>
       </c>
       <c r="E160" t="n">
-        <v>8.441143573606744e-08</v>
+        <v>8.4411440700177e-08</v>
       </c>
       <c r="F160" t="n">
-        <v>7.284878809809197</v>
+        <v>7.284878788330353</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>214706679095678.8</v>
+        <v>0.0002452407180773655</v>
       </c>
       <c r="C161" t="n">
-        <v>4626441025659.688</v>
+        <v>5.284380172471922e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>39.33839086409415</v>
+        <v>39.33839081383967</v>
       </c>
       <c r="E161" t="n">
-        <v>6.143409851278381e-07</v>
+        <v>6.143409990743308e-07</v>
       </c>
       <c r="F161" t="n">
-        <v>6.556398477349025</v>
+        <v>6.556398468973278</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>214895541127585</v>
+        <v>0.0002454564387095172</v>
       </c>
       <c r="C162" t="n">
-        <v>4661951413742.707</v>
+        <v>5.324940597413423e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>31.05416834706536</v>
+        <v>31.05416788259363</v>
       </c>
       <c r="E162" t="n">
-        <v>2.475270026434562e-05</v>
+        <v>2.475270531970659e-05</v>
       </c>
       <c r="F162" t="n">
-        <v>5.175694724510893</v>
+        <v>5.175694647098939</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>207124370176857.4</v>
+        <v>0.0002365801076368634</v>
       </c>
       <c r="C163" t="n">
-        <v>4460801431342.068</v>
+        <v>5.095184510890913e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>38.97285061135357</v>
+        <v>38.97285051782029</v>
       </c>
       <c r="E163" t="n">
-        <v>7.24584350127806e-07</v>
+        <v>7.245843807138661e-07</v>
       </c>
       <c r="F163" t="n">
-        <v>6.495475101892262</v>
+        <v>6.495475086303382</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>190268492344700.9</v>
+        <v>0.0002173271082574495</v>
       </c>
       <c r="C164" t="n">
-        <v>4127056804328.695</v>
+        <v>4.71397712898876e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>27.60560341820374</v>
+        <v>27.60560379418757</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0001114691498508497</v>
+        <v>0.0001114691317139514</v>
       </c>
       <c r="F164" t="n">
-        <v>4.600933903033956</v>
+        <v>4.600933965697927</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>176809117779217.5</v>
+        <v>0.0002019536382479551</v>
       </c>
       <c r="C165" t="n">
-        <v>3914685141479.485</v>
+        <v>4.471403491728633e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>25.88002742641869</v>
+        <v>25.88002743141472</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0002343953669413475</v>
+        <v>0.0002343953664394002</v>
       </c>
       <c r="F165" t="n">
-        <v>4.313337904403114</v>
+        <v>4.313337905235787</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>169926239932312.3</v>
+        <v>0.0001940919271330771</v>
       </c>
       <c r="C166" t="n">
-        <v>3930440132661.297</v>
+        <v>4.489399040526383e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>33.96939961868725</v>
+        <v>33.96939976732508</v>
       </c>
       <c r="E166" t="n">
-        <v>6.819548339457625e-06</v>
+        <v>6.819547888823888e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>5.661566603114541</v>
+        <v>5.661566627887513</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>161872974606922.9</v>
+        <v>0.0001848933842835439</v>
       </c>
       <c r="C167" t="n">
-        <v>3525662355807.329</v>
+        <v>4.027056681579245e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>34.42644617701942</v>
+        <v>34.42644601674278</v>
       </c>
       <c r="E167" t="n">
-        <v>5.564716713518938e-06</v>
+        <v>5.564717110643598e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>5.737741029503237</v>
+        <v>5.737741002790464</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>136029377467589.7</v>
+        <v>0.0001553744966058897</v>
       </c>
       <c r="C168" t="n">
-        <v>2997269271213.288</v>
+        <v>3.423519338897061e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>28.08656866321561</v>
+        <v>28.08656860254546</v>
       </c>
       <c r="E168" t="n">
-        <v>9.050015394547977e-05</v>
+        <v>9.050015632742387e-05</v>
       </c>
       <c r="F168" t="n">
-        <v>4.681094777202602</v>
+        <v>4.681094767090911</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>123046666248858.4</v>
+        <v>0.000140545477716342</v>
       </c>
       <c r="C169" t="n">
-        <v>2680631652180.026</v>
+        <v>3.061851795567089e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>30.48635188027558</v>
+        <v>30.48635191727509</v>
       </c>
       <c r="E169" t="n">
-        <v>3.176344799082789e-05</v>
+        <v>3.176344747529103e-05</v>
       </c>
       <c r="F169" t="n">
-        <v>5.081058646712596</v>
+        <v>5.081058652879181</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>78890189499810.84</v>
+        <v>9.010938451685468e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>1966846538312.488</v>
+        <v>2.246557299801839e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>30.06732958836279</v>
+        <v>30.06732922296379</v>
       </c>
       <c r="E170" t="n">
-        <v>3.816664719068615e-05</v>
+        <v>3.816665329728599e-05</v>
       </c>
       <c r="F170" t="n">
-        <v>5.011221598060465</v>
+        <v>5.011221537160631</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>58018437645808.61</v>
+        <v>6.626940236435312e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>1385643639241.075</v>
+        <v>1.582699907036194e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>32.03619460501305</v>
+        <v>32.03619454935408</v>
       </c>
       <c r="E171" t="n">
-        <v>1.605897092889095e-05</v>
+        <v>1.605897132346252e-05</v>
       </c>
       <c r="F171" t="n">
-        <v>5.339365767502176</v>
+        <v>5.339365758225679</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>64010186307940.52</v>
+        <v>7.31132544100708e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1580665725222.455</v>
+        <v>1.805456631117451e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>34.14748469841093</v>
+        <v>34.14748460454244</v>
       </c>
       <c r="E172" t="n">
-        <v>6.300304777122958e-06</v>
+        <v>6.300305040201362e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>5.691247449735155</v>
+        <v>5.691247434090407</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>85400318064350.77</v>
+        <v>9.754533674009223e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>2266158754965.787</v>
+        <v>2.588435546684256e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>18.07602835562823</v>
+        <v>18.07602827596792</v>
       </c>
       <c r="E173" t="n">
-        <v>0.006044978983694803</v>
+        <v>0.00604497917696654</v>
       </c>
       <c r="F173" t="n">
-        <v>3.012671392604705</v>
+        <v>3.012671379327986</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>110627085621089.4</v>
+        <v>0.0001263596738411419</v>
       </c>
       <c r="C174" t="n">
-        <v>2587135384112.251</v>
+        <v>2.955059161389032e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>29.36782529092209</v>
+        <v>29.36782572068124</v>
       </c>
       <c r="E174" t="n">
-        <v>5.182013638978827e-05</v>
+        <v>5.182012666888878e-05</v>
       </c>
       <c r="F174" t="n">
-        <v>4.894637548487014</v>
+        <v>4.89463762011354</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>122113370995325.4</v>
+        <v>0.0001394794558210476</v>
       </c>
       <c r="C175" t="n">
-        <v>3193854190517.38</v>
+        <v>3.648061152533539e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>22.37343996469971</v>
+        <v>22.37344018170966</v>
       </c>
       <c r="E175" t="n">
-        <v>0.001035922660698038</v>
+        <v>0.001035922566618668</v>
       </c>
       <c r="F175" t="n">
-        <v>3.728906660783286</v>
+        <v>3.72890669695161</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>168922408180245.2</v>
+        <v>0.000192945337448518</v>
       </c>
       <c r="C176" t="n">
-        <v>4599404115168.846</v>
+        <v>5.253498264783793e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>22.33824869442956</v>
+        <v>22.33824882802071</v>
       </c>
       <c r="E176" t="n">
-        <v>0.001051289724220944</v>
+        <v>0.001051289665462963</v>
       </c>
       <c r="F176" t="n">
-        <v>3.723041449071593</v>
+        <v>3.723041471336785</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>251454968276679.8</v>
+        <v>0.0002872150843643408</v>
       </c>
       <c r="C177" t="n">
-        <v>6259684375847.705</v>
+        <v>7.149891646968395e-06</v>
       </c>
       <c r="D177" t="n">
-        <v>25.12096308005788</v>
+        <v>25.12096312997803</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0003242856696840648</v>
+        <v>0.0003242856627772056</v>
       </c>
       <c r="F177" t="n">
-        <v>4.186827180009647</v>
+        <v>4.186827188329672</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>298782637424465.8</v>
+        <v>0.0003412733542513979</v>
       </c>
       <c r="C178" t="n">
-        <v>7657287727945.952</v>
+        <v>8.746252085770983e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>22.94190939492131</v>
+        <v>22.94190923831431</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0008161699257662853</v>
+        <v>0.0008161699794914802</v>
       </c>
       <c r="F178" t="n">
-        <v>3.823651565820219</v>
+        <v>3.823651539719052</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>366072445592870.7</v>
+        <v>0.000418132634451354</v>
       </c>
       <c r="C179" t="n">
-        <v>8987573809694.1</v>
+        <v>1.026572188430363e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>28.69915324290144</v>
+        <v>28.69915335197145</v>
       </c>
       <c r="E179" t="n">
-        <v>6.935219998846879e-05</v>
+        <v>6.935219669706189e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>4.783192207150241</v>
+        <v>4.783192225328575</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>492366135227153.1</v>
+        <v>0.0005561997288203852</v>
       </c>
       <c r="C180" t="n">
-        <v>11554548152705.02</v>
+        <v>8.860588387212016e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>48.76191103839719</v>
+        <v>97.77447708501516</v>
       </c>
       <c r="E180" t="n">
-        <v>8.320417915442576e-09</v>
+        <v>4.472240255141405e-15</v>
       </c>
       <c r="F180" t="n">
-        <v>8.126985173066199</v>
+        <v>7.521113621924243</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>482504098145981.1</v>
+        <v>0.0008350722239527776</v>
       </c>
       <c r="C181" t="n">
-        <v>10467094813225.95</v>
+        <v>1.907884019245718e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>48.61243164175493</v>
+        <v>33.74380866977424</v>
       </c>
       <c r="E181" t="n">
-        <v>8.913466569904832e-09</v>
+        <v>7.538662299782908e-06</v>
       </c>
       <c r="F181" t="n">
-        <v>8.102071940292488</v>
+        <v>5.62396811162904</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>731100388062237.1</v>
+        <v>0.00107027691359541</v>
       </c>
       <c r="C182" t="n">
-        <v>16703402488203.2</v>
+        <v>2.422594561228349e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>33.74380909453541</v>
+        <v>35.13961318583254</v>
       </c>
       <c r="E182" t="n">
-        <v>7.538660877329548e-06</v>
+        <v>4.049228718933941e-06</v>
       </c>
       <c r="F182" t="n">
-        <v>5.623968182422569</v>
+        <v>5.856602197638757</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>937020587757376</v>
+        <v>0.001397147454443584</v>
       </c>
       <c r="C183" t="n">
-        <v>21209660345818.83</v>
+        <v>2.916413885209433e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>35.13961372541249</v>
+        <v>38.10091427105844</v>
       </c>
       <c r="E183" t="n">
-        <v>4.049227743810347e-06</v>
+        <v>1.073467961686299e-06</v>
       </c>
       <c r="F183" t="n">
-        <v>5.856602287568748</v>
+        <v>6.35015237850974</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>1223193654543188</v>
+        <v>0.001633001390827575</v>
       </c>
       <c r="C184" t="n">
-        <v>25533016914706.79</v>
+        <v>3.393200577108488e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>38.10091443839182</v>
+        <v>54.33989898983685</v>
       </c>
       <c r="E184" t="n">
-        <v>1.073467880809311e-06</v>
+        <v>6.299846105890897e-10</v>
       </c>
       <c r="F184" t="n">
-        <v>6.350152406398636</v>
+        <v>9.056649831639474</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>1429682267627181</v>
+        <v>0.001589622362654387</v>
       </c>
       <c r="C185" t="n">
-        <v>29707253899080.14</v>
+        <v>3.198767317352137e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>54.33989984199548</v>
+        <v>47.37150296106253</v>
       </c>
       <c r="E185" t="n">
-        <v>6.299843611991726e-10</v>
+        <v>1.577551814947749e-08</v>
       </c>
       <c r="F185" t="n">
-        <v>9.056649973665913</v>
+        <v>7.895250493510422</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>1391704206678990</v>
+        <v>0.001562053955198163</v>
       </c>
       <c r="C186" t="n">
-        <v>28005003135701.64</v>
+        <v>3.185185442838508e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>47.37150256708021</v>
+        <v>47.80278031660804</v>
       </c>
       <c r="E186" t="n">
-        <v>1.577552100575202e-08</v>
+        <v>1.293823860118706e-08</v>
       </c>
       <c r="F186" t="n">
-        <v>7.895250427846702</v>
+        <v>7.967130052768006</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>1367568240139923</v>
+        <v>0.001472050119289314</v>
       </c>
       <c r="C187" t="n">
-        <v>27886094716873.18</v>
+        <v>3.024856879714836e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>47.80278008583337</v>
+        <v>46.05681528306117</v>
       </c>
       <c r="E187" t="n">
-        <v>1.29382399743834e-08</v>
+        <v>2.884437757992302e-08</v>
       </c>
       <c r="F187" t="n">
-        <v>7.967130014305561</v>
+        <v>7.676135880510195</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>1288770458110585</v>
+        <v>0.001277864502124979</v>
       </c>
       <c r="C188" t="n">
-        <v>26482428404720.07</v>
+        <v>2.551942855727776e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>46.05681517770304</v>
+        <v>49.37509706746491</v>
       </c>
       <c r="E188" t="n">
-        <v>2.884437897316165e-08</v>
+        <v>6.272012238534609e-09</v>
       </c>
       <c r="F188" t="n">
-        <v>7.676135862950507</v>
+        <v>8.229182844577485</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>1118762192799268</v>
+        <v>0.001214990858556886</v>
       </c>
       <c r="C189" t="n">
-        <v>22342096379202.04</v>
+        <v>2.447357961752949e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>49.37509738628944</v>
+        <v>52.65192005041973</v>
       </c>
       <c r="E189" t="n">
-        <v>6.272011316427149e-09</v>
+        <v>1.378741712529206e-09</v>
       </c>
       <c r="F189" t="n">
-        <v>8.229182897714907</v>
+        <v>8.775320008403288</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>1063716721075870</v>
+        <v>0.001042028020136301</v>
       </c>
       <c r="C190" t="n">
-        <v>21426462326813.93</v>
+        <v>2.106714729473459e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>52.65191932427838</v>
+        <v>56.77635657659619</v>
       </c>
       <c r="E190" t="n">
-        <v>1.378742176521228e-09</v>
+        <v>2.027630026684747e-10</v>
       </c>
       <c r="F190" t="n">
-        <v>8.77531988737973</v>
+        <v>9.462726096099365</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>912288862277303.8</v>
+        <v>0.0008286038143019598</v>
       </c>
       <c r="C191" t="n">
-        <v>18444152629645.89</v>
+        <v>1.684588435963269e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>56.77635592996616</v>
+        <v>58.31420605803936</v>
       </c>
       <c r="E191" t="n">
-        <v>2.027630637685592e-10</v>
+        <v>9.8959515991588e-11</v>
       </c>
       <c r="F191" t="n">
-        <v>9.462725988327692</v>
+        <v>9.719034343006561</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>725437336181641.6</v>
+        <v>0.0006992288445444626</v>
       </c>
       <c r="C192" t="n">
-        <v>14748463943786.15</v>
+        <v>1.435672975214285e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>58.31420570138299</v>
+        <v>47.43864379439464</v>
       </c>
       <c r="E192" t="n">
-        <v>9.895953246978985e-11</v>
+        <v>1.529616837870161e-08</v>
       </c>
       <c r="F192" t="n">
-        <v>9.719034283563831</v>
+        <v>7.906440632399106</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>612170378285581.8</v>
+        <v>0.0005224037958286634</v>
       </c>
       <c r="C193" t="n">
-        <v>12569225011317.89</v>
+        <v>7.75916374944958e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>47.43864393286648</v>
+        <v>106.8527154798728</v>
       </c>
       <c r="E193" t="n">
-        <v>1.529616740520283e-08</v>
+        <v>7.706395180523899e-17</v>
       </c>
       <c r="F193" t="n">
-        <v>7.906440655477748</v>
+        <v>8.219439652297911</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>449116650090480.6</v>
+        <v>0.0003585074714743808</v>
       </c>
       <c r="C194" t="n">
-        <v>9580613231193.178</v>
+        <v>7.541327585372406e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>54.36664014784355</v>
+        <v>43.21047743551252</v>
       </c>
       <c r="E194" t="n">
-        <v>6.222068992802563e-10</v>
+        <v>1.059744839629352e-07</v>
       </c>
       <c r="F194" t="n">
-        <v>9.061106691307257</v>
+        <v>7.201746239252086</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>465696788774441.2</v>
+        <v>0.0002194595793986278</v>
       </c>
       <c r="C195" t="n">
-        <v>9633387417393.785</v>
+        <v>4.920390673116364e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>50.99682611103594</v>
+        <v>31.4703419921026</v>
       </c>
       <c r="E195" t="n">
-        <v>2.966249753246981e-09</v>
+        <v>2.061010963705409e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>8.499471018505991</v>
+        <v>5.245056998683768</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>313870996870616.6</v>
+        <v>0.0002222955926464091</v>
       </c>
       <c r="C196" t="n">
-        <v>6602384038354.428</v>
+        <v>4.838049885405673e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>43.21047749768889</v>
+        <v>29.13869815331379</v>
       </c>
       <c r="E196" t="n">
-        <v>1.059744809592972e-07</v>
+        <v>5.726785697698255e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>7.201746249614815</v>
+        <v>4.856449692218965</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>192135457594978.6</v>
+        <v>0.0001660419274239945</v>
       </c>
       <c r="C197" t="n">
-        <v>4307770543701.035</v>
+        <v>3.752355655271951e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>31.47034200665513</v>
+        <v>19.56821447236089</v>
       </c>
       <c r="E197" t="n">
-        <v>2.061010950494784e-05</v>
+        <v>0.003304250853070158</v>
       </c>
       <c r="F197" t="n">
-        <v>5.245057001109188</v>
+        <v>3.261369078726814</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>194618368690332.6</v>
+        <v>0.0001593419079317538</v>
       </c>
       <c r="C198" t="n">
-        <v>4235681711194.202</v>
+        <v>3.515331478711006e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>29.13869849492642</v>
+        <v>27.52414466521336</v>
       </c>
       <c r="E198" t="n">
-        <v>5.726784844664358e-05</v>
+        <v>0.0001154678153560652</v>
       </c>
       <c r="F198" t="n">
-        <v>4.856449749154404</v>
+        <v>4.587357444202227</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>145368644872155.6</v>
+        <v>0.0001482291885208954</v>
       </c>
       <c r="C199" t="n">
-        <v>3285163359913.517</v>
+        <v>3.2787714699458e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>19.56821429366437</v>
+        <v>24.27426591029783</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0033042510940134</v>
+        <v>0.0004649331190814047</v>
       </c>
       <c r="F199" t="n">
-        <v>3.261369048944061</v>
+        <v>4.045710985049638</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>139502820657477.3</v>
+        <v>0.0002506707515859941</v>
       </c>
       <c r="C200" t="n">
-        <v>3077650211688.185</v>
+        <v>5.623427089155893e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>27.52414419808073</v>
+        <v>30.17329780789799</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0001154678386882742</v>
+        <v>3.64357575659539e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>4.587357366346788</v>
+        <v>5.028882967982998</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>129773705794650.4</v>
+        <v>0.0001939724056559209</v>
       </c>
       <c r="C201" t="n">
-        <v>2870543438743.004</v>
+        <v>4.058540345334849e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>24.27426619920748</v>
+        <v>40.27333350663247</v>
       </c>
       <c r="E201" t="n">
-        <v>0.000464933062085405</v>
+        <v>4.025045225154839e-07</v>
       </c>
       <c r="F201" t="n">
-        <v>4.045711033201246</v>
+        <v>6.712222251105412</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>219460638721851.7</v>
+        <v>0.0003058874723325778</v>
       </c>
       <c r="C202" t="n">
-        <v>4923274425680.399</v>
+        <v>6.783671123830989e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>30.17329757464065</v>
+        <v>29.10979807970957</v>
       </c>
       <c r="E202" t="n">
-        <v>3.643576128912112e-05</v>
+        <v>5.799403159272488e-05</v>
       </c>
       <c r="F202" t="n">
-        <v>5.028882929106775</v>
+        <v>4.851633013284928</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>169821599730719.3</v>
+        <v>0.0002899822193915384</v>
       </c>
       <c r="C203" t="n">
-        <v>3553226097537.515</v>
+        <v>6.435641865273598e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>40.27333350638597</v>
+        <v>29.20961214497272</v>
       </c>
       <c r="E203" t="n">
-        <v>4.025045225604087e-07</v>
+        <v>5.552389122050212e-05</v>
       </c>
       <c r="F203" t="n">
-        <v>6.712222251064328</v>
+        <v>4.868268690828786</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>267802524451278.2</v>
+        <v>0.0002784753103601337</v>
       </c>
       <c r="C204" t="n">
-        <v>5939060657854.124</v>
+        <v>6.237979209597244e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>29.10979803490188</v>
+        <v>33.83420351424849</v>
       </c>
       <c r="E204" t="n">
-        <v>5.799403272564324e-05</v>
+        <v>7.241896712937337e-06</v>
       </c>
       <c r="F204" t="n">
-        <v>4.85163300581698</v>
+        <v>5.639033919041414</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>253877577359303.1</v>
+        <v>0.0002756501552102557</v>
       </c>
       <c r="C205" t="n">
-        <v>5634363263454.722</v>
+        <v>6.164106519289594e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>29.20961209123072</v>
+        <v>38.37881192640981</v>
       </c>
       <c r="E205" t="n">
-        <v>5.552389252204584e-05</v>
+        <v>9.471704066054896e-07</v>
       </c>
       <c r="F205" t="n">
-        <v>4.868268681871786</v>
+        <v>6.396468654401635</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>243803352071508.4</v>
+        <v>0.0002688925956221577</v>
       </c>
       <c r="C206" t="n">
-        <v>5461310872340.812</v>
+        <v>6.069045959041734e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>33.83420350524573</v>
+        <v>27.54183202639485</v>
       </c>
       <c r="E206" t="n">
-        <v>7.241896741908323e-06</v>
+        <v>0.0001145877025745896</v>
       </c>
       <c r="F206" t="n">
-        <v>5.639033917540956</v>
+        <v>4.590305337732476</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>241329946793408.1</v>
+        <v>0.0002539730402039391</v>
       </c>
       <c r="C207" t="n">
-        <v>5396635811134.508</v>
+        <v>5.38431725739947e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>38.37881187545247</v>
+        <v>32.57105973879747</v>
       </c>
       <c r="E207" t="n">
-        <v>9.471704283533595e-07</v>
+        <v>1.267858326273298e-05</v>
       </c>
       <c r="F207" t="n">
-        <v>6.396468645908745</v>
+        <v>5.428509956466244</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>235413746567458.2</v>
+        <v>0.0002585742417697534</v>
       </c>
       <c r="C208" t="n">
-        <v>5313410897033.525</v>
+        <v>5.741731261635542e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>27.54183217534987</v>
+        <v>25.45592298260605</v>
       </c>
       <c r="E208" t="n">
-        <v>0.0001145876951906531</v>
+        <v>0.0002810587114591837</v>
       </c>
       <c r="F208" t="n">
-        <v>4.590305362558312</v>
+        <v>4.242653830434342</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>222351771302043.1</v>
+        <v>0.000152479508443816</v>
       </c>
       <c r="C209" t="n">
-        <v>4713935303357.872</v>
+        <v>3.290993439333639e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>32.5710596278948</v>
+        <v>39.97370526625502</v>
       </c>
       <c r="E209" t="n">
-        <v>1.26785838847038e-05</v>
+        <v>4.609668901281049e-07</v>
       </c>
       <c r="F209" t="n">
-        <v>5.428509937982468</v>
+        <v>6.662284211042504</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>226380093924506.2</v>
+        <v>6.703395630183589e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>5026848974233.008</v>
+        <v>1.697227925426175e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>25.45592330204555</v>
+        <v>21.92689205717339</v>
       </c>
       <c r="E210" t="n">
-        <v>0.0002810586730740671</v>
+        <v>0.001248367120325549</v>
       </c>
       <c r="F210" t="n">
-        <v>4.242653883674258</v>
+        <v>3.654482009528899</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>133494834020554.8</v>
+        <v>4.223331059659149e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>2881243694344.371</v>
+        <v>1.183156757915778e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>39.97370505029659</v>
+        <v>5.440398410235518</v>
       </c>
       <c r="E211" t="n">
-        <v>4.609669351702651e-07</v>
+        <v>0.4886894362419733</v>
       </c>
       <c r="F211" t="n">
-        <v>6.662284175049431</v>
+        <v>0.9067330683725863</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>58687799751953.18</v>
+        <v>6.044869323686397e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>1485912186515.332</v>
+        <v>1.453720943849036e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>21.92689206256843</v>
+        <v>25.21358371378442</v>
       </c>
       <c r="E212" t="n">
-        <v>0.001248367117517112</v>
+        <v>0.0003117171803402009</v>
       </c>
       <c r="F212" t="n">
-        <v>3.654482010428072</v>
+        <v>4.202263952297403</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>36974993133689.71</v>
+        <v>3.757100377513855e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>1035846169320.309</v>
+        <v>1.019607965145766e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>5.440398427483434</v>
+        <v>13.01973005509845</v>
       </c>
       <c r="E213" t="n">
-        <v>0.4886894341405643</v>
+        <v>0.04272369983547097</v>
       </c>
       <c r="F213" t="n">
-        <v>0.9067330712472391</v>
+        <v>2.169955009183075</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>52922444071552.36</v>
+        <v>2.922985148958573e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>1272723382421.608</v>
+        <v>8.638434960184072e-07</v>
       </c>
       <c r="D214" t="n">
-        <v>25.2135837518114</v>
+        <v>7.394641720621071</v>
       </c>
       <c r="E214" t="n">
-        <v>0.0003117171752798466</v>
+        <v>0.2858867898026868</v>
       </c>
       <c r="F214" t="n">
-        <v>4.202263958635233</v>
+        <v>1.232440286770178</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>32893173344483.02</v>
+        <v>2.488595550551531e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>892660248218.1697</v>
+        <v>7.275023254973678e-07</v>
       </c>
       <c r="D215" t="n">
-        <v>13.01973012250398</v>
+        <v>2.861443237425977</v>
       </c>
       <c r="E215" t="n">
-        <v>0.04272369877235394</v>
+        <v>0.8260254965369316</v>
       </c>
       <c r="F215" t="n">
-        <v>2.169955020417331</v>
+        <v>0.4769072062376628</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>25590547912929.75</v>
+        <v>2.34116367255818e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>756289452433.348</v>
+        <v>7.362401676829276e-07</v>
       </c>
       <c r="D216" t="n">
-        <v>7.394641789032042</v>
+        <v>10.40560337036452</v>
       </c>
       <c r="E216" t="n">
-        <v>0.2858867840068789</v>
+        <v>0.10857786967992</v>
       </c>
       <c r="F216" t="n">
-        <v>1.232440298172007</v>
+        <v>1.734267228394087</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>21787494767075.91</v>
+        <v>2.301498370188495e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>636923630315.3898</v>
+        <v>7.313527636682651e-07</v>
       </c>
       <c r="D217" t="n">
-        <v>2.861443328432802</v>
+        <v>9.674209973622006</v>
       </c>
       <c r="E217" t="n">
-        <v>0.8260254853998922</v>
+        <v>0.1390592841899891</v>
       </c>
       <c r="F217" t="n">
-        <v>0.476907221405467</v>
+        <v>1.612368328937001</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>20496738113607.82</v>
+        <v>2.757173587280121e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>644573554125.5137</v>
+        <v>8.372837404898644e-07</v>
       </c>
       <c r="D218" t="n">
-        <v>10.40560341641716</v>
+        <v>2.702214566463977</v>
       </c>
       <c r="E218" t="n">
-        <v>0.108577867965485</v>
+        <v>0.8451856538559753</v>
       </c>
       <c r="F218" t="n">
-        <v>1.734267236069526</v>
+        <v>0.4503690944106629</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>20149470949268.48</v>
+        <v>2.816606091676336e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>640294663636.8838</v>
+        <v>8.665888245957453e-07</v>
       </c>
       <c r="D219" t="n">
-        <v>9.674209839169389</v>
+        <v>6.556771483642123</v>
       </c>
       <c r="E219" t="n">
-        <v>0.1390592904266524</v>
+        <v>0.3637857029306035</v>
       </c>
       <c r="F219" t="n">
-        <v>1.612368306528231</v>
+        <v>1.092795247273687</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>24138878301318.76</v>
+        <v>3.160370605952475e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>733036556267.134</v>
+        <v>8.380667651911296e-07</v>
       </c>
       <c r="D220" t="n">
-        <v>2.702214610971003</v>
+        <v>15.93587640870798</v>
       </c>
       <c r="E220" t="n">
-        <v>0.8451856485961682</v>
+        <v>0.01410231442908197</v>
       </c>
       <c r="F220" t="n">
-        <v>0.4503691018285005</v>
+        <v>2.65597940145133</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>24659206068084.98</v>
+        <v>3.622693237359522e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>758692969176.7291</v>
+        <v>9.718270516639467e-07</v>
       </c>
       <c r="D221" t="n">
-        <v>6.556771533919958</v>
+        <v>10.22776444406707</v>
       </c>
       <c r="E221" t="n">
-        <v>0.3637856978390319</v>
+        <v>0.115382280506494</v>
       </c>
       <c r="F221" t="n">
-        <v>1.092795255653326</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>27668842399524.08</v>
-      </c>
-      <c r="C222" t="n">
-        <v>733722088934.9081</v>
-      </c>
-      <c r="D222" t="n">
-        <v>15.93587633543082</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0.01410231483195569</v>
-      </c>
-      <c r="F222" t="n">
-        <v>2.65597938923847</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>31716447432525.79</v>
-      </c>
-      <c r="C223" t="n">
-        <v>850828364633.6796</v>
-      </c>
-      <c r="D223" t="n">
-        <v>10.22776443318004</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0.1153822809344706</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1.704627405530006</v>
+        <v>1.704627407344512</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
+++ b/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
@@ -398,19 +398,19 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>8.962643908031724e-06</v>
+        <v>8.988515930658867e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>2.434865111928921e-07</v>
+        <v>2.509432910759486e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>27.81335526177468</v>
+        <v>15.16454828580795</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001018798796680929</v>
+        <v>0.01901479212437139</v>
       </c>
       <c r="F2" t="n">
-        <v>4.635559210295781</v>
+        <v>2.527424714301326</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>1.346460618347158e-05</v>
+        <v>1.35921165891764e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>3.638082408179144e-07</v>
+        <v>3.659633296900481e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>19.61159569739881</v>
+        <v>26.20531935162077</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003246260217648678</v>
+        <v>0.0002038625418876846</v>
       </c>
       <c r="F3" t="n">
-        <v>3.268599282899802</v>
+        <v>4.367553225270128</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>1.618890931058474e-05</v>
+        <v>1.56715408654477e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.139837707241365e-07</v>
+        <v>4.044660530835226e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>27.98652742136553</v>
+        <v>23.62737552759821</v>
       </c>
       <c r="E4" t="n">
-        <v>9.451327201383413e-05</v>
+        <v>0.0006114147515620958</v>
       </c>
       <c r="F4" t="n">
-        <v>4.664421236894255</v>
+        <v>3.937895921266368</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +458,19 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>2.299817218467858e-05</v>
+        <v>2.269161781159862e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>5.49561037133671e-07</v>
+        <v>5.476127573129803e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>5.120167627481504</v>
+        <v>4.485079377608735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5284958186165478</v>
+        <v>0.6113304345963226</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8533612712469173</v>
+        <v>0.7475132296014558</v>
       </c>
     </row>
     <row r="6">
@@ -478,19 +478,19 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>2.391613071250225e-05</v>
+        <v>2.401281749287685e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>5.981173022328182e-07</v>
+        <v>5.98573901467497e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>10.35907013864453</v>
+        <v>8.340093673184363</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1103226495776752</v>
+        <v>0.2142307955068384</v>
       </c>
       <c r="F6" t="n">
-        <v>1.726511689774089</v>
+        <v>1.390015612197394</v>
       </c>
     </row>
     <row r="7">
@@ -498,19 +498,19 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>2.481386568632204e-05</v>
+        <v>2.526352526340697e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>6.159751820236204e-07</v>
+        <v>6.243043318895109e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>3.416484524011887</v>
+        <v>7.925679134920934</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7550458678041627</v>
+        <v>0.2435989812759844</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5694140873353145</v>
+        <v>1.320946522486822</v>
       </c>
     </row>
     <row r="8">
@@ -518,19 +518,19 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>2.809064245354782e-05</v>
+        <v>2.736954496436091e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>6.402900428499734e-07</v>
+        <v>6.283137786876457e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>8.223014765569904</v>
+        <v>7.686949267998807</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2222157982445984</v>
+        <v>0.2619468943892563</v>
       </c>
       <c r="F8" t="n">
-        <v>1.370502460928317</v>
+        <v>1.281158211333135</v>
       </c>
     </row>
     <row r="9">
@@ -538,19 +538,19 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>2.751185752206125e-05</v>
+        <v>2.741494870432118e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>6.123845151356332e-07</v>
+        <v>6.107799761444534e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>2.789006876618315</v>
+        <v>2.650408281798657</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8348244946913361</v>
+        <v>0.8512694062225554</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4648344794363859</v>
+        <v>0.4417347136331094</v>
       </c>
     </row>
     <row r="10">
@@ -558,19 +558,19 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>2.521237662074921e-05</v>
+        <v>2.541275999220727e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>6.082647674261526e-07</v>
+        <v>6.110992585575012e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>6.822622638986106</v>
+        <v>4.050210374985907</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3375630443386573</v>
+        <v>0.6698815355259889</v>
       </c>
       <c r="F10" t="n">
-        <v>1.137103773164351</v>
+        <v>0.6750350624976512</v>
       </c>
     </row>
     <row r="11">
@@ -578,19 +578,19 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>2.46142236166062e-05</v>
+        <v>2.497780655352411e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>5.96556215053473e-07</v>
+        <v>6.037375298467293e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>8.393602478573179</v>
+        <v>6.656352245542429</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2106614128267988</v>
+        <v>0.3537993122209427</v>
       </c>
       <c r="F11" t="n">
-        <v>1.398933746428863</v>
+        <v>1.109392040923738</v>
       </c>
     </row>
     <row r="12">
@@ -598,19 +598,19 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>2.133945052325268e-05</v>
+        <v>2.142151475038778e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>5.075745493375681e-07</v>
+        <v>5.074428371814443e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>5.488265850230172</v>
+        <v>3.110231635681235</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4828760695579956</v>
+        <v>0.7948899037987444</v>
       </c>
       <c r="F12" t="n">
-        <v>0.914710975038362</v>
+        <v>0.5183719392802059</v>
       </c>
     </row>
     <row r="13">
@@ -618,19 +618,19 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>1.63511439152633e-05</v>
+        <v>1.666480585172268e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>4.103358095720977e-07</v>
+        <v>4.16584916170785e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>20.35823141788989</v>
+        <v>15.318169085567</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002390630252139201</v>
+        <v>0.01792130715516891</v>
       </c>
       <c r="F13" t="n">
-        <v>3.393038569648315</v>
+        <v>2.553028180927833</v>
       </c>
     </row>
     <row r="14">
@@ -638,19 +638,19 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>9.460300199574518e-06</v>
+        <v>9.098860451813235e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>2.837516066791737e-07</v>
+        <v>2.749554865729581e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>2.357133426166898</v>
+        <v>3.458323114713617</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8841015745924033</v>
+        <v>0.7495061164788817</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3928555710278163</v>
+        <v>0.5763871857856029</v>
       </c>
     </row>
     <row r="15">
@@ -658,19 +658,19 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>1.343881465546847e-05</v>
+        <v>1.362065615904849e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>3.713094460092815e-07</v>
+        <v>3.728120392084539e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>2.495812175699276</v>
+        <v>1.78684492915648</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8689360550298226</v>
+        <v>0.9382217662947546</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4159686959498793</v>
+        <v>0.2978074881927467</v>
       </c>
     </row>
     <row r="16">
@@ -678,19 +678,19 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>1.900108509485226e-05</v>
+        <v>1.913066680906125e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>5.164015217126491e-07</v>
+        <v>5.206679949061277e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>18.48090761190369</v>
+        <v>20.5555426378202</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005136320062763536</v>
+        <v>0.002204136226622322</v>
       </c>
       <c r="F16" t="n">
-        <v>3.080151268650615</v>
+        <v>3.425923772970032</v>
       </c>
     </row>
     <row r="17">
@@ -698,19 +698,19 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>2.237089735819716e-05</v>
+        <v>2.281671163862538e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>5.844327524244262e-07</v>
+        <v>5.920253719600882e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>24.09229584600602</v>
+        <v>19.50547242183573</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0005022306407629543</v>
+        <v>0.003389912566370985</v>
       </c>
       <c r="F17" t="n">
-        <v>4.015382641001003</v>
+        <v>3.250912070305956</v>
       </c>
     </row>
     <row r="18">
@@ -718,19 +718,19 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>2.636835979953348e-05</v>
+        <v>2.597507722710996e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>6.748963233403262e-07</v>
+        <v>6.664527255233767e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>35.8711284451864</v>
+        <v>35.2275820037535</v>
       </c>
       <c r="E18" t="n">
-        <v>2.920246288801317e-06</v>
+        <v>3.893311028573527e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>5.978521407531066</v>
+        <v>5.871263667292251</v>
       </c>
     </row>
     <row r="19">
@@ -738,19 +738,19 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>3.176046646287415e-05</v>
+        <v>3.216321039666932e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>7.786188486916828e-07</v>
+        <v>7.882805011672256e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>28.06843629305344</v>
+        <v>28.52058812830901</v>
       </c>
       <c r="E19" t="n">
-        <v>9.121481550862071e-05</v>
+        <v>7.495311853324756e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>4.678072715508907</v>
+        <v>4.753431354718169</v>
       </c>
     </row>
     <row r="20">
@@ -758,19 +758,19 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>3.531039197223514e-05</v>
+        <v>3.547587060874865e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>8.799496316682531e-07</v>
+        <v>8.870277487166367e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>40.6905922188833</v>
+        <v>46.74410438642725</v>
       </c>
       <c r="E20" t="n">
-        <v>3.331782828464687e-07</v>
+        <v>2.104415198019289e-08</v>
       </c>
       <c r="F20" t="n">
-        <v>6.781765369813884</v>
+        <v>7.790684064404541</v>
       </c>
     </row>
     <row r="21">
@@ -778,19 +778,19 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>5.395010232163389e-05</v>
+        <v>5.437968955869241e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.273510002073249e-06</v>
+        <v>1.283457255341716e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>30.16753194089993</v>
+        <v>40.09860059132759</v>
       </c>
       <c r="E21" t="n">
-        <v>3.65279053647832e-05</v>
+        <v>4.356361692323518e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>5.027921990149989</v>
+        <v>6.683100098554598</v>
       </c>
     </row>
     <row r="22">
@@ -798,19 +798,19 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001548266202984943</v>
+        <v>0.0001549518945698418</v>
       </c>
       <c r="C22" t="n">
-        <v>3.552953210004691e-06</v>
+        <v>3.558081325924139e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>64.27462314449853</v>
+        <v>65.08582000448656</v>
       </c>
       <c r="E22" t="n">
-        <v>6.066564100170282e-12</v>
+        <v>4.143344685180802e-12</v>
       </c>
       <c r="F22" t="n">
-        <v>10.71243719074976</v>
+        <v>10.84763666741443</v>
       </c>
     </row>
     <row r="23">
@@ -818,19 +818,19 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002428699563986366</v>
+        <v>0.0002443881309257291</v>
       </c>
       <c r="C23" t="n">
-        <v>5.518724682135788e-06</v>
+        <v>5.542364667160718e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>72.05726131899803</v>
+        <v>71.07575181927827</v>
       </c>
       <c r="E23" t="n">
-        <v>1.546416415434825e-13</v>
+        <v>2.459678696465931e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>12.00954355316634</v>
+        <v>11.84595863654638</v>
       </c>
     </row>
     <row r="24">
@@ -838,19 +838,19 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003629191110652707</v>
+        <v>0.0003642931030796624</v>
       </c>
       <c r="C24" t="n">
-        <v>8.090877661470652e-06</v>
+        <v>8.107058914737444e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>55.76171920622813</v>
+        <v>51.70306048319082</v>
       </c>
       <c r="E24" t="n">
-        <v>3.25242371162755e-10</v>
+        <v>2.139602428188414e-09</v>
       </c>
       <c r="F24" t="n">
-        <v>9.293619867704688</v>
+        <v>8.617176747198469</v>
       </c>
     </row>
     <row r="25">
@@ -858,19 +858,19 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0003680218438744539</v>
+        <v>0.000367267391868628</v>
       </c>
       <c r="C25" t="n">
-        <v>8.036947779623022e-06</v>
+        <v>8.02583865795051e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>64.047056627443</v>
+        <v>63.1158187525674</v>
       </c>
       <c r="E25" t="n">
-        <v>6.751081676105686e-12</v>
+        <v>1.045361818748717e-11</v>
       </c>
       <c r="F25" t="n">
-        <v>10.67450943790717</v>
+        <v>10.5193031254279</v>
       </c>
     </row>
     <row r="26">
@@ -878,19 +878,19 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>0.000342446199913823</v>
+        <v>0.0003432475972333619</v>
       </c>
       <c r="C26" t="n">
-        <v>7.592154647814358e-06</v>
+        <v>7.613053838615817e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>54.1480615921864</v>
+        <v>52.70666325781371</v>
       </c>
       <c r="E26" t="n">
-        <v>6.886967773772735e-10</v>
+        <v>1.344200402150822e-09</v>
       </c>
       <c r="F26" t="n">
-        <v>9.024676932031067</v>
+        <v>8.784443876302285</v>
       </c>
     </row>
     <row r="27">
@@ -898,19 +898,19 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0003266104116738825</v>
+        <v>0.0003268078326968175</v>
       </c>
       <c r="C27" t="n">
-        <v>7.404332388174815e-06</v>
+        <v>7.40063658123368e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>58.74429819833534</v>
+        <v>58.5731507576816</v>
       </c>
       <c r="E27" t="n">
-        <v>8.095232320913543e-11</v>
+        <v>8.76890699322219e-11</v>
       </c>
       <c r="F27" t="n">
-        <v>9.790716366389224</v>
+        <v>9.762191792946934</v>
       </c>
     </row>
     <row r="28">
@@ -918,19 +918,19 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0003275749417099781</v>
+        <v>0.0003270575192572563</v>
       </c>
       <c r="C28" t="n">
-        <v>7.402855007363386e-06</v>
+        <v>7.394686037529905e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>51.42593635206912</v>
+        <v>53.84329639720966</v>
       </c>
       <c r="E28" t="n">
-        <v>2.432328849297986e-09</v>
+        <v>7.93387863933373e-10</v>
       </c>
       <c r="F28" t="n">
-        <v>8.570989392011521</v>
+        <v>8.973882732868276</v>
       </c>
     </row>
     <row r="29">
@@ -938,19 +938,19 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0003322115558378625</v>
+        <v>0.0003335290632599882</v>
       </c>
       <c r="C29" t="n">
-        <v>7.366655971467457e-06</v>
+        <v>7.389929370264233e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>49.070908951174</v>
+        <v>47.57338596849122</v>
       </c>
       <c r="E29" t="n">
-        <v>7.216227610453275e-09</v>
+        <v>1.437752002771278e-08</v>
       </c>
       <c r="F29" t="n">
-        <v>8.178484825195667</v>
+        <v>7.928897661415204</v>
       </c>
     </row>
     <row r="30">
@@ -958,19 +958,19 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0003208333756203</v>
+        <v>0.0003204573769860178</v>
       </c>
       <c r="C30" t="n">
-        <v>7.144670512309237e-06</v>
+        <v>7.135147620531949e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>51.39420960504138</v>
+        <v>49.34365073157756</v>
       </c>
       <c r="E30" t="n">
-        <v>2.468291389326873e-09</v>
+        <v>6.363621895424074e-09</v>
       </c>
       <c r="F30" t="n">
-        <v>8.56570160084023</v>
+        <v>8.22394178859626</v>
       </c>
     </row>
     <row r="31">
@@ -978,19 +978,19 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0003236365653861887</v>
+        <v>0.0003232790525163376</v>
       </c>
       <c r="C31" t="n">
-        <v>7.238818130021155e-06</v>
+        <v>7.241558010472127e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>59.03447817606099</v>
+        <v>60.7305602371889</v>
       </c>
       <c r="E31" t="n">
-        <v>7.068910907431896e-11</v>
+        <v>3.197687201567321e-11</v>
       </c>
       <c r="F31" t="n">
-        <v>9.839079696010165</v>
+        <v>10.12176003953148</v>
       </c>
     </row>
     <row r="32">
@@ -998,19 +998,19 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0003219376795613787</v>
+        <v>0.0003203053959072041</v>
       </c>
       <c r="C32" t="n">
-        <v>7.291500182797094e-06</v>
+        <v>7.258812558118698e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>69.18253321490198</v>
+        <v>71.53865317051532</v>
       </c>
       <c r="E32" t="n">
-        <v>6.014553490695557e-13</v>
+        <v>1.976247383490033e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>11.53042220248366</v>
+        <v>11.92310886175255</v>
       </c>
     </row>
     <row r="33">
@@ -1018,19 +1018,19 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0003141811660267037</v>
+        <v>0.0003151245759878886</v>
       </c>
       <c r="C33" t="n">
-        <v>6.976703902853959e-06</v>
+        <v>6.989398867182068e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>54.25541687505903</v>
+        <v>53.06647872905809</v>
       </c>
       <c r="E33" t="n">
-        <v>6.551989733302366e-10</v>
+        <v>1.137673632017952e-09</v>
       </c>
       <c r="F33" t="n">
-        <v>9.042569479176505</v>
+        <v>8.844413121509682</v>
       </c>
     </row>
     <row r="34">
@@ -1038,19 +1038,19 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
       <c r="C34" t="n">
-        <v>6.965660951693744e-06</v>
+        <v>6.937196949452487e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>51.8148271081773</v>
+        <v>56.12035946033841</v>
       </c>
       <c r="E34" t="n">
-        <v>2.031732827804322e-09</v>
+        <v>2.75232262323121e-10</v>
       </c>
       <c r="F34" t="n">
-        <v>8.63580451802955</v>
+        <v>9.353393243389734</v>
       </c>
     </row>
     <row r="35">
@@ -1058,19 +1058,19 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>0.000284673406243651</v>
+        <v>0.0002852809967828611</v>
       </c>
       <c r="C35" t="n">
-        <v>6.390648935211571e-06</v>
+        <v>6.390566898916573e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>62.07354538837343</v>
+        <v>57.42025403066346</v>
       </c>
       <c r="E35" t="n">
-        <v>1.704477777969832e-11</v>
+        <v>1.50183083503973e-10</v>
       </c>
       <c r="F35" t="n">
-        <v>10.34559089806224</v>
+        <v>9.57004233844391</v>
       </c>
     </row>
     <row r="36">
@@ -1078,19 +1078,19 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0002589392886275295</v>
+        <v>0.0002594349240765828</v>
       </c>
       <c r="C36" t="n">
-        <v>5.801270745434665e-06</v>
+        <v>5.803276023612472e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>65.67346469053473</v>
+        <v>59.00913488780792</v>
       </c>
       <c r="E36" t="n">
-        <v>3.142782535486581e-12</v>
+        <v>7.153117879474999e-11</v>
       </c>
       <c r="F36" t="n">
-        <v>10.94557744842245</v>
+        <v>9.834855814634654</v>
       </c>
     </row>
     <row r="37">
@@ -1098,19 +1098,19 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0002097307448905846</v>
+        <v>0.000208838588053862</v>
       </c>
       <c r="C37" t="n">
-        <v>4.664799346506398e-06</v>
+        <v>4.648990662163617e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>62.99221340000911</v>
+        <v>64.69199888029245</v>
       </c>
       <c r="E37" t="n">
-        <v>1.107792441192592e-11</v>
+        <v>4.986074985497697e-12</v>
       </c>
       <c r="F37" t="n">
-        <v>10.49870223333485</v>
+        <v>10.78199981338207</v>
       </c>
     </row>
     <row r="38">
@@ -1118,19 +1118,19 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0001676518714442626</v>
+        <v>0.0001678860551491425</v>
       </c>
       <c r="C38" t="n">
-        <v>3.703315697170325e-06</v>
+        <v>3.710440299648338e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>49.30633805865392</v>
+        <v>49.60865837852138</v>
       </c>
       <c r="E38" t="n">
-        <v>6.47405246758749e-09</v>
+        <v>5.631493610053869e-09</v>
       </c>
       <c r="F38" t="n">
-        <v>8.217723009775654</v>
+        <v>8.268109729753563</v>
       </c>
     </row>
     <row r="39">
@@ -1138,19 +1138,19 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0001129177791001135</v>
+        <v>0.0001139905497489924</v>
       </c>
       <c r="C39" t="n">
-        <v>2.530827832392005e-06</v>
+        <v>2.551774190267282e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>65.93791793430181</v>
+        <v>65.8599703421729</v>
       </c>
       <c r="E39" t="n">
-        <v>2.775068686019629e-12</v>
+        <v>2.878747478985287e-12</v>
       </c>
       <c r="F39" t="n">
-        <v>10.9896529890503</v>
+        <v>10.97666172369548</v>
       </c>
     </row>
     <row r="40">
@@ -1158,19 +1158,19 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001601809679843853</v>
+        <v>0.0001613381530664217</v>
       </c>
       <c r="C40" t="n">
-        <v>3.611602036504522e-06</v>
+        <v>3.627316642665222e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>51.76893848072648</v>
+        <v>48.00183678866416</v>
       </c>
       <c r="E40" t="n">
-        <v>2.075349458537988e-09</v>
+        <v>1.18061901864264e-08</v>
       </c>
       <c r="F40" t="n">
-        <v>8.628156413454413</v>
+        <v>8.000306131444027</v>
       </c>
     </row>
     <row r="41">
@@ -1178,19 +1178,19 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>7.991964557380041e-05</v>
+        <v>8.073671911300868e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1.839780433565699e-06</v>
+        <v>1.85163359889323e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>60.5935570412521</v>
+        <v>51.48331922871664</v>
       </c>
       <c r="E41" t="n">
-        <v>3.409484412918794e-11</v>
+        <v>2.368606264841982e-09</v>
       </c>
       <c r="F41" t="n">
-        <v>10.09892617354202</v>
+        <v>8.580553204786106</v>
       </c>
     </row>
     <row r="42">
@@ -1198,19 +1198,19 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>5.441290384230492e-05</v>
+        <v>5.419517485732414e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1.253944398795092e-06</v>
+        <v>1.253325779100045e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>28.65160210972221</v>
+        <v>27.87883266462717</v>
       </c>
       <c r="E42" t="n">
-        <v>7.080193127212721e-05</v>
+        <v>9.90300980649599e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>4.775267018287034</v>
+        <v>4.646472110771195</v>
       </c>
     </row>
     <row r="43">
@@ -1218,19 +1218,19 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>4.13517767034414e-05</v>
+        <v>4.140201311984713e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>9.667050024329574e-07</v>
+        <v>9.681177559705149e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>32.52436068999757</v>
+        <v>29.27789676220364</v>
       </c>
       <c r="E43" t="n">
-        <v>1.294318395505847e-05</v>
+        <v>5.389427972334117e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>5.420726781666262</v>
+        <v>4.879649460367273</v>
       </c>
     </row>
     <row r="44">
@@ -1238,19 +1238,19 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>2.514469114747288e-05</v>
+        <v>2.496381184611598e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>6.333876780349262e-07</v>
+        <v>6.336751826269966e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>19.66399848423616</v>
+        <v>19.63105576052308</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003177532155149691</v>
+        <v>0.003220570149202261</v>
       </c>
       <c r="F44" t="n">
-        <v>3.277333080706026</v>
+        <v>3.271842626753847</v>
       </c>
     </row>
     <row r="45">
@@ -1258,19 +1258,19 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>2.19223011224161e-05</v>
+        <v>2.171641926673571e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>5.761815449662417e-07</v>
+        <v>5.707686053564111e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>14.45418810748465</v>
+        <v>14.75383527330252</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02495429606235691</v>
+        <v>0.02226020309217737</v>
       </c>
       <c r="F45" t="n">
-        <v>2.409031351247441</v>
+        <v>2.458972545550421</v>
       </c>
     </row>
     <row r="46">
@@ -1278,19 +1278,19 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>2.059506822644232e-05</v>
+        <v>2.019448444212327e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>5.288127220244893e-07</v>
+        <v>5.187047750433091e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>3.969120822380337</v>
+        <v>3.267070361273039</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6808553750949136</v>
+        <v>0.7746569086950211</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6615201370633895</v>
+        <v>0.5445117268788398</v>
       </c>
     </row>
     <row r="47">
@@ -1298,19 +1298,19 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>2.224961433496913e-05</v>
+        <v>2.175324355383011e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>5.470378636650795e-07</v>
+        <v>5.398393612725239e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>4.663032828452139</v>
+        <v>5.819230890057841</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5876988298247665</v>
+        <v>0.4437417719180728</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7771721380753566</v>
+        <v>0.9698718150096401</v>
       </c>
     </row>
     <row r="48">
@@ -1318,19 +1318,19 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>2.845569358034496e-05</v>
+        <v>2.833922237265196e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>6.743548973812191e-07</v>
+        <v>6.721940885388114e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>5.14738722236236</v>
+        <v>4.836151706916746</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5250535140826034</v>
+        <v>0.5649933053293912</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8578978703937267</v>
+        <v>0.8060252844861243</v>
       </c>
     </row>
     <row r="49">
@@ -1338,19 +1338,19 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>3.884063567599601e-05</v>
+        <v>3.847347271564733e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>8.910482071495541e-07</v>
+        <v>8.8757202617428e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>7.264857836722546</v>
+        <v>6.455613099602912</v>
       </c>
       <c r="E49" t="n">
-        <v>0.297046386979064</v>
+        <v>0.3741307412655879</v>
       </c>
       <c r="F49" t="n">
-        <v>1.210809639453758</v>
+        <v>1.075935516600485</v>
       </c>
     </row>
     <row r="50">
@@ -1358,19 +1358,19 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>5.659048115378241e-05</v>
+        <v>5.638367081751205e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>1.271698766077938e-06</v>
+        <v>1.267216007627067e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>6.524597860766637</v>
+        <v>6.743737329708738</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3670540984694898</v>
+        <v>0.3451977774053137</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08743297679444</v>
+        <v>1.123956221618123</v>
       </c>
     </row>
     <row r="51">
@@ -1378,19 +1378,19 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>7.070830404715135e-05</v>
+        <v>7.019599717039522e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1.532430874798985e-06</v>
+        <v>1.52350949108793e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>3.921748359915403</v>
+        <v>4.546321556836636</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6872652598606106</v>
+        <v>0.603168322136149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6536247266525671</v>
+        <v>0.7577202594727727</v>
       </c>
     </row>
     <row r="52">
@@ -1398,19 +1398,19 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0001318453717714046</v>
+        <v>0.0001324210810844266</v>
       </c>
       <c r="C52" t="n">
-        <v>2.954311281209364e-06</v>
+        <v>2.963746202659117e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>7.623441415337206</v>
+        <v>8.279093117519496</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2670088358921854</v>
+        <v>0.218360991428648</v>
       </c>
       <c r="F52" t="n">
-        <v>1.270573569222868</v>
+        <v>1.379848852919916</v>
       </c>
     </row>
     <row r="53">
@@ -1418,19 +1418,19 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0002032270117957605</v>
+        <v>0.0002037654861834199</v>
       </c>
       <c r="C53" t="n">
-        <v>4.430087983148993e-06</v>
+        <v>4.438636944378675e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>11.66262011568305</v>
+        <v>10.71642859442112</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06993268375162082</v>
+        <v>0.09754599059080188</v>
       </c>
       <c r="F53" t="n">
-        <v>1.943770019280508</v>
+        <v>1.78607143240352</v>
       </c>
     </row>
     <row r="54">
@@ -1438,19 +1438,19 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004767177443647476</v>
+        <v>0.0004786670143538202</v>
       </c>
       <c r="C54" t="n">
-        <v>1.05658327863101e-05</v>
+        <v>1.059699020928719e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>10.74629695302316</v>
+        <v>10.12729165178989</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09654110500500362</v>
+        <v>0.1193928335757252</v>
       </c>
       <c r="F54" t="n">
-        <v>1.791049492170527</v>
+        <v>1.687881941964982</v>
       </c>
     </row>
     <row r="55">
@@ -1458,19 +1458,19 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0007218050911923629</v>
+        <v>0.0007234983051767965</v>
       </c>
       <c r="C55" t="n">
-        <v>1.560666723217727e-05</v>
+        <v>1.56428883031444e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>9.601238930886435</v>
+        <v>8.99028646199894</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1424805000333973</v>
+        <v>0.1741250908806942</v>
       </c>
       <c r="F55" t="n">
-        <v>1.600206488481072</v>
+        <v>1.498381076999823</v>
       </c>
     </row>
     <row r="56">
@@ -1478,19 +1478,19 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007520435391957487</v>
+        <v>0.0007506033739256064</v>
       </c>
       <c r="C56" t="n">
-        <v>1.597341388431988e-05</v>
+        <v>1.59419699079391e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>16.2322190986801</v>
+        <v>17.51605261505301</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01256036444868714</v>
+        <v>0.007562557592528256</v>
       </c>
       <c r="F56" t="n">
-        <v>2.705369849780018</v>
+        <v>2.919342102508836</v>
       </c>
     </row>
     <row r="57">
@@ -1498,19 +1498,19 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005582791662261689</v>
+        <v>0.0005581602950988318</v>
       </c>
       <c r="C57" t="n">
-        <v>1.213177357416378e-05</v>
+        <v>1.213298660391071e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>11.61012761941954</v>
+        <v>12.25403277392545</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07125340367067906</v>
+        <v>0.05653574111730926</v>
       </c>
       <c r="F57" t="n">
-        <v>1.935021269903256</v>
+        <v>2.042338795654242</v>
       </c>
     </row>
     <row r="58">
@@ -1518,19 +1518,19 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002651018625022317</v>
+        <v>0.0002654820924737662</v>
       </c>
       <c r="C58" t="n">
-        <v>5.8434072175703e-06</v>
+        <v>5.85158468406362e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>11.27760627000436</v>
+        <v>10.08523330807311</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08016636581337044</v>
+        <v>0.1211082462363276</v>
       </c>
       <c r="F58" t="n">
-        <v>1.879601045000727</v>
+        <v>1.680872218012185</v>
       </c>
     </row>
     <row r="59">
@@ -1538,19 +1538,19 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0001954017622406429</v>
+        <v>0.0001964799393616129</v>
       </c>
       <c r="C59" t="n">
-        <v>4.354398277987446e-06</v>
+        <v>4.376103117052871e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>8.906168581270029</v>
+        <v>9.857483747479909</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1789242599341942</v>
+        <v>0.1307834138715739</v>
       </c>
       <c r="F59" t="n">
-        <v>1.484361430211671</v>
+        <v>1.642913957913318</v>
       </c>
     </row>
     <row r="60">
@@ -1558,19 +1558,19 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002583570163898916</v>
+        <v>0.0002598252148632594</v>
       </c>
       <c r="C60" t="n">
-        <v>5.615496427174366e-06</v>
+        <v>5.640205715150835e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>15.09773811386988</v>
+        <v>13.600771784246</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01951000315915046</v>
+        <v>0.03442799201668559</v>
       </c>
       <c r="F60" t="n">
-        <v>2.51628968564498</v>
+        <v>2.266795297374334</v>
       </c>
     </row>
     <row r="61">
@@ -1578,19 +1578,19 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001022801383845911</v>
+        <v>0.0001018495893561002</v>
       </c>
       <c r="C61" t="n">
-        <v>2.319942803120426e-06</v>
+        <v>2.312992985559332e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>6.966309366724474</v>
+        <v>7.077906049640381</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3239741409508479</v>
+        <v>0.3137025845332181</v>
       </c>
       <c r="F61" t="n">
-        <v>1.161051561120746</v>
+        <v>1.179651008273397</v>
       </c>
     </row>
     <row r="62">
@@ -1598,19 +1598,19 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>6.94401372442961e-05</v>
+        <v>6.914177058196832e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.551469848860401e-06</v>
+        <v>1.547560070577596e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>4.575672906005554</v>
+        <v>4.463220767801397</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5992669417266929</v>
+        <v>0.614250371493001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7626121510009257</v>
+        <v>0.7438701279668996</v>
       </c>
     </row>
     <row r="63">
@@ -1618,19 +1618,19 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>4.026583702198042e-05</v>
+        <v>4.002162695024225e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>9.588860591827234e-07</v>
+        <v>9.578785278942196e-07</v>
       </c>
       <c r="D63" t="n">
-        <v>8.001504502800886</v>
+        <v>4.610400157170685</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2379931025611993</v>
+        <v>0.5946603148574379</v>
       </c>
       <c r="F63" t="n">
-        <v>1.333584083800148</v>
+        <v>0.7684000261951142</v>
       </c>
     </row>
     <row r="64">
@@ -1638,19 +1638,19 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>3.05231194756616e-05</v>
+        <v>3.050672749533678e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>7.33905088671853e-07</v>
+        <v>7.33953615141533e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>9.200925516765048</v>
+        <v>3.758369274982257</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1625894951600804</v>
+        <v>0.7093366021378187</v>
       </c>
       <c r="F64" t="n">
-        <v>1.533487586127508</v>
+        <v>0.6263948791637094</v>
       </c>
     </row>
     <row r="65">
@@ -1658,19 +1658,19 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>6.970365259016444e-05</v>
+        <v>7.057504181997505e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.645028213623179e-06</v>
+        <v>1.6617168493194e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>43.40052139883802</v>
+        <v>40.98810777585198</v>
       </c>
       <c r="E65" t="n">
-        <v>9.717850106792819e-08</v>
+        <v>2.911328304139873e-07</v>
       </c>
       <c r="F65" t="n">
-        <v>7.233420233139669</v>
+        <v>6.83135129597533</v>
       </c>
     </row>
     <row r="66">
@@ -1678,19 +1678,19 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0002047574658083654</v>
+        <v>0.0002046933000561249</v>
       </c>
       <c r="C66" t="n">
-        <v>4.668975223816597e-06</v>
+        <v>4.670518238369124e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>49.58954614994362</v>
+        <v>48.19724443410114</v>
       </c>
       <c r="E66" t="n">
-        <v>5.681362782449673e-09</v>
+        <v>1.079095773939984e-08</v>
       </c>
       <c r="F66" t="n">
-        <v>8.264924358323936</v>
+        <v>8.032874072350191</v>
       </c>
     </row>
     <row r="67">
@@ -1698,19 +1698,19 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0003580171324674524</v>
+        <v>0.0003593132968285758</v>
       </c>
       <c r="C67" t="n">
-        <v>7.856499355605957e-06</v>
+        <v>7.880174175474369e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>36.41301378848443</v>
+        <v>37.62216816228556</v>
       </c>
       <c r="E67" t="n">
-        <v>2.291168377771405e-06</v>
+        <v>1.331501334902629e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>6.068835631414071</v>
+        <v>6.270361360380927</v>
       </c>
     </row>
     <row r="68">
@@ -1718,19 +1718,19 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0006477895238037432</v>
+        <v>0.0006477773600458552</v>
       </c>
       <c r="C68" t="n">
-        <v>1.418447361626482e-05</v>
+        <v>1.41873627075071e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>29.74500123467027</v>
+        <v>30.91639508708694</v>
       </c>
       <c r="E68" t="n">
-        <v>4.394770230214064e-05</v>
+        <v>2.629813912474951e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>4.957500205778378</v>
+        <v>5.152732514514489</v>
       </c>
     </row>
     <row r="69">
@@ -1738,19 +1738,19 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0006491661537390513</v>
+        <v>0.0006500964369964071</v>
       </c>
       <c r="C69" t="n">
-        <v>1.373028041632671e-05</v>
+        <v>1.373963716326954e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>32.63667865074197</v>
+        <v>31.19201644181176</v>
       </c>
       <c r="E69" t="n">
-        <v>1.231582114169002e-05</v>
+        <v>2.329651309181843e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>5.439446441790328</v>
+        <v>5.198669406968627</v>
       </c>
     </row>
     <row r="70">
@@ -1758,19 +1758,19 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001126315178136133</v>
+        <v>0.001128452229783984</v>
       </c>
       <c r="C70" t="n">
-        <v>2.399173730282905e-05</v>
+        <v>2.401386080804438e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>23.61906998848302</v>
+        <v>21.83697909906091</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0006135636144341148</v>
+        <v>0.00129604266338883</v>
       </c>
       <c r="F70" t="n">
-        <v>3.93651166474717</v>
+        <v>3.639496516510152</v>
       </c>
     </row>
     <row r="71">
@@ -1778,19 +1778,19 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001247389723336437</v>
+        <v>0.001254343777709174</v>
       </c>
       <c r="C71" t="n">
-        <v>2.723303093800091e-05</v>
+        <v>2.736672617263125e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>19.73457496537015</v>
+        <v>18.96324530506017</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003087206918641751</v>
+        <v>0.004226158396576731</v>
       </c>
       <c r="F71" t="n">
-        <v>3.289095827561691</v>
+        <v>3.160540884176696</v>
       </c>
     </row>
     <row r="72">
@@ -1798,19 +1798,19 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001585170492646771</v>
+        <v>0.001587468960959417</v>
       </c>
       <c r="C72" t="n">
-        <v>3.132124749627308e-05</v>
+        <v>3.136367232764935e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>4.320133974429783</v>
+        <v>4.221697759744238</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6334398032825326</v>
+        <v>0.6467027586616074</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7200223290716306</v>
+        <v>0.7036162932907063</v>
       </c>
     </row>
     <row r="73">
@@ -1818,19 +1818,19 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002356564260592741</v>
+        <v>0.002362605199953508</v>
       </c>
       <c r="C73" t="n">
-        <v>4.748003847779053e-05</v>
+        <v>4.756909161049837e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>4.644267788842598</v>
+        <v>4.377834997034924</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5901779016664368</v>
+        <v>0.6256869245987202</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7740446314737665</v>
+        <v>0.7296391661724874</v>
       </c>
     </row>
     <row r="74">
@@ -1838,19 +1838,19 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002160589208802893</v>
+        <v>0.002166022664829694</v>
       </c>
       <c r="C74" t="n">
-        <v>4.384186253218312e-05</v>
+        <v>4.394235572864525e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>5.541769686198562</v>
+        <v>5.895800477965516</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4764227161669313</v>
+        <v>0.4349633518190547</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9236282810330937</v>
+        <v>0.9826334129942528</v>
       </c>
     </row>
     <row r="75">
@@ -1858,19 +1858,19 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001100663617122629</v>
+        <v>0.001099334297535455</v>
       </c>
       <c r="C75" t="n">
-        <v>2.364443081960588e-05</v>
+        <v>2.360953387550737e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>6.000221364243535</v>
+        <v>5.917725498955303</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4231652841616518</v>
+        <v>0.4324694372798058</v>
       </c>
       <c r="F75" t="n">
-        <v>1.000036894040589</v>
+        <v>0.9862875831592172</v>
       </c>
     </row>
     <row r="76">
@@ -1878,19 +1878,19 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005889711989298056</v>
+        <v>0.0005888542222331628</v>
       </c>
       <c r="C76" t="n">
-        <v>1.25622043989596e-05</v>
+        <v>1.256031936116267e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>2.96814650725522</v>
+        <v>3.200743445733321</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8128340411057685</v>
+        <v>0.7832624219301112</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4946910845425366</v>
+        <v>0.5334572409555535</v>
       </c>
     </row>
     <row r="77">
@@ -1898,19 +1898,19 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0004949119124127311</v>
+        <v>0.0004964667975325583</v>
       </c>
       <c r="C77" t="n">
-        <v>1.081015916613247e-05</v>
+        <v>1.083132968684751e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>13.54876556678411</v>
+        <v>12.92086925859957</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03510358036640738</v>
+        <v>0.04430990150531721</v>
       </c>
       <c r="F77" t="n">
-        <v>2.258127594464018</v>
+        <v>2.153478209766595</v>
       </c>
     </row>
     <row r="78">
@@ -1918,19 +1918,19 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001124028895820851</v>
+        <v>0.001122356674777026</v>
       </c>
       <c r="C78" t="n">
-        <v>2.369622103398668e-05</v>
+        <v>2.366533160230794e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>34.73244606319822</v>
+        <v>34.0160122707773</v>
       </c>
       <c r="E78" t="n">
-        <v>4.855572751057152e-06</v>
+        <v>6.679673184327695e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>5.788741010533037</v>
+        <v>5.669335378462883</v>
       </c>
     </row>
     <row r="79">
@@ -1938,19 +1938,19 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001264980404467394</v>
+        <v>0.001263931396368846</v>
       </c>
       <c r="C79" t="n">
-        <v>2.740069500004502e-05</v>
+        <v>2.739570578535849e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>40.68854642185733</v>
+        <v>41.7917599725703</v>
       </c>
       <c r="E79" t="n">
-        <v>3.334873700663849e-07</v>
+        <v>2.021316648485595e-07</v>
       </c>
       <c r="F79" t="n">
-        <v>6.781424403642888</v>
+        <v>6.965293328761716</v>
       </c>
     </row>
     <row r="80">
@@ -1958,19 +1958,19 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0009164195736418294</v>
+        <v>0.0009176557839552864</v>
       </c>
       <c r="C80" t="n">
-        <v>1.95206453419646e-05</v>
+        <v>1.954390616256207e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>52.90517532137535</v>
+        <v>52.64668512506076</v>
       </c>
       <c r="E80" t="n">
-        <v>1.226025779870059e-09</v>
+        <v>1.382090789023482e-09</v>
       </c>
       <c r="F80" t="n">
-        <v>8.817529220229224</v>
+        <v>8.774447520843461</v>
       </c>
     </row>
     <row r="81">
@@ -1978,19 +1978,19 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0004861509621294413</v>
+        <v>0.0004866427770682838</v>
       </c>
       <c r="C81" t="n">
-        <v>1.068446076666854e-05</v>
+        <v>1.070049389106187e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>31.02496737145836</v>
+        <v>31.42418529615958</v>
       </c>
       <c r="E81" t="n">
-        <v>2.50725566944054e-05</v>
+        <v>2.103336374495747e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>5.17082789524306</v>
+        <v>5.237364216026597</v>
       </c>
     </row>
     <row r="82">
@@ -1998,19 +1998,19 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0002860806766254553</v>
+        <v>0.000287322821733485</v>
       </c>
       <c r="C82" t="n">
-        <v>6.406549899496868e-06</v>
+        <v>6.422920662802153e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>21.16106839223744</v>
+        <v>18.86956022583431</v>
       </c>
       <c r="E82" t="n">
-        <v>0.001716271279440541</v>
+        <v>0.004389691877949359</v>
       </c>
       <c r="F82" t="n">
-        <v>3.526844732039573</v>
+        <v>3.144926704305718</v>
       </c>
     </row>
     <row r="83">
@@ -2018,19 +2018,19 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0002360603014213603</v>
+        <v>0.0002368583929389312</v>
       </c>
       <c r="C83" t="n">
-        <v>5.297910132680781e-06</v>
+        <v>5.30864073131904e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>9.501741809537419</v>
+        <v>9.85855742368736</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1472642033629004</v>
+        <v>0.13073624116249</v>
       </c>
       <c r="F83" t="n">
-        <v>1.583623634922903</v>
+        <v>1.643092903947893</v>
       </c>
     </row>
     <row r="84">
@@ -2038,19 +2038,19 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001231884460956845</v>
+        <v>0.0001230719948690761</v>
       </c>
       <c r="C84" t="n">
-        <v>2.817809904602738e-06</v>
+        <v>2.818042906550745e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>7.568960836330987</v>
+        <v>9.699704419830162</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2714125759295177</v>
+        <v>0.1378811219602905</v>
       </c>
       <c r="F84" t="n">
-        <v>1.261493472721831</v>
+        <v>1.616617403305027</v>
       </c>
     </row>
     <row r="85">
@@ -2058,19 +2058,19 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>6.500037292156053e-05</v>
+        <v>6.402873635639755e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1.584227826179423e-06</v>
+        <v>1.568711920167609e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>11.82043681644328</v>
+        <v>12.3220902549878</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0660966344768634</v>
+        <v>0.05515722321789657</v>
       </c>
       <c r="F85" t="n">
-        <v>1.970072802740547</v>
+        <v>2.053681709164633</v>
       </c>
     </row>
     <row r="86">
@@ -2078,19 +2078,19 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>4.990121451788111e-05</v>
+        <v>4.931689609312924e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1.219517497343572e-06</v>
+        <v>1.207015023604924e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>14.26851477642357</v>
+        <v>10.55400891445551</v>
       </c>
       <c r="E86" t="n">
-        <v>0.02677637610636991</v>
+        <v>0.1031777114683883</v>
       </c>
       <c r="F86" t="n">
-        <v>2.378085796070595</v>
+        <v>1.759001485742584</v>
       </c>
     </row>
     <row r="87">
@@ -2098,19 +2098,19 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>3.999135692308328e-05</v>
+        <v>3.932030204059566e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>9.319832654064399e-07</v>
+        <v>9.194639722178445e-07</v>
       </c>
       <c r="D87" t="n">
-        <v>9.675980059579011</v>
+        <v>9.171477928259606</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1389771990267029</v>
+        <v>0.1641614650699279</v>
       </c>
       <c r="F87" t="n">
-        <v>1.612663343263169</v>
+        <v>1.528579654709934</v>
       </c>
     </row>
     <row r="88">
@@ -2118,19 +2118,19 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>3.720752264964439e-05</v>
+        <v>3.698481642293566e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>9.337082253207708e-07</v>
+        <v>9.307108962812349e-07</v>
       </c>
       <c r="D88" t="n">
-        <v>16.09484875540991</v>
+        <v>18.3036095569223</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01325382948876578</v>
+        <v>0.005516605435701149</v>
       </c>
       <c r="F88" t="n">
-        <v>2.682474792568318</v>
+        <v>3.050601592820383</v>
       </c>
     </row>
     <row r="89">
@@ -2138,19 +2138,19 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>5.038559244915958e-05</v>
+        <v>5.042639473666901e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1.260665455028101e-06</v>
+        <v>1.253255692279366e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>12.0246325072514</v>
+        <v>12.34701794777674</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06142153410537535</v>
+        <v>0.05466017816719081</v>
       </c>
       <c r="F89" t="n">
-        <v>2.004105417875234</v>
+        <v>2.057836324629457</v>
       </c>
     </row>
     <row r="90">
@@ -2158,19 +2158,19 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>9.055293660477621e-05</v>
+        <v>9.04052433822979e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>2.245087571871538e-06</v>
+        <v>2.240588974690584e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>11.78011131785457</v>
+        <v>10.28671732924516</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0670579142120246</v>
+        <v>0.1130855010834541</v>
       </c>
       <c r="F90" t="n">
-        <v>1.963351886309095</v>
+        <v>1.714452888207527</v>
       </c>
     </row>
     <row r="91">
@@ -2178,19 +2178,19 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>0.000101466866570776</v>
+        <v>0.0001019632660471361</v>
       </c>
       <c r="C91" t="n">
-        <v>2.457739205150903e-06</v>
+        <v>2.472683139877137e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>7.28584631117436</v>
+        <v>8.110083161000485</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2952193539736965</v>
+        <v>0.2301487931980426</v>
       </c>
       <c r="F91" t="n">
-        <v>1.21430771852906</v>
+        <v>1.351680526833414</v>
       </c>
     </row>
     <row r="92">
@@ -2198,19 +2198,19 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001251507473821181</v>
+        <v>0.0001256953307215006</v>
       </c>
       <c r="C92" t="n">
-        <v>2.964020638548351e-06</v>
+        <v>2.974461110899071e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>12.98162780748931</v>
+        <v>14.85503250007041</v>
       </c>
       <c r="E92" t="n">
-        <v>0.04332862820872804</v>
+        <v>0.02141470379640616</v>
       </c>
       <c r="F92" t="n">
-        <v>2.163604634581551</v>
+        <v>2.475838750011735</v>
       </c>
     </row>
     <row r="93">
@@ -2218,19 +2218,19 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.000189231234130014</v>
+        <v>0.0001897855645198549</v>
       </c>
       <c r="C93" t="n">
-        <v>4.319945615425814e-06</v>
+        <v>4.327376478909768e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>14.36287451728365</v>
+        <v>16.61892185882529</v>
       </c>
       <c r="E93" t="n">
-        <v>0.02583514264749775</v>
+        <v>0.0107906716441277</v>
       </c>
       <c r="F93" t="n">
-        <v>2.393812419547275</v>
+        <v>2.769820309804215</v>
       </c>
     </row>
     <row r="94">
@@ -2238,19 +2238,19 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0003993632239775573</v>
+        <v>0.0003991130928112281</v>
       </c>
       <c r="C94" t="n">
-        <v>8.998802967360657e-06</v>
+        <v>8.992133224039092e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>35.48617679626464</v>
+        <v>36.84760638123652</v>
       </c>
       <c r="E94" t="n">
-        <v>3.468657423945905e-06</v>
+        <v>1.885524002608294e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>5.914362799377439</v>
+        <v>6.141267730206088</v>
       </c>
     </row>
     <row r="95">
@@ -2258,19 +2258,19 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005030028945808675</v>
+        <v>0.0005031215608975132</v>
       </c>
       <c r="C95" t="n">
-        <v>1.086847194501191e-05</v>
+        <v>1.086412113857574e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>36.13224313725325</v>
+        <v>37.42701564078793</v>
       </c>
       <c r="E95" t="n">
-        <v>2.598189809718619e-06</v>
+        <v>1.453585986967554e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>6.022040522875542</v>
+        <v>6.237835940131322</v>
       </c>
     </row>
     <row r="96">
@@ -2278,19 +2278,19 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0004140693582334061</v>
+        <v>0.0004140738922664979</v>
       </c>
       <c r="C96" t="n">
-        <v>8.910671806430318e-06</v>
+        <v>8.912364696297059e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>27.39743246207451</v>
+        <v>25.40833131559572</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0001219712419303473</v>
+        <v>0.0002868352438784153</v>
       </c>
       <c r="F96" t="n">
-        <v>4.566238743679086</v>
+        <v>4.23472188593262</v>
       </c>
     </row>
     <row r="97">
@@ -2298,19 +2298,19 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>0.000201030551995368</v>
+        <v>0.0002001638998033709</v>
       </c>
       <c r="C97" t="n">
-        <v>4.736631599043604e-06</v>
+        <v>4.722543378758178e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>30.93330369049631</v>
+        <v>33.78509338486214</v>
       </c>
       <c r="E97" t="n">
-        <v>2.610344260448164e-05</v>
+        <v>7.401657036984801e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>5.155550615082718</v>
+        <v>5.630848897477023</v>
       </c>
     </row>
     <row r="98">
@@ -2318,19 +2318,19 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>9.614784300627565e-05</v>
+        <v>9.64613919617439e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>2.418635480692745e-06</v>
+        <v>2.425569407254579e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>27.86188984115345</v>
+        <v>23.74088778074209</v>
       </c>
       <c r="E98" t="n">
-        <v>9.975985778491048e-05</v>
+        <v>0.0005827773714938065</v>
       </c>
       <c r="F98" t="n">
-        <v>4.643648306858908</v>
+        <v>3.956814630123681</v>
       </c>
     </row>
     <row r="99">
@@ -2338,19 +2338,19 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>6.002564890072407e-05</v>
+        <v>6.015366657964978e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1.542544148596002e-06</v>
+        <v>1.549851543676314e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>29.7745518977524</v>
+        <v>32.16268920034351</v>
       </c>
       <c r="E99" t="n">
-        <v>4.338347235681846e-05</v>
+        <v>1.518660918552934e-05</v>
       </c>
       <c r="F99" t="n">
-        <v>4.962425316292067</v>
+        <v>5.360448200057252</v>
       </c>
     </row>
     <row r="100">
@@ -2358,19 +2358,19 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>3.258708365483478e-05</v>
+        <v>3.277259758792661e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>8.761358285208106e-07</v>
+        <v>8.755171812734631e-07</v>
       </c>
       <c r="D100" t="n">
-        <v>23.55654367323704</v>
+        <v>25.00417798327586</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0006299809527169095</v>
+        <v>0.0003408469311959843</v>
       </c>
       <c r="F100" t="n">
-        <v>3.926090612206173</v>
+        <v>4.167362997212644</v>
       </c>
     </row>
     <row r="101">
@@ -2378,19 +2378,19 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>2.088849669583941e-05</v>
+        <v>2.058673917316825e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>5.537850227656172e-07</v>
+        <v>5.491159787132703e-07</v>
       </c>
       <c r="D101" t="n">
-        <v>8.931350404733477</v>
+        <v>8.490728271737748</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1774758460968075</v>
+        <v>0.2043090336592283</v>
       </c>
       <c r="F101" t="n">
-        <v>1.488558400788913</v>
+        <v>1.415121378622958</v>
       </c>
     </row>
     <row r="102">
@@ -2398,19 +2398,19 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>1.471765650113569e-05</v>
+        <v>1.447655711365689e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>4.421925138018052e-07</v>
+        <v>4.403496544068035e-07</v>
       </c>
       <c r="D102" t="n">
-        <v>16.0503476302153</v>
+        <v>15.93668966075848</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01348626774540965</v>
+        <v>0.01409784389548888</v>
       </c>
       <c r="F102" t="n">
-        <v>2.675057938369216</v>
+        <v>2.656114943459747</v>
       </c>
     </row>
     <row r="103">
@@ -2418,19 +2418,19 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>1.433764325283194e-05</v>
+        <v>1.457028587245644e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>4.641135447619939e-07</v>
+        <v>4.640209868573723e-07</v>
       </c>
       <c r="D103" t="n">
-        <v>22.67288557482603</v>
+        <v>12.82651794501825</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0009137758899937399</v>
+        <v>0.04587508207849714</v>
       </c>
       <c r="F103" t="n">
-        <v>3.778814262471005</v>
+        <v>2.137752990836375</v>
       </c>
     </row>
     <row r="104">
@@ -2438,19 +2438,19 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>1.708797019214154e-05</v>
+        <v>1.680248806322563e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>4.633331943875589e-07</v>
+        <v>4.590890749940025e-07</v>
       </c>
       <c r="D104" t="n">
-        <v>23.69557964529858</v>
+        <v>23.31164873427869</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0005940461844721093</v>
+        <v>0.0006985439091939656</v>
       </c>
       <c r="F104" t="n">
-        <v>3.94926327421643</v>
+        <v>3.885274789046448</v>
       </c>
     </row>
     <row r="105">
@@ -2458,19 +2458,19 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>3.069053264599164e-05</v>
+        <v>3.121918573375648e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>8.467718778675024e-07</v>
+        <v>8.55484977935595e-07</v>
       </c>
       <c r="D105" t="n">
-        <v>3.068084605205813</v>
+        <v>2.42859234262707</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8002542781167915</v>
+        <v>0.8763721592900912</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5113474342009688</v>
+        <v>0.404765390437845</v>
       </c>
     </row>
     <row r="106">
@@ -2478,19 +2478,19 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>4.416295805945717e-05</v>
+        <v>4.402631875082423e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.064020799898615e-06</v>
+        <v>1.061573333936083e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>2.942363222293919</v>
+        <v>4.533930034925986</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8160453370335662</v>
+        <v>0.6048174881988442</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4903938703823199</v>
+        <v>0.7556550058209978</v>
       </c>
     </row>
     <row r="107">
@@ -2498,19 +2498,19 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>5.5604274101418e-05</v>
+        <v>5.676190253944992e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1.358024112792164e-06</v>
+        <v>1.378708286919563e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>3.618983888245843</v>
+        <v>3.129169007728049</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7280779759677913</v>
+        <v>0.7924689307072414</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6031639813743072</v>
+        <v>0.5215281679546748</v>
       </c>
     </row>
     <row r="108">
@@ -2518,19 +2518,19 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>5.744013753976281e-05</v>
+        <v>5.759994532330712e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1.26695650744478e-06</v>
+        <v>1.269945995211971e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>1.466947315975009</v>
+        <v>1.556948363691321</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9616598223419818</v>
+        <v>0.9556223257302034</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2444912193291682</v>
+        <v>0.2594913939485534</v>
       </c>
     </row>
     <row r="109">
@@ -2538,19 +2538,19 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>5.894441428341215e-05</v>
+        <v>5.900851256649684e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1.397439326075319e-06</v>
+        <v>1.398954863123226e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>5.51656789210204</v>
+        <v>3.872917954999453</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4794565157870825</v>
+        <v>0.6938692222558005</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9194279820170067</v>
+        <v>0.6454863258332423</v>
       </c>
     </row>
     <row r="110">
@@ -2558,19 +2558,19 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>5.682597524488645e-05</v>
+        <v>5.697231881696744e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.264099257325467e-06</v>
+        <v>1.265697907567201e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>6.727282306571241</v>
+        <v>6.906472094086699</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3468059108136551</v>
+        <v>0.3295833419953896</v>
       </c>
       <c r="F110" t="n">
-        <v>1.121213717761874</v>
+        <v>1.151078682347783</v>
       </c>
     </row>
     <row r="111">
@@ -2578,19 +2578,19 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>5.849833151799799e-05</v>
+        <v>5.840064422211327e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1.304932810279924e-06</v>
+        <v>1.301236515390587e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>8.473334028271218</v>
+        <v>5.719602695570258</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2054347678486338</v>
+        <v>0.4553217196279385</v>
       </c>
       <c r="F111" t="n">
-        <v>1.412222338045203</v>
+        <v>0.9532671159283764</v>
       </c>
     </row>
     <row r="112">
@@ -2598,19 +2598,19 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>6.001217906051153e-05</v>
+        <v>5.919560723232565e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>1.428945480072506e-06</v>
+        <v>1.416224458642372e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>14.07005365854722</v>
+        <v>17.05085109804194</v>
       </c>
       <c r="E112" t="n">
-        <v>0.02886334018729219</v>
+        <v>0.009098164696812154</v>
       </c>
       <c r="F112" t="n">
-        <v>2.345008943091203</v>
+        <v>2.841808516340324</v>
       </c>
     </row>
     <row r="113">
@@ -2618,19 +2618,19 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>6.300982665914819e-05</v>
+        <v>6.477230831999887e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1.404445744780653e-06</v>
+        <v>1.436185608317412e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>4.942748887515485</v>
+        <v>4.499470380050843</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5511767537173815</v>
+        <v>0.6094099171637073</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8237914812525808</v>
+        <v>0.7499117300084738</v>
       </c>
     </row>
     <row r="114">
@@ -2638,19 +2638,19 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>6.620965407872914e-05</v>
+        <v>6.818820290279272e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>1.463898980144404e-06</v>
+        <v>1.501359171504999e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>10.23333779894193</v>
+        <v>6.919202877523055</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1151633739013078</v>
+        <v>0.3283839966270306</v>
       </c>
       <c r="F114" t="n">
-        <v>1.705556299823654</v>
+        <v>1.153200479587176</v>
       </c>
     </row>
     <row r="115">
@@ -2658,19 +2658,19 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>7.059783060625267e-05</v>
+        <v>7.240481263819014e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>1.563426832901694e-06</v>
+        <v>1.597399576420152e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>6.749777512608427</v>
+        <v>3.715805114174004</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3446088245431997</v>
+        <v>0.7150709987472326</v>
       </c>
       <c r="F115" t="n">
-        <v>1.124962918768071</v>
+        <v>0.6193008523623339</v>
       </c>
     </row>
     <row r="116">
@@ -2678,19 +2678,19 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>7.180240590720038e-05</v>
+        <v>7.313406130499496e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>1.603874296348404e-06</v>
+        <v>1.6296534468663e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>12.31741225354199</v>
+        <v>10.95956920729373</v>
       </c>
       <c r="E116" t="n">
-        <v>0.05525096739328994</v>
+        <v>0.08963406117132823</v>
       </c>
       <c r="F116" t="n">
-        <v>2.052902042256999</v>
+        <v>1.826594867882288</v>
       </c>
     </row>
     <row r="117">
@@ -2698,19 +2698,19 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>7.356625243232891e-05</v>
+        <v>7.423022061370565e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>1.725322591111625e-06</v>
+        <v>1.738095241527442e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>16.72236697835691</v>
+        <v>17.40869569332547</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01035961243197886</v>
+        <v>0.007892957486278333</v>
       </c>
       <c r="F117" t="n">
-        <v>2.787061163059485</v>
+        <v>2.901449282220912</v>
       </c>
     </row>
     <row r="118">
@@ -2718,19 +2718,19 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>7.193253549762174e-05</v>
+        <v>7.370690702472859e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1.546725572393221e-06</v>
+        <v>1.578974009950636e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>15.19209533144409</v>
+        <v>14.12634874385271</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01881412621458924</v>
+        <v>0.0282561857229567</v>
       </c>
       <c r="F118" t="n">
-        <v>2.532015888574015</v>
+        <v>2.354391457308785</v>
       </c>
     </row>
     <row r="119">
@@ -2738,19 +2738,19 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>7.137856974452359e-05</v>
+        <v>7.350873310457268e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1.603252777027049e-06</v>
+        <v>1.641241668475801e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>14.32520730186514</v>
+        <v>12.30954474147415</v>
       </c>
       <c r="E119" t="n">
-        <v>0.02620703799411593</v>
+        <v>0.05540896160571798</v>
       </c>
       <c r="F119" t="n">
-        <v>2.387534550310857</v>
+        <v>2.051590790245691</v>
       </c>
     </row>
     <row r="120">
@@ -2758,19 +2758,19 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>5.95800195844239e-05</v>
+        <v>6.184096338022895e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1.338831694910966e-06</v>
+        <v>1.378473354714707e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>10.45882905024181</v>
+        <v>8.409689633534525</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1066125583555562</v>
+        <v>0.2095980194426948</v>
       </c>
       <c r="F120" t="n">
-        <v>1.743138175040301</v>
+        <v>1.401614938922421</v>
       </c>
     </row>
     <row r="121">
@@ -2778,19 +2778,19 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>5.851036988404265e-05</v>
+        <v>5.87332862607652e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>1.418889144038358e-06</v>
+        <v>1.425965338119056e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>19.78434082650125</v>
+        <v>21.27192794389766</v>
       </c>
       <c r="E121" t="n">
-        <v>0.003025026058647705</v>
+        <v>0.001639192979874309</v>
       </c>
       <c r="F121" t="n">
-        <v>3.297390137750208</v>
+        <v>3.545321323982944</v>
       </c>
     </row>
     <row r="122">
@@ -2798,19 +2798,19 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>4.665188185948616e-05</v>
+        <v>4.751028214887355e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1.075408236919364e-06</v>
+        <v>1.089863149136933e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>14.84306857735572</v>
+        <v>10.21800706386035</v>
       </c>
       <c r="E122" t="n">
-        <v>0.02151304170188208</v>
+        <v>0.1157664199922985</v>
       </c>
       <c r="F122" t="n">
-        <v>2.473844762892619</v>
+        <v>1.703001177310058</v>
       </c>
     </row>
     <row r="123">
@@ -2818,19 +2818,19 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>3.70939689652145e-05</v>
+        <v>3.798198300193138e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>8.559751823934976e-07</v>
+        <v>8.693779618977655e-07</v>
       </c>
       <c r="D123" t="n">
-        <v>6.355190836685299</v>
+        <v>4.979647942891869</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3845992536644182</v>
+        <v>0.5464260697587564</v>
       </c>
       <c r="F123" t="n">
-        <v>1.059198472780883</v>
+        <v>0.8299413238153116</v>
       </c>
     </row>
     <row r="124">
@@ -2838,19 +2838,19 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>3.982871036991521e-05</v>
+        <v>3.956891925689291e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>1.047991305283955e-06</v>
+        <v>1.048833277480302e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>10.63821917294028</v>
+        <v>11.45895678202236</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1002222079431249</v>
+        <v>0.07518612017291382</v>
       </c>
       <c r="F124" t="n">
-        <v>1.77303652882338</v>
+        <v>1.90982613033706</v>
       </c>
     </row>
     <row r="125">
@@ -2858,19 +2858,19 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>5.064933587323685e-05</v>
+        <v>5.190621744303072e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>1.183924009422922e-06</v>
+        <v>1.204991378324257e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>21.77840313421547</v>
+        <v>17.83080818253856</v>
       </c>
       <c r="E125" t="n">
-        <v>0.001328057329303417</v>
+        <v>0.006669220746966746</v>
       </c>
       <c r="F125" t="n">
-        <v>3.629733855702578</v>
+        <v>2.971801363756427</v>
       </c>
     </row>
     <row r="126">
@@ -2878,19 +2878,19 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>6.868528648583558e-05</v>
+        <v>7.038248387495766e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1.545591185845637e-06</v>
+        <v>1.576136487524084e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>16.28727654711975</v>
+        <v>12.97557819934497</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0122923416656749</v>
+        <v>0.04342541038782047</v>
       </c>
       <c r="F126" t="n">
-        <v>2.714546091186625</v>
+        <v>2.162596366557495</v>
       </c>
     </row>
     <row r="127">
@@ -2898,19 +2898,19 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>6.575908140725713e-05</v>
+        <v>6.718910824523651e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>1.477811416320493e-06</v>
+        <v>1.498784613768031e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>9.640321662849903</v>
+        <v>7.488170617315429</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1406390438487442</v>
+        <v>0.2780478419309054</v>
       </c>
       <c r="F127" t="n">
-        <v>1.60672027714165</v>
+        <v>1.248028436219238</v>
       </c>
     </row>
     <row r="128">
@@ -2918,19 +2918,19 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001070486138941183</v>
+        <v>0.0001097142866188619</v>
       </c>
       <c r="C128" t="n">
-        <v>2.381368007394073e-06</v>
+        <v>2.428824044321932e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>20.93506640435089</v>
+        <v>16.68499530400759</v>
       </c>
       <c r="E128" t="n">
-        <v>0.001884552001905633</v>
+        <v>0.0105133897050089</v>
       </c>
       <c r="F128" t="n">
-        <v>3.489177734058483</v>
+        <v>2.780832550667931</v>
       </c>
     </row>
     <row r="129">
@@ -2938,19 +2938,19 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001957405071399483</v>
+        <v>0.0001992946196179218</v>
       </c>
       <c r="C129" t="n">
-        <v>4.361461390805315e-06</v>
+        <v>4.418267472646368e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>15.79792445954447</v>
+        <v>12.91682444232706</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01488068036175434</v>
+        <v>0.04437596087086818</v>
       </c>
       <c r="F129" t="n">
-        <v>2.632987409924079</v>
+        <v>2.152804073721176</v>
       </c>
     </row>
     <row r="130">
@@ -2958,19 +2958,19 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002141362072472039</v>
+        <v>0.0002172449330780734</v>
       </c>
       <c r="C130" t="n">
-        <v>4.851012212581849e-06</v>
+        <v>4.903344030860668e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>16.46895846854885</v>
+        <v>16.22418279504481</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01144640567188176</v>
+        <v>0.01259995287186194</v>
       </c>
       <c r="F130" t="n">
-        <v>2.744826411424808</v>
+        <v>2.704030465840801</v>
       </c>
     </row>
     <row r="131">
@@ -2978,19 +2978,19 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002273997290285526</v>
+        <v>0.0002285695975298542</v>
       </c>
       <c r="C131" t="n">
-        <v>5.278412098695783e-06</v>
+        <v>5.30450149846444e-06</v>
       </c>
       <c r="D131" t="n">
-        <v>20.448296893512</v>
+        <v>22.1549797915611</v>
       </c>
       <c r="E131" t="n">
-        <v>0.002303664518675936</v>
+        <v>0.001135005151607787</v>
       </c>
       <c r="F131" t="n">
-        <v>3.408049482252</v>
+        <v>3.692496631926851</v>
       </c>
     </row>
     <row r="132">
@@ -2998,19 +2998,19 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002586319508864519</v>
+        <v>0.0002629295789666952</v>
       </c>
       <c r="C132" t="n">
-        <v>5.682583527878597e-06</v>
+        <v>5.762725689017953e-06</v>
       </c>
       <c r="D132" t="n">
-        <v>22.85987184420126</v>
+        <v>22.82050150352721</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0008447953880828833</v>
+        <v>0.000858880802619039</v>
       </c>
       <c r="F132" t="n">
-        <v>3.80997864070021</v>
+        <v>3.803416917254535</v>
       </c>
     </row>
     <row r="133">
@@ -3018,19 +3018,19 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002940384934358356</v>
+        <v>0.0002997197647750214</v>
       </c>
       <c r="C133" t="n">
-        <v>6.342946794925095e-06</v>
+        <v>6.443795851487089e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>18.43671305478026</v>
+        <v>16.78248473249955</v>
       </c>
       <c r="E133" t="n">
-        <v>0.005228658324996964</v>
+        <v>0.01011678143174688</v>
       </c>
       <c r="F133" t="n">
-        <v>3.072785509130043</v>
+        <v>2.797080788749926</v>
       </c>
     </row>
     <row r="134">
@@ -3038,19 +3038,19 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003092872380505503</v>
+        <v>0.0003144915900055066</v>
       </c>
       <c r="C134" t="n">
-        <v>6.656246175828631e-06</v>
+        <v>6.749228045893375e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>21.85201822357139</v>
+        <v>21.29233046831767</v>
       </c>
       <c r="E134" t="n">
-        <v>0.001287945837741371</v>
+        <v>0.001625381518138943</v>
       </c>
       <c r="F134" t="n">
-        <v>3.642003037261899</v>
+        <v>3.548721744719611</v>
       </c>
     </row>
     <row r="135">
@@ -3058,19 +3058,19 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0003007813546785937</v>
+        <v>0.0003039171097448777</v>
       </c>
       <c r="C135" t="n">
-        <v>6.648564445445713e-06</v>
+        <v>6.70486683207534e-06</v>
       </c>
       <c r="D135" t="n">
-        <v>27.1340253860948</v>
+        <v>26.09865014025849</v>
       </c>
       <c r="E135" t="n">
-        <v>0.000136670283244319</v>
+        <v>0.0002134154017470734</v>
       </c>
       <c r="F135" t="n">
-        <v>4.522337564349133</v>
+        <v>4.349775023376415</v>
       </c>
     </row>
     <row r="136">
@@ -3078,19 +3078,19 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002733638720351453</v>
+        <v>0.0002770822337786914</v>
       </c>
       <c r="C136" t="n">
-        <v>6.002042348664372e-06</v>
+        <v>6.066220848914763e-06</v>
       </c>
       <c r="D136" t="n">
-        <v>23.12148512924933</v>
+        <v>22.50139516691107</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0007567944029161417</v>
+        <v>0.0009818834220358581</v>
       </c>
       <c r="F136" t="n">
-        <v>3.853580854874889</v>
+        <v>3.750232527818512</v>
       </c>
     </row>
     <row r="137">
@@ -3098,19 +3098,19 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0002201216338402711</v>
+        <v>0.000220523940591739</v>
       </c>
       <c r="C137" t="n">
-        <v>5.008184091302893e-06</v>
+        <v>5.013829555758349e-06</v>
       </c>
       <c r="D137" t="n">
-        <v>34.10715994528865</v>
+        <v>37.35276531195173</v>
       </c>
       <c r="E137" t="n">
-        <v>6.41433184637822e-06</v>
+        <v>1.502902796767716e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>5.684526657548108</v>
+        <v>6.225460885325288</v>
       </c>
     </row>
     <row r="138">
@@ -3118,19 +3118,19 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001550028923714765</v>
+        <v>0.0001587868820171713</v>
       </c>
       <c r="C138" t="n">
-        <v>3.517555583491223e-06</v>
+        <v>3.579643834865418e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>40.20853857075855</v>
+        <v>35.68520690486051</v>
       </c>
       <c r="E138" t="n">
-        <v>4.144874879616324e-07</v>
+        <v>3.173431246876019e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>6.701423095126425</v>
+        <v>5.947534484143418</v>
       </c>
     </row>
     <row r="139">
@@ -3138,19 +3138,19 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0001053886931345658</v>
+        <v>0.0001066864880411791</v>
       </c>
       <c r="C139" t="n">
-        <v>2.486261774952258e-06</v>
+        <v>2.505528213951502e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>23.34680271019023</v>
+        <v>21.91517162268938</v>
       </c>
       <c r="E139" t="n">
-        <v>0.000688268908141719</v>
+        <v>0.001254482938099867</v>
       </c>
       <c r="F139" t="n">
-        <v>3.891133785031704</v>
+        <v>3.652528603781564</v>
       </c>
     </row>
     <row r="140">
@@ -3158,19 +3158,19 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>8.677669469968032e-05</v>
+        <v>8.743624397174532e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>2.213329547886712e-06</v>
+        <v>2.225857650412971e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>26.2573353974676</v>
+        <v>22.81168527633488</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0001993584611063389</v>
+        <v>0.0008620664218696293</v>
       </c>
       <c r="F140" t="n">
-        <v>4.3762225662446</v>
+        <v>3.801947546055814</v>
       </c>
     </row>
     <row r="141">
@@ -3178,19 +3178,19 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>7.012069781918701e-05</v>
+        <v>7.081001968860076e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>1.691490688399419e-06</v>
+        <v>1.701385282169782e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>25.83189906696283</v>
+        <v>25.72187239331492</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0002392803020610703</v>
+        <v>0.0002508280608659225</v>
       </c>
       <c r="F141" t="n">
-        <v>4.305316511160471</v>
+        <v>4.286978732219153</v>
       </c>
     </row>
     <row r="142">
@@ -3198,19 +3198,19 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>5.947359085101448e-05</v>
+        <v>6.062649460995489e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>1.542405530179501e-06</v>
+        <v>1.562699575873458e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>29.12947612370494</v>
+        <v>28.26155043790582</v>
       </c>
       <c r="E142" t="n">
-        <v>5.74985970375207e-05</v>
+        <v>8.388175460588154e-05</v>
       </c>
       <c r="F142" t="n">
-        <v>4.854912687284157</v>
+        <v>4.710258406317636</v>
       </c>
     </row>
     <row r="143">
@@ -3218,19 +3218,19 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>6.638525024251087e-05</v>
+        <v>6.667821058982673e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>1.732969644317908e-06</v>
+        <v>1.740838230734387e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>23.14276516003864</v>
+        <v>23.86009974152647</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0007500458982283045</v>
+        <v>0.0005541221468662451</v>
       </c>
       <c r="F143" t="n">
-        <v>3.857127526673107</v>
+        <v>3.976683290254412</v>
       </c>
     </row>
     <row r="144">
@@ -3238,19 +3238,19 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002453254198474848</v>
+        <v>0.0002478747694312454</v>
       </c>
       <c r="C144" t="n">
-        <v>5.672263399080761e-06</v>
+        <v>5.7126579194357e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>33.80685654509996</v>
+        <v>30.61014311088594</v>
       </c>
       <c r="E144" t="n">
-        <v>7.330432297722802e-06</v>
+        <v>3.008415450808366e-05</v>
       </c>
       <c r="F144" t="n">
-        <v>5.634476090849994</v>
+        <v>5.101690518480989</v>
       </c>
     </row>
     <row r="145">
@@ -3258,19 +3258,19 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.000465818919601236</v>
+        <v>0.0004698265383468304</v>
       </c>
       <c r="C145" t="n">
-        <v>9.672909302760485e-06</v>
+        <v>9.742945561241323e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>43.33371830243335</v>
+        <v>41.54312946896658</v>
       </c>
       <c r="E145" t="n">
-        <v>1.001843274874979e-07</v>
+        <v>2.263021145110482e-07</v>
       </c>
       <c r="F145" t="n">
-        <v>7.222286383738893</v>
+        <v>6.92385491149443</v>
       </c>
     </row>
     <row r="146">
@@ -3278,19 +3278,19 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0005183771035610026</v>
+        <v>0.0005207182265539119</v>
       </c>
       <c r="C146" t="n">
-        <v>1.098826511706895e-05</v>
+        <v>1.10282433318081e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>42.66320060229288</v>
+        <v>42.34647276988184</v>
       </c>
       <c r="E146" t="n">
-        <v>1.359826111073995e-07</v>
+        <v>1.570691492917572e-07</v>
       </c>
       <c r="F146" t="n">
-        <v>7.110533433715481</v>
+        <v>7.057745461646974</v>
       </c>
     </row>
     <row r="147">
@@ -3298,19 +3298,19 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0005445917143907304</v>
+        <v>0.0005491568554048617</v>
       </c>
       <c r="C147" t="n">
-        <v>1.167327718890806e-05</v>
+        <v>1.174914949143274e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>38.66921773180876</v>
+        <v>36.43486582701452</v>
       </c>
       <c r="E147" t="n">
-        <v>8.309535371953639e-07</v>
+        <v>2.268843479988251e-06</v>
       </c>
       <c r="F147" t="n">
-        <v>6.444869621968127</v>
+        <v>6.072477637835753</v>
       </c>
     </row>
     <row r="148">
@@ -3318,19 +3318,19 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0005334356882059737</v>
+        <v>0.0005368418332673929</v>
       </c>
       <c r="C148" t="n">
-        <v>1.143007197452433e-05</v>
+        <v>1.148646143589495e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>40.44254375525257</v>
+        <v>39.09852454792084</v>
       </c>
       <c r="E148" t="n">
-        <v>3.728115215977634e-07</v>
+        <v>6.846253854360301e-07</v>
       </c>
       <c r="F148" t="n">
-        <v>6.740423959208762</v>
+        <v>6.516420757986807</v>
       </c>
     </row>
     <row r="149">
@@ -3338,19 +3338,19 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0005319404895287058</v>
+        <v>0.0005335601610021873</v>
       </c>
       <c r="C149" t="n">
-        <v>1.136952653093278e-05</v>
+        <v>1.138978608180068e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>34.14099618793809</v>
+        <v>33.71072572567351</v>
       </c>
       <c r="E149" t="n">
-        <v>6.318515722004564e-06</v>
+        <v>7.650263090026808e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>5.690166031323014</v>
+        <v>5.618454287612251</v>
       </c>
     </row>
     <row r="150">
@@ -3358,19 +3358,19 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0006568190911971688</v>
+        <v>0.0006581566909017576</v>
       </c>
       <c r="C150" t="n">
-        <v>1.390401386248194e-05</v>
+        <v>1.392549957858827e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>40.25429962914981</v>
+        <v>39.32956849562581</v>
       </c>
       <c r="E150" t="n">
-        <v>4.059883914489989e-07</v>
+        <v>6.167942029265756e-07</v>
       </c>
       <c r="F150" t="n">
-        <v>6.709049938191634</v>
+        <v>6.554928082604301</v>
       </c>
     </row>
     <row r="151">
@@ -3378,19 +3378,19 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0006854339132301826</v>
+        <v>0.0006859164615625576</v>
       </c>
       <c r="C151" t="n">
-        <v>1.436500033192262e-05</v>
+        <v>1.436718377594346e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>36.21432348644752</v>
+        <v>35.88753427030602</v>
       </c>
       <c r="E151" t="n">
-        <v>2.50443569681006e-06</v>
+        <v>2.898892747009779e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>6.035720581074586</v>
+        <v>5.98125571171767</v>
       </c>
     </row>
     <row r="152">
@@ -3398,19 +3398,19 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.000686122349240837</v>
+        <v>0.0006893676525251192</v>
       </c>
       <c r="C152" t="n">
-        <v>1.44640990710905e-05</v>
+        <v>1.451461701363893e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>33.22413833589453</v>
+        <v>30.78326587912363</v>
       </c>
       <c r="E152" t="n">
-        <v>9.494206182449256e-06</v>
+        <v>2.788216917151239e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>5.537356389315755</v>
+        <v>5.130544313187271</v>
       </c>
     </row>
     <row r="153">
@@ -3418,19 +3418,19 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006942911668936306</v>
+        <v>0.0006965537864574773</v>
       </c>
       <c r="C153" t="n">
-        <v>1.454472393205108e-05</v>
+        <v>1.458440797169465e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>50.05089215321311</v>
+        <v>49.22914372000098</v>
       </c>
       <c r="E153" t="n">
-        <v>4.591916150510181e-09</v>
+        <v>6.708615427108538e-09</v>
       </c>
       <c r="F153" t="n">
-        <v>8.341815358868852</v>
+        <v>8.204857286666829</v>
       </c>
     </row>
     <row r="154">
@@ -3438,19 +3438,19 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0007035761529510761</v>
+        <v>0.0007031063884463482</v>
       </c>
       <c r="C154" t="n">
-        <v>1.481998673110436e-05</v>
+        <v>1.48228496454221e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>42.86866887125579</v>
+        <v>44.68360099146454</v>
       </c>
       <c r="E154" t="n">
-        <v>1.238355262401403e-07</v>
+        <v>5.408968015407302e-08</v>
       </c>
       <c r="F154" t="n">
-        <v>7.144778145209298</v>
+        <v>7.447266831910757</v>
       </c>
     </row>
     <row r="155">
@@ -3458,19 +3458,19 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006942508549231804</v>
+        <v>0.0006960133351449025</v>
       </c>
       <c r="C155" t="n">
-        <v>1.457938574659743e-05</v>
+        <v>1.461425988835246e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>34.93599994224257</v>
+        <v>35.11908620416339</v>
       </c>
       <c r="E155" t="n">
-        <v>4.434301462124818e-06</v>
+        <v>4.086494090359917e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>5.822666657040428</v>
+        <v>5.853181034027233</v>
       </c>
     </row>
     <row r="156">
@@ -3478,19 +3478,19 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0006804349725821513</v>
+        <v>0.0006805392527345154</v>
       </c>
       <c r="C156" t="n">
-        <v>1.4152913661433e-05</v>
+        <v>1.415442099459326e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>33.50690388292561</v>
+        <v>33.78979284759024</v>
       </c>
       <c r="E156" t="n">
-        <v>8.374899669348417e-06</v>
+        <v>7.38621911267183e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>5.584483980487602</v>
+        <v>5.63163214126504</v>
       </c>
     </row>
     <row r="157">
@@ -3498,19 +3498,19 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005685305743042315</v>
+        <v>0.0005694109074046689</v>
       </c>
       <c r="C157" t="n">
-        <v>1.174800364942944e-05</v>
+        <v>1.17616182114347e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>38.99953255279002</v>
+        <v>38.7489150132774</v>
       </c>
       <c r="E157" t="n">
-        <v>7.159111831283103e-07</v>
+        <v>8.016172664885397e-07</v>
       </c>
       <c r="F157" t="n">
-        <v>6.49992209213167</v>
+        <v>6.4581525022129</v>
       </c>
     </row>
     <row r="158">
@@ -3518,19 +3518,19 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.000418319283906827</v>
+        <v>0.0004191587079796812</v>
       </c>
       <c r="C158" t="n">
-        <v>9.031089665022835e-06</v>
+        <v>9.038292175208519e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>33.98623640546867</v>
+        <v>32.66721622341138</v>
       </c>
       <c r="E158" t="n">
-        <v>6.768692391298086e-06</v>
+        <v>1.215052769817255e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>5.664372734244778</v>
+        <v>5.44453603723523</v>
       </c>
     </row>
     <row r="159">
@@ -3538,19 +3538,19 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0003050320556283494</v>
+        <v>0.0003055414650989323</v>
       </c>
       <c r="C159" t="n">
-        <v>6.472583496333757e-06</v>
+        <v>6.486646843142827e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>28.21670524599702</v>
+        <v>30.51299194580781</v>
       </c>
       <c r="E159" t="n">
-        <v>8.553089024521822e-05</v>
+        <v>3.139439525286489e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>4.702784207666171</v>
+        <v>5.085498657634635</v>
       </c>
     </row>
     <row r="160">
@@ -3558,19 +3558,19 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0003197518673630845</v>
+        <v>0.0003220374631528904</v>
       </c>
       <c r="C160" t="n">
-        <v>7.039517016766824e-06</v>
+        <v>7.077535229769937e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>43.70927272998212</v>
+        <v>42.73658127347549</v>
       </c>
       <c r="E160" t="n">
-        <v>8.4411440700177e-08</v>
+        <v>1.315140096250526e-07</v>
       </c>
       <c r="F160" t="n">
-        <v>7.284878788330353</v>
+        <v>7.122763545579248</v>
       </c>
     </row>
     <row r="161">
@@ -3578,19 +3578,19 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0002452407180773655</v>
+        <v>0.0002477000831803844</v>
       </c>
       <c r="C161" t="n">
-        <v>5.284380172471922e-06</v>
+        <v>5.324947144407965e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>39.33839081383967</v>
+        <v>38.01013452494053</v>
       </c>
       <c r="E161" t="n">
-        <v>6.143409990743308e-07</v>
+        <v>1.11824773867447e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>6.556398468973278</v>
+        <v>6.335022420823422</v>
       </c>
     </row>
     <row r="162">
@@ -3598,19 +3598,19 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0002454564387095172</v>
+        <v>0.0002475411727236625</v>
       </c>
       <c r="C162" t="n">
-        <v>5.324940597413423e-06</v>
+        <v>5.358093241311073e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>31.05416788259363</v>
+        <v>30.44540731140811</v>
       </c>
       <c r="E162" t="n">
-        <v>2.475270531970659e-05</v>
+        <v>3.233905718617886e-05</v>
       </c>
       <c r="F162" t="n">
-        <v>5.175694647098939</v>
+        <v>5.074234551901353</v>
       </c>
     </row>
     <row r="163">
@@ -3618,19 +3618,19 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002365801076368634</v>
+        <v>0.0002364161562962283</v>
       </c>
       <c r="C163" t="n">
-        <v>5.095184510890913e-06</v>
+        <v>5.093171506465873e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>38.97285051782029</v>
+        <v>40.61218773333827</v>
       </c>
       <c r="E163" t="n">
-        <v>7.245843807138661e-07</v>
+        <v>3.452302245857365e-07</v>
       </c>
       <c r="F163" t="n">
-        <v>6.495475086303382</v>
+        <v>6.768697955556379</v>
       </c>
     </row>
     <row r="164">
@@ -3638,19 +3638,19 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0002173271082574495</v>
+        <v>0.0002191803606843037</v>
       </c>
       <c r="C164" t="n">
-        <v>4.71397712898876e-06</v>
+        <v>4.743701705765158e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>27.60560379418757</v>
+        <v>28.96168574182025</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0001114691317139514</v>
+        <v>6.186107192898421e-05</v>
       </c>
       <c r="F164" t="n">
-        <v>4.600933965697927</v>
+        <v>4.826947623636708</v>
       </c>
     </row>
     <row r="165">
@@ -3658,19 +3658,19 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002019536382479551</v>
+        <v>0.0002021480193506595</v>
       </c>
       <c r="C165" t="n">
-        <v>4.471403491728633e-06</v>
+        <v>4.478530802762387e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>25.88002743141472</v>
+        <v>27.83160053311626</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0002343953664394002</v>
+        <v>0.0001010777423296371</v>
       </c>
       <c r="F165" t="n">
-        <v>4.313337905235787</v>
+        <v>4.638600088852709</v>
       </c>
     </row>
     <row r="166">
@@ -3678,19 +3678,19 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001940919271330771</v>
+        <v>0.0001944998814424082</v>
       </c>
       <c r="C166" t="n">
-        <v>4.489399040526383e-06</v>
+        <v>4.493320346600556e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>33.96939976732508</v>
+        <v>34.33518701727037</v>
       </c>
       <c r="E166" t="n">
-        <v>6.819547888823888e-06</v>
+        <v>5.795454412085617e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>5.661566627887513</v>
+        <v>5.722531169545062</v>
       </c>
     </row>
     <row r="167">
@@ -3698,19 +3698,19 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001848933842835439</v>
+        <v>0.0001861267784714894</v>
       </c>
       <c r="C167" t="n">
-        <v>4.027056681579245e-06</v>
+        <v>4.04870231530286e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>34.42644601674278</v>
+        <v>33.9985143578587</v>
       </c>
       <c r="E167" t="n">
-        <v>5.564717110643598e-06</v>
+        <v>6.731843961252812e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>5.737741002790464</v>
+        <v>5.666419059643116</v>
       </c>
     </row>
     <row r="168">
@@ -3718,19 +3718,19 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001553744966058897</v>
+        <v>0.0001564904601973797</v>
       </c>
       <c r="C168" t="n">
-        <v>3.423519338897061e-06</v>
+        <v>3.438361379899622e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>28.08656860254546</v>
+        <v>22.81189326245169</v>
       </c>
       <c r="E168" t="n">
-        <v>9.050015632742387e-05</v>
+        <v>0.0008619911355677133</v>
       </c>
       <c r="F168" t="n">
-        <v>4.681094767090911</v>
+        <v>3.801982210408616</v>
       </c>
     </row>
     <row r="169">
@@ -3738,19 +3738,19 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.000140545477716342</v>
+        <v>0.0001409299925319789</v>
       </c>
       <c r="C169" t="n">
-        <v>3.061851795567089e-06</v>
+        <v>3.068565387405996e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>30.48635191727509</v>
+        <v>29.51304256130745</v>
       </c>
       <c r="E169" t="n">
-        <v>3.176344747529103e-05</v>
+        <v>4.863631969692892e-05</v>
       </c>
       <c r="F169" t="n">
-        <v>5.081058652879181</v>
+        <v>4.918840426884574</v>
       </c>
     </row>
     <row r="170">
@@ -3758,19 +3758,19 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>9.010938451685468e-05</v>
+        <v>8.974641391766986e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>2.246557299801839e-06</v>
+        <v>2.239761961528335e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>30.06732922296379</v>
+        <v>26.02603264729639</v>
       </c>
       <c r="E170" t="n">
-        <v>3.816665329728599e-05</v>
+        <v>0.0002201699983144214</v>
       </c>
       <c r="F170" t="n">
-        <v>5.011221537160631</v>
+        <v>4.337672107882731</v>
       </c>
     </row>
     <row r="171">
@@ -3778,19 +3778,19 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>6.626940236435312e-05</v>
+        <v>6.648458147098971e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>1.582699907036194e-06</v>
+        <v>1.585336529545203e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>32.03619454935408</v>
+        <v>29.08085958067187</v>
       </c>
       <c r="E171" t="n">
-        <v>1.605897132346252e-05</v>
+        <v>5.873029795832049e-05</v>
       </c>
       <c r="F171" t="n">
-        <v>5.339365758225679</v>
+        <v>4.846809930111978</v>
       </c>
     </row>
     <row r="172">
@@ -3798,19 +3798,19 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>7.31132544100708e-05</v>
+        <v>7.292988436652472e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1.805456631117451e-06</v>
+        <v>1.800448491725652e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>34.14748460454244</v>
+        <v>32.53863912176335</v>
       </c>
       <c r="E172" t="n">
-        <v>6.300305040201362e-06</v>
+        <v>1.286170528031219e-05</v>
       </c>
       <c r="F172" t="n">
-        <v>5.691247434090407</v>
+        <v>5.423106520293892</v>
       </c>
     </row>
     <row r="173">
@@ -3818,19 +3818,19 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>9.754533674009223e-05</v>
+        <v>9.81756725417343e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>2.588435546684256e-06</v>
+        <v>2.602467246712941e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>18.07602827596792</v>
+        <v>19.10948166547074</v>
       </c>
       <c r="E173" t="n">
-        <v>0.00604497917696654</v>
+        <v>0.003982675882701654</v>
       </c>
       <c r="F173" t="n">
-        <v>3.012671379327986</v>
+        <v>3.18491361091179</v>
       </c>
     </row>
     <row r="174">
@@ -3838,19 +3838,19 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001263596738411419</v>
+        <v>0.0001269870829311075</v>
       </c>
       <c r="C174" t="n">
-        <v>2.955059161389032e-06</v>
+        <v>2.97031348733484e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>29.36782572068124</v>
+        <v>30.91118558544312</v>
       </c>
       <c r="E174" t="n">
-        <v>5.182012666888878e-05</v>
+        <v>2.635841402830564e-05</v>
       </c>
       <c r="F174" t="n">
-        <v>4.89463762011354</v>
+        <v>5.15186426424052</v>
       </c>
     </row>
     <row r="175">
@@ -3858,19 +3858,19 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001394794558210476</v>
+        <v>0.0001390212658279358</v>
       </c>
       <c r="C175" t="n">
-        <v>3.648061152533539e-06</v>
+        <v>3.648935305844561e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>22.37344018170966</v>
+        <v>21.73199804438569</v>
       </c>
       <c r="E175" t="n">
-        <v>0.001035922566618668</v>
+        <v>0.001353969056270934</v>
       </c>
       <c r="F175" t="n">
-        <v>3.72890669695161</v>
+        <v>3.621999674064281</v>
       </c>
     </row>
     <row r="176">
@@ -3878,19 +3878,19 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.000192945337448518</v>
+        <v>0.0001921112760534588</v>
       </c>
       <c r="C176" t="n">
-        <v>5.253498264783793e-06</v>
+        <v>5.225862727169231e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>22.33824882802071</v>
+        <v>17.78308079582485</v>
       </c>
       <c r="E176" t="n">
-        <v>0.001051289665462963</v>
+        <v>0.006797780062706697</v>
       </c>
       <c r="F176" t="n">
-        <v>3.723041471336785</v>
+        <v>2.963846799304143</v>
       </c>
     </row>
     <row r="177">
@@ -3898,19 +3898,19 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002872150843643408</v>
+        <v>0.00028732467119647</v>
       </c>
       <c r="C177" t="n">
-        <v>7.149891646968395e-06</v>
+        <v>7.165257914499732e-06</v>
       </c>
       <c r="D177" t="n">
-        <v>25.12096312997803</v>
+        <v>24.74479288779611</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0003242856627772056</v>
+        <v>0.0003806684441524042</v>
       </c>
       <c r="F177" t="n">
-        <v>4.186827188329672</v>
+        <v>4.124132147966018</v>
       </c>
     </row>
     <row r="178">
@@ -3918,19 +3918,19 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003412733542513979</v>
+        <v>0.000339070259059901</v>
       </c>
       <c r="C178" t="n">
-        <v>8.746252085770983e-06</v>
+        <v>8.704833672701416e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>22.94190923831431</v>
+        <v>22.45322526915081</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0008161699794914802</v>
+        <v>0.001001894268054859</v>
       </c>
       <c r="F178" t="n">
-        <v>3.823651539719052</v>
+        <v>3.742204211525136</v>
       </c>
     </row>
     <row r="179">
@@ -3938,19 +3938,19 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.000418132634451354</v>
+        <v>0.0004171552641139275</v>
       </c>
       <c r="C179" t="n">
-        <v>1.026572188430363e-05</v>
+        <v>1.02632688706079e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>28.69915335197145</v>
+        <v>27.99683741871279</v>
       </c>
       <c r="E179" t="n">
-        <v>6.935219669706189e-05</v>
+        <v>9.409169170607855e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>4.783192225328575</v>
+        <v>4.666139569785465</v>
       </c>
     </row>
     <row r="180">
@@ -3958,19 +3958,19 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005561997288203852</v>
+        <v>0.0005545883779669875</v>
       </c>
       <c r="C180" t="n">
-        <v>8.860588387212016e-06</v>
+        <v>8.847453477715819e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>97.77447708501516</v>
+        <v>99.37860112560169</v>
       </c>
       <c r="E180" t="n">
-        <v>4.472240255141405e-15</v>
+        <v>2.188865585361229e-15</v>
       </c>
       <c r="F180" t="n">
-        <v>7.521113621924243</v>
+        <v>7.644507778892438</v>
       </c>
     </row>
     <row r="181">
@@ -3978,19 +3978,19 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0008350722239527776</v>
+        <v>0.0008361742413456134</v>
       </c>
       <c r="C181" t="n">
-        <v>1.907884019245718e-05</v>
+        <v>1.910411264437035e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>33.74380866977424</v>
+        <v>31.8934007007494</v>
       </c>
       <c r="E181" t="n">
-        <v>7.538662299782908e-06</v>
+        <v>1.710353687499672e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>5.62396811162904</v>
+        <v>5.315566783458234</v>
       </c>
     </row>
     <row r="182">
@@ -3998,19 +3998,19 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.00107027691359541</v>
+        <v>0.00106434906269543</v>
       </c>
       <c r="C182" t="n">
-        <v>2.422594561228349e-05</v>
+        <v>2.415006718400914e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>35.13961318583254</v>
+        <v>35.34589540171216</v>
       </c>
       <c r="E182" t="n">
-        <v>4.049228718933941e-06</v>
+        <v>3.692970686471776e-06</v>
       </c>
       <c r="F182" t="n">
-        <v>5.856602197638757</v>
+        <v>5.890982566952026</v>
       </c>
     </row>
     <row r="183">
@@ -4018,19 +4018,19 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001397147454443584</v>
+        <v>0.001396827076118755</v>
       </c>
       <c r="C183" t="n">
-        <v>2.916413885209433e-05</v>
+        <v>2.917260537940123e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>38.10091427105844</v>
+        <v>38.75110662755928</v>
       </c>
       <c r="E183" t="n">
-        <v>1.073467961686299e-06</v>
+        <v>8.008252579269479e-07</v>
       </c>
       <c r="F183" t="n">
-        <v>6.35015237850974</v>
+        <v>6.45851777125988</v>
       </c>
     </row>
     <row r="184">
@@ -4038,19 +4038,19 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001633001390827575</v>
+        <v>0.001633824751101966</v>
       </c>
       <c r="C184" t="n">
-        <v>3.393200577108488e-05</v>
+        <v>3.396338232571083e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>54.33989898983685</v>
+        <v>55.17564355206646</v>
       </c>
       <c r="E184" t="n">
-        <v>6.299846105890897e-10</v>
+        <v>4.271933141282781e-10</v>
       </c>
       <c r="F184" t="n">
-        <v>9.056649831639474</v>
+        <v>9.195940592011077</v>
       </c>
     </row>
     <row r="185">
@@ -4058,19 +4058,19 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001589622362654387</v>
+        <v>0.001593662417791506</v>
       </c>
       <c r="C185" t="n">
-        <v>3.198767317352137e-05</v>
+        <v>3.206817901905895e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>47.37150296106253</v>
+        <v>46.86896485965812</v>
       </c>
       <c r="E185" t="n">
-        <v>1.577551814947749e-08</v>
+        <v>1.987177616892349e-08</v>
       </c>
       <c r="F185" t="n">
-        <v>7.895250493510422</v>
+        <v>7.811494143276353</v>
       </c>
     </row>
     <row r="186">
@@ -4078,19 +4078,19 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001562053955198163</v>
+        <v>0.001562383502635658</v>
       </c>
       <c r="C186" t="n">
-        <v>3.185185442838508e-05</v>
+        <v>3.186420245516142e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>47.80278031660804</v>
+        <v>47.1028411295784</v>
       </c>
       <c r="E186" t="n">
-        <v>1.293823860118706e-08</v>
+        <v>1.784806594230416e-08</v>
       </c>
       <c r="F186" t="n">
-        <v>7.967130052768006</v>
+        <v>7.8504735215964</v>
       </c>
     </row>
     <row r="187">
@@ -4098,19 +4098,19 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001472050119289314</v>
+        <v>0.001472240960674079</v>
       </c>
       <c r="C187" t="n">
-        <v>3.024856879714836e-05</v>
+        <v>3.026475814869916e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>46.05681528306117</v>
+        <v>45.69429434749357</v>
       </c>
       <c r="E187" t="n">
-        <v>2.884437757992302e-08</v>
+        <v>3.405774840582964e-08</v>
       </c>
       <c r="F187" t="n">
-        <v>7.676135880510195</v>
+        <v>7.615715724582262</v>
       </c>
     </row>
     <row r="188">
@@ -4118,19 +4118,19 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001277864502124979</v>
+        <v>0.001279980155535748</v>
       </c>
       <c r="C188" t="n">
-        <v>2.551942855727776e-05</v>
+        <v>2.556045627515931e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>49.37509706746491</v>
+        <v>48.83784331315513</v>
       </c>
       <c r="E188" t="n">
-        <v>6.272012238534609e-09</v>
+        <v>8.034390874521595e-09</v>
       </c>
       <c r="F188" t="n">
-        <v>8.229182844577485</v>
+        <v>8.139640552192523</v>
       </c>
     </row>
     <row r="189">
@@ -4138,19 +4138,19 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001214990858556886</v>
+        <v>0.001216568840979202</v>
       </c>
       <c r="C189" t="n">
-        <v>2.447357961752949e-05</v>
+        <v>2.450273520726345e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>52.65192005041973</v>
+        <v>52.22384856948026</v>
       </c>
       <c r="E189" t="n">
-        <v>1.378741712529206e-09</v>
+        <v>1.681188813205165e-09</v>
       </c>
       <c r="F189" t="n">
-        <v>8.775320008403288</v>
+        <v>8.703974761580044</v>
       </c>
     </row>
     <row r="190">
@@ -4158,19 +4158,19 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001042028020136301</v>
+        <v>0.001041354746151938</v>
       </c>
       <c r="C190" t="n">
-        <v>2.106714729473459e-05</v>
+        <v>2.106029183151432e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>56.77635657659619</v>
+        <v>57.02043250558724</v>
       </c>
       <c r="E190" t="n">
-        <v>2.027630026684747e-10</v>
+        <v>1.809604243726559e-10</v>
       </c>
       <c r="F190" t="n">
-        <v>9.462726096099365</v>
+        <v>9.503405417597873</v>
       </c>
     </row>
     <row r="191">
@@ -4178,19 +4178,19 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0008286038143019598</v>
+        <v>0.0008284158887828808</v>
       </c>
       <c r="C191" t="n">
-        <v>1.684588435963269e-05</v>
+        <v>1.684395399757393e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>58.31420605803936</v>
+        <v>59.12137736503858</v>
       </c>
       <c r="E191" t="n">
-        <v>9.8959515991588e-11</v>
+        <v>6.787612777474239e-11</v>
       </c>
       <c r="F191" t="n">
-        <v>9.719034343006561</v>
+        <v>9.853562894173097</v>
       </c>
     </row>
     <row r="192">
@@ -4198,19 +4198,19 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0006992288445444626</v>
+        <v>0.000700720432007579</v>
       </c>
       <c r="C192" t="n">
-        <v>1.435672975214285e-05</v>
+        <v>1.438279768963763e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>47.43864379439464</v>
+        <v>46.72541337640438</v>
       </c>
       <c r="E192" t="n">
-        <v>1.529616837870161e-08</v>
+        <v>2.122548219186816e-08</v>
       </c>
       <c r="F192" t="n">
-        <v>7.906440632399106</v>
+        <v>7.787568896067397</v>
       </c>
     </row>
     <row r="193">
@@ -4218,19 +4218,19 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0005224037958286634</v>
+        <v>0.0005224570635953547</v>
       </c>
       <c r="C193" t="n">
-        <v>7.75916374944958e-06</v>
+        <v>7.76199575114273e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>106.8527154798728</v>
+        <v>107.3865397151849</v>
       </c>
       <c r="E193" t="n">
-        <v>7.706395180523899e-17</v>
+        <v>6.061769392464814e-17</v>
       </c>
       <c r="F193" t="n">
-        <v>8.219439652297911</v>
+        <v>8.260503055014226</v>
       </c>
     </row>
     <row r="194">
@@ -4238,19 +4238,19 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003585074714743808</v>
+        <v>0.0003585304140946454</v>
       </c>
       <c r="C194" t="n">
-        <v>7.541327585372406e-06</v>
+        <v>7.542659767619211e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>43.21047743551252</v>
+        <v>43.25066142039854</v>
       </c>
       <c r="E194" t="n">
-        <v>1.059744839629352e-07</v>
+        <v>1.040508517566437e-07</v>
       </c>
       <c r="F194" t="n">
-        <v>7.201746239252086</v>
+        <v>7.208443570066422</v>
       </c>
     </row>
     <row r="195">
@@ -4258,19 +4258,19 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0002194595793986278</v>
+        <v>0.000220580638353409</v>
       </c>
       <c r="C195" t="n">
-        <v>4.920390673116364e-06</v>
+        <v>4.937501345164261e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>31.4703419921026</v>
+        <v>29.57309839681689</v>
       </c>
       <c r="E195" t="n">
-        <v>2.061010963705409e-05</v>
+        <v>4.737692373770997e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>5.245056998683768</v>
+        <v>4.928849732802815</v>
       </c>
     </row>
     <row r="196">
@@ -4278,19 +4278,19 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0002222955926464091</v>
+        <v>0.0002221126778988904</v>
       </c>
       <c r="C196" t="n">
-        <v>4.838049885405673e-06</v>
+        <v>4.840703552350738e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>29.13869815331379</v>
+        <v>31.5412495300516</v>
       </c>
       <c r="E196" t="n">
-        <v>5.726785697698255e-05</v>
+        <v>1.997627807734427e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>4.856449692218965</v>
+        <v>5.256874921675267</v>
       </c>
     </row>
     <row r="197">
@@ -4298,19 +4298,19 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0001660419274239945</v>
+        <v>0.0001660503788965929</v>
       </c>
       <c r="C197" t="n">
-        <v>3.752355655271951e-06</v>
+        <v>3.751268834541685e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>19.56821447236089</v>
+        <v>19.26133193418271</v>
       </c>
       <c r="E197" t="n">
-        <v>0.003304250853070158</v>
+        <v>0.003744310856009671</v>
       </c>
       <c r="F197" t="n">
-        <v>3.261369078726814</v>
+        <v>3.210221989030451</v>
       </c>
     </row>
     <row r="198">
@@ -4318,19 +4318,19 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0001593419079317538</v>
+        <v>0.0001587189903981426</v>
       </c>
       <c r="C198" t="n">
-        <v>3.515331478711006e-06</v>
+        <v>3.507124291136934e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>27.52414466521336</v>
+        <v>30.95984451923027</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0001154678153560652</v>
+        <v>2.58007102359284e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>4.587357444202227</v>
+        <v>5.159974086538378</v>
       </c>
     </row>
     <row r="199">
@@ -4338,19 +4338,19 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0001482291885208954</v>
+        <v>0.0001482676785806668</v>
       </c>
       <c r="C199" t="n">
-        <v>3.2787714699458e-06</v>
+        <v>3.28083245939243e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>24.27426591029783</v>
+        <v>23.62469317275252</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0004649331190814047</v>
+        <v>0.0006121079375213318</v>
       </c>
       <c r="F199" t="n">
-        <v>4.045710985049638</v>
+        <v>3.93744886212542</v>
       </c>
     </row>
     <row r="200">
@@ -4358,19 +4358,19 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002506707515859941</v>
+        <v>0.0002510230124911268</v>
       </c>
       <c r="C200" t="n">
-        <v>5.623427089155893e-06</v>
+        <v>5.630975628777325e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>30.17329780789799</v>
+        <v>29.62797280962417</v>
       </c>
       <c r="E200" t="n">
-        <v>3.64357575659539e-05</v>
+        <v>4.625442859514942e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>5.028882967982998</v>
+        <v>4.937995468270695</v>
       </c>
     </row>
     <row r="201">
@@ -4378,19 +4378,19 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0001939724056559209</v>
+        <v>0.0001940010259097921</v>
       </c>
       <c r="C201" t="n">
-        <v>4.058540345334849e-06</v>
+        <v>4.058292505338612e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>40.27333350663247</v>
+        <v>39.58627653748056</v>
       </c>
       <c r="E201" t="n">
-        <v>4.025045225154839e-07</v>
+        <v>5.492406654215141e-07</v>
       </c>
       <c r="F201" t="n">
-        <v>6.712222251105412</v>
+        <v>6.597712756246761</v>
       </c>
     </row>
     <row r="202">
@@ -4398,19 +4398,19 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003058874723325778</v>
+        <v>0.0003062700695741736</v>
       </c>
       <c r="C202" t="n">
-        <v>6.783671123830989e-06</v>
+        <v>6.790770307631492e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>29.10979807970957</v>
+        <v>29.20385167884187</v>
       </c>
       <c r="E202" t="n">
-        <v>5.799403159272488e-05</v>
+        <v>5.566357385965339e-05</v>
       </c>
       <c r="F202" t="n">
-        <v>4.851633013284928</v>
+        <v>4.867308613140312</v>
       </c>
     </row>
     <row r="203">
@@ -4418,19 +4418,19 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002899822193915384</v>
+        <v>0.0002894887838440711</v>
       </c>
       <c r="C203" t="n">
-        <v>6.435641865273598e-06</v>
+        <v>6.430391864709607e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>29.20961214497272</v>
+        <v>29.89255748939195</v>
       </c>
       <c r="E203" t="n">
-        <v>5.552389122050212e-05</v>
+        <v>4.120091739254963e-05</v>
       </c>
       <c r="F203" t="n">
-        <v>4.868268690828786</v>
+        <v>4.982092914898658</v>
       </c>
     </row>
     <row r="204">
@@ -4438,19 +4438,19 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002784753103601337</v>
+        <v>0.000279402855681069</v>
       </c>
       <c r="C204" t="n">
-        <v>6.237979209597244e-06</v>
+        <v>6.255010881093318e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>33.83420351424849</v>
+        <v>33.34639063823032</v>
       </c>
       <c r="E204" t="n">
-        <v>7.241896712937337e-06</v>
+        <v>8.993146348800425e-06</v>
       </c>
       <c r="F204" t="n">
-        <v>5.639033919041414</v>
+        <v>5.557731773038387</v>
       </c>
     </row>
     <row r="205">
@@ -4458,19 +4458,19 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002756501552102557</v>
+        <v>0.0002762089734706187</v>
       </c>
       <c r="C205" t="n">
-        <v>6.164106519289594e-06</v>
+        <v>6.174092495369983e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>38.37881192640981</v>
+        <v>38.19682541152917</v>
       </c>
       <c r="E205" t="n">
-        <v>9.471704066054896e-07</v>
+        <v>1.028092222743442e-06</v>
       </c>
       <c r="F205" t="n">
-        <v>6.396468654401635</v>
+        <v>6.366137568588194</v>
       </c>
     </row>
     <row r="206">
@@ -4478,19 +4478,19 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002688925956221577</v>
+        <v>0.0002679278091500402</v>
       </c>
       <c r="C206" t="n">
-        <v>6.069045959041734e-06</v>
+        <v>6.06443983331533e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>27.54183202639485</v>
+        <v>31.1715367318815</v>
       </c>
       <c r="E206" t="n">
-        <v>0.0001145877025745896</v>
+        <v>2.3507361439487e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>4.590305337732476</v>
+        <v>5.19525612198025</v>
       </c>
     </row>
     <row r="207">
@@ -4498,19 +4498,19 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002539730402039391</v>
+        <v>0.000254018109426733</v>
       </c>
       <c r="C207" t="n">
-        <v>5.38431725739947e-06</v>
+        <v>5.386633704610711e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>32.57105973879747</v>
+        <v>33.60379303344634</v>
       </c>
       <c r="E207" t="n">
-        <v>1.267858326273298e-05</v>
+        <v>8.022317797221133e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>5.428509956466244</v>
+        <v>5.600632172241056</v>
       </c>
     </row>
     <row r="208">
@@ -4518,19 +4518,19 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002585742417697534</v>
+        <v>0.000258208052470138</v>
       </c>
       <c r="C208" t="n">
-        <v>5.741731261635542e-06</v>
+        <v>5.739715396056248e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>25.45592298260605</v>
+        <v>28.30843111146342</v>
       </c>
       <c r="E208" t="n">
-        <v>0.0002810587114591837</v>
+        <v>8.219137024597877e-05</v>
       </c>
       <c r="F208" t="n">
-        <v>4.242653830434342</v>
+        <v>4.71807185191057</v>
       </c>
     </row>
     <row r="209">
@@ -4538,19 +4538,19 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.000152479508443816</v>
+        <v>0.0001532298924082169</v>
       </c>
       <c r="C209" t="n">
-        <v>3.290993439333639e-06</v>
+        <v>3.302894400067863e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>39.97370526625502</v>
+        <v>37.09483611821474</v>
       </c>
       <c r="E209" t="n">
-        <v>4.609668901281049e-07</v>
+        <v>1.687495409030733e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>6.662284211042504</v>
+        <v>6.182472686369123</v>
       </c>
     </row>
     <row r="210">
@@ -4558,19 +4558,19 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>6.703395630183589e-05</v>
+        <v>6.741850106896831e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>1.697227925426175e-06</v>
+        <v>1.706703433577297e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>21.92689205717339</v>
+        <v>21.1549766960459</v>
       </c>
       <c r="E210" t="n">
-        <v>0.001248367120325549</v>
+        <v>0.001720608008520932</v>
       </c>
       <c r="F210" t="n">
-        <v>3.654482009528899</v>
+        <v>3.525829449340983</v>
       </c>
     </row>
     <row r="211">
@@ -4578,19 +4578,19 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>4.223331059659149e-05</v>
+        <v>4.229199973603347e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>1.183156757915778e-06</v>
+        <v>1.185176297275009e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>5.440398410235518</v>
+        <v>5.969722474041704</v>
       </c>
       <c r="E211" t="n">
-        <v>0.4886894362419733</v>
+        <v>0.4265903401219193</v>
       </c>
       <c r="F211" t="n">
-        <v>0.9067330683725863</v>
+        <v>0.9949537456736173</v>
       </c>
     </row>
     <row r="212">
@@ -4598,19 +4598,19 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>6.044869323686397e-05</v>
+        <v>6.067311218676456e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>1.453720943849036e-06</v>
+        <v>1.459144977357974e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>25.21358371378442</v>
+        <v>25.24257109856231</v>
       </c>
       <c r="E212" t="n">
-        <v>0.0003117171803402009</v>
+        <v>0.0003078831759768261</v>
       </c>
       <c r="F212" t="n">
-        <v>4.202263952297403</v>
+        <v>4.207095183093719</v>
       </c>
     </row>
     <row r="213">
@@ -4618,19 +4618,19 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>3.757100377513855e-05</v>
+        <v>3.743735812353799e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>1.019607965145766e-06</v>
+        <v>1.028508870307208e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>13.01973005509845</v>
+        <v>14.76425703319643</v>
       </c>
       <c r="E213" t="n">
-        <v>0.04272369983547097</v>
+        <v>0.02217168098280132</v>
       </c>
       <c r="F213" t="n">
-        <v>2.169955009183075</v>
+        <v>2.460709505532739</v>
       </c>
     </row>
     <row r="214">
@@ -4638,19 +4638,19 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>2.922985148958573e-05</v>
+        <v>2.924718432663995e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>8.638434960184072e-07</v>
+        <v>8.766289501577059e-07</v>
       </c>
       <c r="D214" t="n">
-        <v>7.394641720621071</v>
+        <v>8.78002697523501</v>
       </c>
       <c r="E214" t="n">
-        <v>0.2858867898026868</v>
+        <v>0.1863323656187634</v>
       </c>
       <c r="F214" t="n">
-        <v>1.232440286770178</v>
+        <v>1.463337829205835</v>
       </c>
     </row>
     <row r="215">
@@ -4658,19 +4658,19 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>2.488595550551531e-05</v>
+        <v>2.481149935413948e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>7.275023254973678e-07</v>
+        <v>7.284370132309661e-07</v>
       </c>
       <c r="D215" t="n">
-        <v>2.861443237425977</v>
+        <v>4.078405210924045</v>
       </c>
       <c r="E215" t="n">
-        <v>0.8260254965369316</v>
+        <v>0.6660667703916003</v>
       </c>
       <c r="F215" t="n">
-        <v>0.4769072062376628</v>
+        <v>0.6797342018206742</v>
       </c>
     </row>
     <row r="216">
@@ -4678,19 +4678,19 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>2.34116367255818e-05</v>
+        <v>2.339805403097691e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>7.362401676829276e-07</v>
+        <v>7.378101755257991e-07</v>
       </c>
       <c r="D216" t="n">
-        <v>10.40560337036452</v>
+        <v>9.801950093822422</v>
       </c>
       <c r="E216" t="n">
-        <v>0.10857786967992</v>
+        <v>0.1332439295137462</v>
       </c>
       <c r="F216" t="n">
-        <v>1.734267228394087</v>
+        <v>1.633658348970404</v>
       </c>
     </row>
     <row r="217">
@@ -4698,19 +4698,19 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>2.301498370188495e-05</v>
+        <v>2.32033786292262e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>7.313527636682651e-07</v>
+        <v>7.301745976283147e-07</v>
       </c>
       <c r="D217" t="n">
-        <v>9.674209973622006</v>
+        <v>8.60090874182757</v>
       </c>
       <c r="E217" t="n">
-        <v>0.1390592841899891</v>
+        <v>0.19729770086739</v>
       </c>
       <c r="F217" t="n">
-        <v>1.612368328937001</v>
+        <v>1.433484790304595</v>
       </c>
     </row>
     <row r="218">
@@ -4718,19 +4718,19 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>2.757173587280121e-05</v>
+        <v>2.728207484310615e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>8.372837404898644e-07</v>
+        <v>8.321013493110816e-07</v>
       </c>
       <c r="D218" t="n">
-        <v>2.702214566463977</v>
+        <v>2.590809149852221</v>
       </c>
       <c r="E218" t="n">
-        <v>0.8451856538559753</v>
+        <v>0.8581694539538248</v>
       </c>
       <c r="F218" t="n">
-        <v>0.4503690944106629</v>
+        <v>0.4318015249753702</v>
       </c>
     </row>
     <row r="219">
@@ -4738,19 +4738,19 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>2.816606091676336e-05</v>
+        <v>2.821482318788222e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>8.665888245957453e-07</v>
+        <v>8.656487950811645e-07</v>
       </c>
       <c r="D219" t="n">
-        <v>6.556771483642123</v>
+        <v>5.895761675007807</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3637857029306035</v>
+        <v>0.4349677733732383</v>
       </c>
       <c r="F219" t="n">
-        <v>1.092795247273687</v>
+        <v>0.9826269458346345</v>
       </c>
     </row>
     <row r="220">
@@ -4758,19 +4758,19 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>3.160370605952475e-05</v>
+        <v>3.159634493794937e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>8.380667651911296e-07</v>
+        <v>8.370057183001028e-07</v>
       </c>
       <c r="D220" t="n">
-        <v>15.93587640870798</v>
+        <v>15.63366366768357</v>
       </c>
       <c r="E220" t="n">
-        <v>0.01410231442908197</v>
+        <v>0.01586131932728604</v>
       </c>
       <c r="F220" t="n">
-        <v>2.65597940145133</v>
+        <v>2.605610611280595</v>
       </c>
     </row>
     <row r="221">
@@ -4778,19 +4778,19 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>3.622693237359522e-05</v>
+        <v>3.636048290014566e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>9.718270516639467e-07</v>
+        <v>9.745511287202168e-07</v>
       </c>
       <c r="D221" t="n">
-        <v>10.22776444406707</v>
+        <v>9.856059419271338</v>
       </c>
       <c r="E221" t="n">
-        <v>0.115382280506494</v>
+        <v>0.1308460159462604</v>
       </c>
       <c r="F221" t="n">
-        <v>1.704627407344512</v>
+        <v>1.642676569878556</v>
       </c>
     </row>
   </sheetData>
